--- a/SH opcodes.xlsx
+++ b/SH opcodes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2297" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2299" uniqueCount="273">
   <si>
     <t>EX</t>
   </si>
@@ -1972,76 +1972,247 @@
     <xf numFmtId="49" fontId="3" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="4" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2053,8 +2224,11 @@
     <xf numFmtId="49" fontId="4" fillId="4" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2066,180 +2240,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="4" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2555,10 +2555,10 @@
   </sheetPr>
   <dimension ref="A1:AA216"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A151" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="H160" sqref="H160"/>
+      <selection pane="bottomLeft" activeCell="AA76" sqref="AA76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2580,57 +2580,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="220" t="s">
+      <c r="A1" s="239" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="222" t="s">
+      <c r="B1" s="241" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="223"/>
-      <c r="D1" s="223"/>
-      <c r="E1" s="224"/>
-      <c r="F1" s="244" t="s">
+      <c r="C1" s="242"/>
+      <c r="D1" s="242"/>
+      <c r="E1" s="243"/>
+      <c r="F1" s="168" t="s">
         <v>241</v>
       </c>
-      <c r="G1" s="217" t="s">
+      <c r="G1" s="210" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="218"/>
-      <c r="I1" s="218"/>
-      <c r="J1" s="218"/>
-      <c r="K1" s="218"/>
-      <c r="L1" s="218"/>
-      <c r="M1" s="219"/>
-      <c r="N1" s="217" t="s">
+      <c r="H1" s="211"/>
+      <c r="I1" s="211"/>
+      <c r="J1" s="211"/>
+      <c r="K1" s="211"/>
+      <c r="L1" s="211"/>
+      <c r="M1" s="238"/>
+      <c r="N1" s="210" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="218"/>
-      <c r="P1" s="218"/>
-      <c r="Q1" s="218"/>
-      <c r="R1" s="219"/>
-      <c r="S1" s="217" t="s">
+      <c r="O1" s="211"/>
+      <c r="P1" s="211"/>
+      <c r="Q1" s="211"/>
+      <c r="R1" s="238"/>
+      <c r="S1" s="210" t="s">
         <v>2</v>
       </c>
-      <c r="T1" s="218"/>
-      <c r="U1" s="218"/>
-      <c r="V1" s="218"/>
-      <c r="W1" s="218"/>
-      <c r="X1" s="218"/>
-      <c r="Y1" s="218"/>
+      <c r="T1" s="211"/>
+      <c r="U1" s="211"/>
+      <c r="V1" s="211"/>
+      <c r="W1" s="211"/>
+      <c r="X1" s="211"/>
+      <c r="Y1" s="211"/>
       <c r="Z1" s="98" t="s">
         <v>247</v>
       </c>
-      <c r="AA1" s="242" t="s">
+      <c r="AA1" s="166" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="2" spans="1:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="221"/>
-      <c r="B2" s="225"/>
-      <c r="C2" s="226"/>
-      <c r="D2" s="226"/>
-      <c r="E2" s="227"/>
-      <c r="F2" s="245"/>
+      <c r="A2" s="240"/>
+      <c r="B2" s="244"/>
+      <c r="C2" s="245"/>
+      <c r="D2" s="245"/>
+      <c r="E2" s="246"/>
+      <c r="F2" s="169"/>
       <c r="G2" s="25" t="s">
         <v>13</v>
       </c>
@@ -2689,7 +2689,7 @@
       <c r="Z2" s="97" t="s">
         <v>248</v>
       </c>
-      <c r="AA2" s="243"/>
+      <c r="AA2" s="167"/>
     </row>
     <row r="3" spans="1:27" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="75" t="s">
@@ -2857,19 +2857,19 @@
       <c r="AA5" s="94"/>
     </row>
     <row r="6" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="170" t="s">
+      <c r="A6" s="190" t="s">
         <v>46</v>
       </c>
-      <c r="B6" s="172" t="s">
+      <c r="B6" s="193" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="174" t="s">
+      <c r="C6" s="196" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="174" t="s">
+      <c r="D6" s="196" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="176" t="s">
+      <c r="E6" s="199" t="s">
         <v>25</v>
       </c>
       <c r="F6" s="8" t="s">
@@ -2918,11 +2918,11 @@
       <c r="AA6" s="95"/>
     </row>
     <row r="7" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="171"/>
-      <c r="B7" s="173"/>
-      <c r="C7" s="175"/>
-      <c r="D7" s="175"/>
-      <c r="E7" s="177"/>
+      <c r="A7" s="192"/>
+      <c r="B7" s="195"/>
+      <c r="C7" s="198"/>
+      <c r="D7" s="198"/>
+      <c r="E7" s="201"/>
       <c r="F7" s="8" t="s">
         <v>243</v>
       </c>
@@ -2949,19 +2949,19 @@
       <c r="AA7" s="95"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A8" s="170" t="s">
+      <c r="A8" s="190" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="172" t="s">
+      <c r="B8" s="193" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="174" t="s">
+      <c r="C8" s="196" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="174" t="s">
+      <c r="D8" s="196" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="176" t="s">
+      <c r="E8" s="199" t="s">
         <v>25</v>
       </c>
       <c r="F8" s="8" t="s">
@@ -3002,11 +3002,11 @@
       <c r="AA8" s="95"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A9" s="171"/>
-      <c r="B9" s="173"/>
-      <c r="C9" s="175"/>
-      <c r="D9" s="175"/>
-      <c r="E9" s="177"/>
+      <c r="A9" s="192"/>
+      <c r="B9" s="195"/>
+      <c r="C9" s="198"/>
+      <c r="D9" s="198"/>
+      <c r="E9" s="201"/>
       <c r="F9" s="8" t="s">
         <v>243</v>
       </c>
@@ -3210,19 +3210,19 @@
       <c r="AA12" s="96"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A13" s="178" t="s">
+      <c r="A13" s="202" t="s">
         <v>48</v>
       </c>
-      <c r="B13" s="180" t="s">
+      <c r="B13" s="204" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="182" t="s">
+      <c r="C13" s="206" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="182" t="s">
+      <c r="D13" s="206" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="184" t="s">
+      <c r="E13" s="208" t="s">
         <v>30</v>
       </c>
       <c r="F13" s="11" t="s">
@@ -3259,11 +3259,11 @@
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A14" s="179"/>
-      <c r="B14" s="181"/>
-      <c r="C14" s="183"/>
-      <c r="D14" s="183"/>
-      <c r="E14" s="185"/>
+      <c r="A14" s="203"/>
+      <c r="B14" s="205"/>
+      <c r="C14" s="207"/>
+      <c r="D14" s="207"/>
+      <c r="E14" s="209"/>
       <c r="F14" s="11" t="s">
         <v>243</v>
       </c>
@@ -3598,19 +3598,19 @@
       <c r="AA20" s="96"/>
     </row>
     <row r="21" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="170" t="s">
+      <c r="A21" s="190" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="172" t="s">
+      <c r="B21" s="193" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="174" t="s">
+      <c r="C21" s="196" t="s">
         <v>5</v>
       </c>
-      <c r="D21" s="174" t="s">
+      <c r="D21" s="196" t="s">
         <v>5</v>
       </c>
-      <c r="E21" s="176" t="s">
+      <c r="E21" s="199" t="s">
         <v>50</v>
       </c>
       <c r="F21" s="8" t="s">
@@ -3647,11 +3647,11 @@
       <c r="AA21" s="95"/>
     </row>
     <row r="22" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="171"/>
-      <c r="B22" s="173"/>
-      <c r="C22" s="175"/>
-      <c r="D22" s="175"/>
-      <c r="E22" s="177"/>
+      <c r="A22" s="192"/>
+      <c r="B22" s="195"/>
+      <c r="C22" s="198"/>
+      <c r="D22" s="198"/>
+      <c r="E22" s="201"/>
       <c r="F22" s="8" t="s">
         <v>243</v>
       </c>
@@ -3678,19 +3678,19 @@
       <c r="AA22" s="95"/>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A23" s="252" t="s">
+      <c r="A23" s="188" t="s">
         <v>52</v>
       </c>
-      <c r="B23" s="246" t="s">
+      <c r="B23" s="182" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="248" t="s">
+      <c r="C23" s="184" t="s">
         <v>5</v>
       </c>
-      <c r="D23" s="248" t="s">
+      <c r="D23" s="184" t="s">
         <v>6</v>
       </c>
-      <c r="E23" s="250" t="s">
+      <c r="E23" s="186" t="s">
         <v>50</v>
       </c>
       <c r="F23" s="6" t="s">
@@ -3721,11 +3721,11 @@
       <c r="AA23" s="94"/>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A24" s="253"/>
-      <c r="B24" s="247"/>
-      <c r="C24" s="249"/>
-      <c r="D24" s="249"/>
-      <c r="E24" s="251"/>
+      <c r="A24" s="189"/>
+      <c r="B24" s="183"/>
+      <c r="C24" s="185"/>
+      <c r="D24" s="185"/>
+      <c r="E24" s="187"/>
       <c r="F24" s="6" t="s">
         <v>243</v>
       </c>
@@ -3752,19 +3752,19 @@
       <c r="AA24" s="94"/>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A25" s="170" t="s">
+      <c r="A25" s="190" t="s">
         <v>53</v>
       </c>
-      <c r="B25" s="172" t="s">
+      <c r="B25" s="193" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="174" t="s">
+      <c r="C25" s="196" t="s">
         <v>5</v>
       </c>
-      <c r="D25" s="174" t="s">
+      <c r="D25" s="196" t="s">
         <v>8</v>
       </c>
-      <c r="E25" s="176" t="s">
+      <c r="E25" s="199" t="s">
         <v>50</v>
       </c>
       <c r="F25" s="8" t="s">
@@ -3811,11 +3811,11 @@
       <c r="AA25" s="95"/>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A26" s="254"/>
-      <c r="B26" s="255"/>
-      <c r="C26" s="193"/>
-      <c r="D26" s="193"/>
-      <c r="E26" s="216"/>
+      <c r="A26" s="191"/>
+      <c r="B26" s="194"/>
+      <c r="C26" s="197"/>
+      <c r="D26" s="197"/>
+      <c r="E26" s="200"/>
       <c r="F26" s="8" t="s">
         <v>243</v>
       </c>
@@ -3866,11 +3866,11 @@
       <c r="AA26" s="95"/>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A27" s="254"/>
-      <c r="B27" s="255"/>
-      <c r="C27" s="193"/>
-      <c r="D27" s="193"/>
-      <c r="E27" s="216"/>
+      <c r="A27" s="191"/>
+      <c r="B27" s="194"/>
+      <c r="C27" s="197"/>
+      <c r="D27" s="197"/>
+      <c r="E27" s="200"/>
       <c r="F27" s="8" t="s">
         <v>244</v>
       </c>
@@ -3909,11 +3909,11 @@
       <c r="AA27" s="95"/>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A28" s="171"/>
-      <c r="B28" s="173"/>
-      <c r="C28" s="175"/>
-      <c r="D28" s="175"/>
-      <c r="E28" s="177"/>
+      <c r="A28" s="192"/>
+      <c r="B28" s="195"/>
+      <c r="C28" s="198"/>
+      <c r="D28" s="198"/>
+      <c r="E28" s="201"/>
       <c r="F28" s="8" t="s">
         <v>245</v>
       </c>
@@ -4284,19 +4284,19 @@
       <c r="AA34" s="96"/>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A35" s="178" t="s">
+      <c r="A35" s="202" t="s">
         <v>65</v>
       </c>
-      <c r="B35" s="180" t="s">
+      <c r="B35" s="204" t="s">
         <v>5</v>
       </c>
-      <c r="C35" s="182" t="s">
+      <c r="C35" s="206" t="s">
         <v>7</v>
       </c>
-      <c r="D35" s="182" t="s">
+      <c r="D35" s="206" t="s">
         <v>26</v>
       </c>
-      <c r="E35" s="184" t="s">
+      <c r="E35" s="208" t="s">
         <v>61</v>
       </c>
       <c r="F35" s="41" t="s">
@@ -4351,11 +4351,11 @@
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A36" s="179"/>
-      <c r="B36" s="181"/>
-      <c r="C36" s="183"/>
-      <c r="D36" s="183"/>
-      <c r="E36" s="185"/>
+      <c r="A36" s="203"/>
+      <c r="B36" s="205"/>
+      <c r="C36" s="207"/>
+      <c r="D36" s="207"/>
+      <c r="E36" s="209"/>
       <c r="F36" s="41" t="s">
         <v>243</v>
       </c>
@@ -5566,19 +5566,19 @@
       <c r="AA56" s="159"/>
     </row>
     <row r="57" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A57" s="178" t="s">
+      <c r="A57" s="202" t="s">
         <v>103</v>
       </c>
-      <c r="B57" s="180" t="s">
+      <c r="B57" s="204" t="s">
         <v>25</v>
       </c>
-      <c r="C57" s="182" t="s">
+      <c r="C57" s="206" t="s">
         <v>7</v>
       </c>
-      <c r="D57" s="182" t="s">
+      <c r="D57" s="206" t="s">
         <v>26</v>
       </c>
-      <c r="E57" s="184" t="s">
+      <c r="E57" s="208" t="s">
         <v>28</v>
       </c>
       <c r="F57" s="11" t="s">
@@ -5615,11 +5615,11 @@
       </c>
     </row>
     <row r="58" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A58" s="179"/>
-      <c r="B58" s="181"/>
-      <c r="C58" s="183"/>
-      <c r="D58" s="183"/>
-      <c r="E58" s="185"/>
+      <c r="A58" s="203"/>
+      <c r="B58" s="205"/>
+      <c r="C58" s="207"/>
+      <c r="D58" s="207"/>
+      <c r="E58" s="209"/>
       <c r="F58" s="11" t="s">
         <v>243</v>
       </c>
@@ -6000,19 +6000,19 @@
       <c r="AA64" s="159"/>
     </row>
     <row r="65" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A65" s="178" t="s">
+      <c r="A65" s="202" t="s">
         <v>114</v>
       </c>
-      <c r="B65" s="180" t="s">
+      <c r="B65" s="204" t="s">
         <v>25</v>
       </c>
-      <c r="C65" s="182" t="s">
+      <c r="C65" s="206" t="s">
         <v>7</v>
       </c>
-      <c r="D65" s="182" t="s">
+      <c r="D65" s="206" t="s">
         <v>26</v>
       </c>
-      <c r="E65" s="184" t="s">
+      <c r="E65" s="208" t="s">
         <v>59</v>
       </c>
       <c r="F65" s="11" t="s">
@@ -6049,11 +6049,11 @@
       </c>
     </row>
     <row r="66" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A66" s="179"/>
-      <c r="B66" s="181"/>
-      <c r="C66" s="183"/>
-      <c r="D66" s="183"/>
-      <c r="E66" s="185"/>
+      <c r="A66" s="203"/>
+      <c r="B66" s="205"/>
+      <c r="C66" s="207"/>
+      <c r="D66" s="207"/>
+      <c r="E66" s="209"/>
       <c r="F66" s="11" t="s">
         <v>243</v>
       </c>
@@ -6612,7 +6612,9 @@
       <c r="X75" s="19"/>
       <c r="Y75" s="66"/>
       <c r="Z75" s="149"/>
-      <c r="AA75" s="94"/>
+      <c r="AA75" s="94" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="76" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A76" s="62" t="s">
@@ -6675,7 +6677,9 @@
       <c r="X76" s="19"/>
       <c r="Y76" s="66"/>
       <c r="Z76" s="149"/>
-      <c r="AA76" s="94"/>
+      <c r="AA76" s="94" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="77" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A77" s="62" t="s">
@@ -6745,19 +6749,19 @@
       <c r="AA77" s="94"/>
     </row>
     <row r="78" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="230" t="s">
+      <c r="A78" s="234" t="s">
         <v>126</v>
       </c>
       <c r="B78" s="232" t="s">
         <v>27</v>
       </c>
-      <c r="C78" s="234" t="s">
+      <c r="C78" s="219" t="s">
         <v>7</v>
       </c>
-      <c r="D78" s="234" t="s">
+      <c r="D78" s="219" t="s">
         <v>5</v>
       </c>
-      <c r="E78" s="238" t="s">
+      <c r="E78" s="216" t="s">
         <v>25</v>
       </c>
       <c r="F78" s="89" t="s">
@@ -6812,11 +6816,11 @@
       <c r="AA78" s="94"/>
     </row>
     <row r="79" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="231"/>
+      <c r="A79" s="236"/>
       <c r="B79" s="233"/>
-      <c r="C79" s="235"/>
-      <c r="D79" s="235"/>
-      <c r="E79" s="239"/>
+      <c r="C79" s="220"/>
+      <c r="D79" s="220"/>
+      <c r="E79" s="218"/>
       <c r="F79" s="89" t="s">
         <v>243</v>
       </c>
@@ -6843,19 +6847,19 @@
       <c r="AA79" s="94"/>
     </row>
     <row r="80" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="230" t="s">
+      <c r="A80" s="234" t="s">
         <v>127</v>
       </c>
       <c r="B80" s="232" t="s">
         <v>27</v>
       </c>
-      <c r="C80" s="234" t="s">
+      <c r="C80" s="219" t="s">
         <v>7</v>
       </c>
-      <c r="D80" s="234" t="s">
+      <c r="D80" s="219" t="s">
         <v>6</v>
       </c>
-      <c r="E80" s="238" t="s">
+      <c r="E80" s="216" t="s">
         <v>25</v>
       </c>
       <c r="F80" s="89" t="s">
@@ -6910,11 +6914,11 @@
       <c r="AA80" s="94"/>
     </row>
     <row r="81" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="231"/>
+      <c r="A81" s="236"/>
       <c r="B81" s="233"/>
-      <c r="C81" s="235"/>
-      <c r="D81" s="235"/>
-      <c r="E81" s="239"/>
+      <c r="C81" s="220"/>
+      <c r="D81" s="220"/>
+      <c r="E81" s="218"/>
       <c r="F81" s="89" t="s">
         <v>243</v>
       </c>
@@ -6941,19 +6945,19 @@
       <c r="AA81" s="94"/>
     </row>
     <row r="82" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="230" t="s">
+      <c r="A82" s="234" t="s">
         <v>128</v>
       </c>
       <c r="B82" s="232" t="s">
         <v>27</v>
       </c>
-      <c r="C82" s="234" t="s">
+      <c r="C82" s="219" t="s">
         <v>7</v>
       </c>
-      <c r="D82" s="234" t="s">
+      <c r="D82" s="219" t="s">
         <v>8</v>
       </c>
-      <c r="E82" s="238" t="s">
+      <c r="E82" s="216" t="s">
         <v>25</v>
       </c>
       <c r="F82" s="89" t="s">
@@ -7008,11 +7012,11 @@
       <c r="AA82" s="94"/>
     </row>
     <row r="83" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="231"/>
+      <c r="A83" s="236"/>
       <c r="B83" s="233"/>
-      <c r="C83" s="235"/>
-      <c r="D83" s="235"/>
-      <c r="E83" s="239"/>
+      <c r="C83" s="220"/>
+      <c r="D83" s="220"/>
+      <c r="E83" s="218"/>
       <c r="F83" s="89" t="s">
         <v>243</v>
       </c>
@@ -7519,19 +7523,19 @@
       <c r="AA91" s="94"/>
     </row>
     <row r="92" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="230" t="s">
+      <c r="A92" s="234" t="s">
         <v>137</v>
       </c>
       <c r="B92" s="232" t="s">
         <v>27</v>
       </c>
-      <c r="C92" s="234" t="s">
+      <c r="C92" s="219" t="s">
         <v>26</v>
       </c>
-      <c r="D92" s="234" t="s">
+      <c r="D92" s="219" t="s">
         <v>5</v>
       </c>
-      <c r="E92" s="238" t="s">
+      <c r="E92" s="216" t="s">
         <v>30</v>
       </c>
       <c r="F92" s="89" t="s">
@@ -7584,11 +7588,11 @@
       <c r="AA92" s="94"/>
     </row>
     <row r="93" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="240"/>
-      <c r="B93" s="236"/>
-      <c r="C93" s="237"/>
-      <c r="D93" s="237"/>
-      <c r="E93" s="241"/>
+      <c r="A93" s="235"/>
+      <c r="B93" s="237"/>
+      <c r="C93" s="221"/>
+      <c r="D93" s="221"/>
+      <c r="E93" s="217"/>
       <c r="F93" s="89" t="s">
         <v>243</v>
       </c>
@@ -7615,11 +7619,11 @@
       <c r="AA93" s="94"/>
     </row>
     <row r="94" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="231"/>
+      <c r="A94" s="236"/>
       <c r="B94" s="233"/>
-      <c r="C94" s="235"/>
-      <c r="D94" s="235"/>
-      <c r="E94" s="239"/>
+      <c r="C94" s="220"/>
+      <c r="D94" s="220"/>
+      <c r="E94" s="218"/>
       <c r="F94" s="89" t="s">
         <v>244</v>
       </c>
@@ -7658,19 +7662,19 @@
       <c r="AA94" s="94"/>
     </row>
     <row r="95" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="230" t="s">
+      <c r="A95" s="234" t="s">
         <v>138</v>
       </c>
       <c r="B95" s="232" t="s">
         <v>27</v>
       </c>
-      <c r="C95" s="234" t="s">
+      <c r="C95" s="219" t="s">
         <v>26</v>
       </c>
-      <c r="D95" s="234" t="s">
+      <c r="D95" s="219" t="s">
         <v>6</v>
       </c>
-      <c r="E95" s="238" t="s">
+      <c r="E95" s="216" t="s">
         <v>30</v>
       </c>
       <c r="F95" s="89" t="s">
@@ -7723,11 +7727,11 @@
       <c r="AA95" s="94"/>
     </row>
     <row r="96" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="240"/>
-      <c r="B96" s="236"/>
-      <c r="C96" s="237"/>
-      <c r="D96" s="237"/>
-      <c r="E96" s="241"/>
+      <c r="A96" s="235"/>
+      <c r="B96" s="237"/>
+      <c r="C96" s="221"/>
+      <c r="D96" s="221"/>
+      <c r="E96" s="217"/>
       <c r="F96" s="89" t="s">
         <v>243</v>
       </c>
@@ -7754,11 +7758,11 @@
       <c r="AA96" s="94"/>
     </row>
     <row r="97" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="231"/>
+      <c r="A97" s="236"/>
       <c r="B97" s="233"/>
-      <c r="C97" s="235"/>
-      <c r="D97" s="235"/>
-      <c r="E97" s="239"/>
+      <c r="C97" s="220"/>
+      <c r="D97" s="220"/>
+      <c r="E97" s="218"/>
       <c r="F97" s="89" t="s">
         <v>244</v>
       </c>
@@ -7797,19 +7801,19 @@
       <c r="AA97" s="94"/>
     </row>
     <row r="98" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="230" t="s">
+      <c r="A98" s="234" t="s">
         <v>139</v>
       </c>
       <c r="B98" s="232" t="s">
         <v>27</v>
       </c>
-      <c r="C98" s="234" t="s">
+      <c r="C98" s="219" t="s">
         <v>26</v>
       </c>
-      <c r="D98" s="234" t="s">
+      <c r="D98" s="219" t="s">
         <v>8</v>
       </c>
-      <c r="E98" s="238" t="s">
+      <c r="E98" s="216" t="s">
         <v>30</v>
       </c>
       <c r="F98" s="89" t="s">
@@ -7862,11 +7866,11 @@
       <c r="AA98" s="94"/>
     </row>
     <row r="99" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="240"/>
-      <c r="B99" s="236"/>
-      <c r="C99" s="237"/>
-      <c r="D99" s="237"/>
-      <c r="E99" s="241"/>
+      <c r="A99" s="235"/>
+      <c r="B99" s="237"/>
+      <c r="C99" s="221"/>
+      <c r="D99" s="221"/>
+      <c r="E99" s="217"/>
       <c r="F99" s="89" t="s">
         <v>243</v>
       </c>
@@ -7893,11 +7897,11 @@
       <c r="AA99" s="94"/>
     </row>
     <row r="100" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="231"/>
+      <c r="A100" s="236"/>
       <c r="B100" s="233"/>
-      <c r="C100" s="235"/>
-      <c r="D100" s="235"/>
-      <c r="E100" s="239"/>
+      <c r="C100" s="220"/>
+      <c r="D100" s="220"/>
+      <c r="E100" s="218"/>
       <c r="F100" s="89" t="s">
         <v>244</v>
       </c>
@@ -8419,19 +8423,19 @@
       <c r="AA109" s="94"/>
     </row>
     <row r="110" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A110" s="166" t="s">
+      <c r="A110" s="230" t="s">
         <v>155</v>
       </c>
-      <c r="B110" s="168" t="s">
+      <c r="B110" s="224" t="s">
         <v>27</v>
       </c>
-      <c r="C110" s="186" t="s">
+      <c r="C110" s="226" t="s">
         <v>26</v>
       </c>
-      <c r="D110" s="186" t="s">
+      <c r="D110" s="226" t="s">
         <v>5</v>
       </c>
-      <c r="E110" s="188" t="s">
+      <c r="E110" s="227" t="s">
         <v>50</v>
       </c>
       <c r="F110" s="77" t="s">
@@ -8482,11 +8486,11 @@
       <c r="AA110" s="95"/>
     </row>
     <row r="111" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A111" s="167"/>
-      <c r="B111" s="169"/>
-      <c r="C111" s="187"/>
-      <c r="D111" s="187"/>
-      <c r="E111" s="189"/>
+      <c r="A111" s="231"/>
+      <c r="B111" s="225"/>
+      <c r="C111" s="228"/>
+      <c r="D111" s="228"/>
+      <c r="E111" s="229"/>
       <c r="F111" s="134" t="s">
         <v>243</v>
       </c>
@@ -8513,19 +8517,19 @@
       <c r="AA111" s="95"/>
     </row>
     <row r="112" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A112" s="200" t="s">
+      <c r="A112" s="179" t="s">
         <v>156</v>
       </c>
-      <c r="B112" s="202" t="s">
+      <c r="B112" s="176" t="s">
         <v>27</v>
       </c>
-      <c r="C112" s="204" t="s">
+      <c r="C112" s="170" t="s">
         <v>7</v>
       </c>
-      <c r="D112" s="204" t="s">
+      <c r="D112" s="170" t="s">
         <v>6</v>
       </c>
-      <c r="E112" s="206" t="s">
+      <c r="E112" s="173" t="s">
         <v>50</v>
       </c>
       <c r="F112" s="76" t="s">
@@ -8576,11 +8580,11 @@
       <c r="AA112" s="93"/>
     </row>
     <row r="113" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A113" s="208"/>
-      <c r="B113" s="209"/>
-      <c r="C113" s="214"/>
-      <c r="D113" s="214"/>
-      <c r="E113" s="215"/>
+      <c r="A113" s="180"/>
+      <c r="B113" s="177"/>
+      <c r="C113" s="171"/>
+      <c r="D113" s="171"/>
+      <c r="E113" s="174"/>
       <c r="F113" s="76" t="s">
         <v>243</v>
       </c>
@@ -8617,11 +8621,11 @@
       <c r="AA113" s="93"/>
     </row>
     <row r="114" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A114" s="208"/>
-      <c r="B114" s="209"/>
-      <c r="C114" s="214"/>
-      <c r="D114" s="214"/>
-      <c r="E114" s="215"/>
+      <c r="A114" s="180"/>
+      <c r="B114" s="177"/>
+      <c r="C114" s="171"/>
+      <c r="D114" s="171"/>
+      <c r="E114" s="174"/>
       <c r="F114" s="76" t="s">
         <v>244</v>
       </c>
@@ -8664,11 +8668,11 @@
       <c r="AA114" s="93"/>
     </row>
     <row r="115" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A115" s="201"/>
-      <c r="B115" s="203"/>
-      <c r="C115" s="205"/>
-      <c r="D115" s="205"/>
-      <c r="E115" s="207"/>
+      <c r="A115" s="181"/>
+      <c r="B115" s="178"/>
+      <c r="C115" s="172"/>
+      <c r="D115" s="172"/>
+      <c r="E115" s="175"/>
       <c r="F115" s="76" t="s">
         <v>245</v>
       </c>
@@ -8707,19 +8711,19 @@
       <c r="AA115" s="93"/>
     </row>
     <row r="116" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="166" t="s">
+      <c r="A116" s="230" t="s">
         <v>157</v>
       </c>
-      <c r="B116" s="168" t="s">
+      <c r="B116" s="224" t="s">
         <v>27</v>
       </c>
-      <c r="C116" s="186" t="s">
+      <c r="C116" s="226" t="s">
         <v>26</v>
       </c>
-      <c r="D116" s="186" t="s">
+      <c r="D116" s="226" t="s">
         <v>8</v>
       </c>
-      <c r="E116" s="188" t="s">
+      <c r="E116" s="227" t="s">
         <v>50</v>
       </c>
       <c r="F116" s="77" t="s">
@@ -8760,11 +8764,11 @@
       <c r="AA116" s="95"/>
     </row>
     <row r="117" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="167"/>
-      <c r="B117" s="169"/>
-      <c r="C117" s="187"/>
-      <c r="D117" s="187"/>
-      <c r="E117" s="189"/>
+      <c r="A117" s="231"/>
+      <c r="B117" s="225"/>
+      <c r="C117" s="228"/>
+      <c r="D117" s="228"/>
+      <c r="E117" s="229"/>
       <c r="F117" s="134" t="s">
         <v>243</v>
       </c>
@@ -8938,19 +8942,19 @@
       <c r="AA120" s="94"/>
     </row>
     <row r="121" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A121" s="200" t="s">
+      <c r="A121" s="179" t="s">
         <v>161</v>
       </c>
-      <c r="B121" s="202" t="s">
+      <c r="B121" s="176" t="s">
         <v>27</v>
       </c>
-      <c r="C121" s="204" t="s">
+      <c r="C121" s="170" t="s">
         <v>7</v>
       </c>
-      <c r="D121" s="204" t="s">
+      <c r="D121" s="170" t="s">
         <v>26</v>
       </c>
-      <c r="E121" s="206" t="s">
+      <c r="E121" s="173" t="s">
         <v>61</v>
       </c>
       <c r="F121" s="41" t="s">
@@ -9005,11 +9009,11 @@
       </c>
     </row>
     <row r="122" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A122" s="201"/>
-      <c r="B122" s="203"/>
-      <c r="C122" s="205"/>
-      <c r="D122" s="205"/>
-      <c r="E122" s="207"/>
+      <c r="A122" s="181"/>
+      <c r="B122" s="178"/>
+      <c r="C122" s="172"/>
+      <c r="D122" s="172"/>
+      <c r="E122" s="175"/>
       <c r="F122" s="41" t="s">
         <v>243</v>
       </c>
@@ -10090,10 +10094,10 @@
       <c r="C140" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D140" s="228" t="s">
+      <c r="D140" s="212" t="s">
         <v>187</v>
       </c>
-      <c r="E140" s="229"/>
+      <c r="E140" s="213"/>
       <c r="F140" s="76" t="s">
         <v>242</v>
       </c>
@@ -10387,10 +10391,10 @@
       <c r="C145" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="D145" s="228" t="s">
+      <c r="D145" s="212" t="s">
         <v>187</v>
       </c>
-      <c r="E145" s="229"/>
+      <c r="E145" s="213"/>
       <c r="F145" s="76" t="s">
         <v>242</v>
       </c>
@@ -10438,10 +10442,10 @@
       <c r="C146" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="D146" s="210" t="s">
+      <c r="D146" s="222" t="s">
         <v>193</v>
       </c>
-      <c r="E146" s="211"/>
+      <c r="E146" s="223"/>
       <c r="F146" s="77" t="s">
         <v>242</v>
       </c>
@@ -10489,10 +10493,10 @@
       <c r="C147" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="D147" s="210" t="s">
+      <c r="D147" s="222" t="s">
         <v>193</v>
       </c>
-      <c r="E147" s="211"/>
+      <c r="E147" s="223"/>
       <c r="F147" s="77" t="s">
         <v>242</v>
       </c>
@@ -10540,10 +10544,10 @@
       <c r="C148" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="D148" s="210" t="s">
+      <c r="D148" s="222" t="s">
         <v>193</v>
       </c>
-      <c r="E148" s="211"/>
+      <c r="E148" s="223"/>
       <c r="F148" s="77" t="s">
         <v>242</v>
       </c>
@@ -10591,10 +10595,10 @@
       <c r="C149" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="D149" s="210" t="s">
+      <c r="D149" s="222" t="s">
         <v>193</v>
       </c>
-      <c r="E149" s="211"/>
+      <c r="E149" s="223"/>
       <c r="F149" s="77" t="s">
         <v>242</v>
       </c>
@@ -10642,10 +10646,10 @@
       <c r="C150" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D150" s="198" t="s">
+      <c r="D150" s="214" t="s">
         <v>193</v>
       </c>
-      <c r="E150" s="199"/>
+      <c r="E150" s="215"/>
       <c r="F150" s="78" t="s">
         <v>242</v>
       </c>
@@ -10692,17 +10696,17 @@
       <c r="AA150" s="96"/>
     </row>
     <row r="151" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="166" t="s">
+      <c r="A151" s="230" t="s">
         <v>201</v>
       </c>
-      <c r="B151" s="168" t="s">
+      <c r="B151" s="224" t="s">
         <v>54</v>
       </c>
-      <c r="C151" s="186" t="s">
+      <c r="C151" s="226" t="s">
         <v>200</v>
       </c>
-      <c r="D151" s="186"/>
-      <c r="E151" s="188"/>
+      <c r="D151" s="226"/>
+      <c r="E151" s="227"/>
       <c r="F151" s="77" t="s">
         <v>242</v>
       </c>
@@ -10741,11 +10745,11 @@
       <c r="AA151" s="95"/>
     </row>
     <row r="152" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="167"/>
-      <c r="B152" s="169"/>
-      <c r="C152" s="187"/>
-      <c r="D152" s="187"/>
-      <c r="E152" s="189"/>
+      <c r="A152" s="231"/>
+      <c r="B152" s="225"/>
+      <c r="C152" s="228"/>
+      <c r="D152" s="228"/>
+      <c r="E152" s="229"/>
       <c r="F152" s="102" t="s">
         <v>243</v>
       </c>
@@ -10772,17 +10776,17 @@
       <c r="AA152" s="95"/>
     </row>
     <row r="153" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="166" t="s">
+      <c r="A153" s="230" t="s">
         <v>202</v>
       </c>
-      <c r="B153" s="168" t="s">
+      <c r="B153" s="224" t="s">
         <v>50</v>
       </c>
-      <c r="C153" s="186" t="s">
+      <c r="C153" s="226" t="s">
         <v>200</v>
       </c>
-      <c r="D153" s="186"/>
-      <c r="E153" s="188"/>
+      <c r="D153" s="226"/>
+      <c r="E153" s="227"/>
       <c r="F153" s="77" t="s">
         <v>242</v>
       </c>
@@ -10829,11 +10833,11 @@
       <c r="AA153" s="95"/>
     </row>
     <row r="154" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="167"/>
-      <c r="B154" s="169"/>
-      <c r="C154" s="187"/>
-      <c r="D154" s="187"/>
-      <c r="E154" s="189"/>
+      <c r="A154" s="231"/>
+      <c r="B154" s="225"/>
+      <c r="C154" s="228"/>
+      <c r="D154" s="228"/>
+      <c r="E154" s="229"/>
       <c r="F154" s="134" t="s">
         <v>243</v>
       </c>
@@ -10869,10 +10873,10 @@
       <c r="C155" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D155" s="198" t="s">
+      <c r="D155" s="214" t="s">
         <v>193</v>
       </c>
-      <c r="E155" s="199"/>
+      <c r="E155" s="215"/>
       <c r="F155" s="78" t="s">
         <v>242</v>
       </c>
@@ -10926,10 +10930,10 @@
       <c r="C156" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D156" s="198" t="s">
+      <c r="D156" s="214" t="s">
         <v>193</v>
       </c>
-      <c r="E156" s="199"/>
+      <c r="E156" s="215"/>
       <c r="F156" s="78" t="s">
         <v>242</v>
       </c>
@@ -10983,10 +10987,10 @@
       <c r="C157" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D157" s="198" t="s">
+      <c r="D157" s="214" t="s">
         <v>193</v>
       </c>
-      <c r="E157" s="199"/>
+      <c r="E157" s="215"/>
       <c r="F157" s="78" t="s">
         <v>242</v>
       </c>
@@ -11031,19 +11035,19 @@
       <c r="AA157" s="96"/>
     </row>
     <row r="158" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A158" s="166" t="s">
+      <c r="A158" s="230" t="s">
         <v>207</v>
       </c>
-      <c r="B158" s="168" t="s">
+      <c r="B158" s="224" t="s">
         <v>58</v>
       </c>
-      <c r="C158" s="186" t="s">
+      <c r="C158" s="226" t="s">
         <v>25</v>
       </c>
-      <c r="D158" s="186" t="s">
+      <c r="D158" s="226" t="s">
         <v>187</v>
       </c>
-      <c r="E158" s="188"/>
+      <c r="E158" s="227"/>
       <c r="F158" s="102" t="s">
         <v>242</v>
       </c>
@@ -11070,11 +11074,11 @@
       <c r="AA158" s="127"/>
     </row>
     <row r="159" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A159" s="194"/>
-      <c r="B159" s="195"/>
-      <c r="C159" s="196"/>
-      <c r="D159" s="196"/>
-      <c r="E159" s="197"/>
+      <c r="A159" s="252"/>
+      <c r="B159" s="253"/>
+      <c r="C159" s="254"/>
+      <c r="D159" s="254"/>
+      <c r="E159" s="255"/>
       <c r="F159" s="102" t="s">
         <v>243</v>
       </c>
@@ -11127,11 +11131,11 @@
       <c r="AA159" s="127"/>
     </row>
     <row r="160" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A160" s="194"/>
-      <c r="B160" s="195"/>
-      <c r="C160" s="196"/>
-      <c r="D160" s="196"/>
-      <c r="E160" s="197"/>
+      <c r="A160" s="252"/>
+      <c r="B160" s="253"/>
+      <c r="C160" s="254"/>
+      <c r="D160" s="254"/>
+      <c r="E160" s="255"/>
       <c r="F160" s="102" t="s">
         <v>244</v>
       </c>
@@ -11184,11 +11188,11 @@
       <c r="AA160" s="127"/>
     </row>
     <row r="161" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A161" s="194"/>
-      <c r="B161" s="195"/>
-      <c r="C161" s="196"/>
-      <c r="D161" s="196"/>
-      <c r="E161" s="197"/>
+      <c r="A161" s="252"/>
+      <c r="B161" s="253"/>
+      <c r="C161" s="254"/>
+      <c r="D161" s="254"/>
+      <c r="E161" s="255"/>
       <c r="F161" s="102" t="s">
         <v>245</v>
       </c>
@@ -11231,11 +11235,11 @@
       <c r="AA161" s="127"/>
     </row>
     <row r="162" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A162" s="194"/>
-      <c r="B162" s="195"/>
-      <c r="C162" s="196"/>
-      <c r="D162" s="196"/>
-      <c r="E162" s="197"/>
+      <c r="A162" s="252"/>
+      <c r="B162" s="253"/>
+      <c r="C162" s="254"/>
+      <c r="D162" s="254"/>
+      <c r="E162" s="255"/>
       <c r="F162" s="102" t="s">
         <v>254</v>
       </c>
@@ -11262,11 +11266,11 @@
       <c r="AA162" s="127"/>
     </row>
     <row r="163" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A163" s="194"/>
-      <c r="B163" s="195"/>
-      <c r="C163" s="196"/>
-      <c r="D163" s="196"/>
-      <c r="E163" s="197"/>
+      <c r="A163" s="252"/>
+      <c r="B163" s="253"/>
+      <c r="C163" s="254"/>
+      <c r="D163" s="254"/>
+      <c r="E163" s="255"/>
       <c r="F163" s="102" t="s">
         <v>262</v>
       </c>
@@ -11305,11 +11309,11 @@
       <c r="AA163" s="127"/>
     </row>
     <row r="164" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A164" s="167"/>
-      <c r="B164" s="169"/>
-      <c r="C164" s="187"/>
-      <c r="D164" s="187"/>
-      <c r="E164" s="189"/>
+      <c r="A164" s="231"/>
+      <c r="B164" s="225"/>
+      <c r="C164" s="228"/>
+      <c r="D164" s="228"/>
+      <c r="E164" s="229"/>
       <c r="F164" s="102" t="s">
         <v>263</v>
       </c>
@@ -11345,10 +11349,10 @@
       <c r="C165" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D165" s="198" t="s">
+      <c r="D165" s="214" t="s">
         <v>193</v>
       </c>
-      <c r="E165" s="199"/>
+      <c r="E165" s="215"/>
       <c r="F165" s="78" t="s">
         <v>242</v>
       </c>
@@ -11404,10 +11408,10 @@
       <c r="C166" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D166" s="198" t="s">
+      <c r="D166" s="214" t="s">
         <v>193</v>
       </c>
-      <c r="E166" s="199"/>
+      <c r="E166" s="215"/>
       <c r="F166" s="78" t="s">
         <v>242</v>
       </c>
@@ -11463,10 +11467,10 @@
       <c r="C167" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D167" s="198" t="s">
+      <c r="D167" s="214" t="s">
         <v>193</v>
       </c>
-      <c r="E167" s="199"/>
+      <c r="E167" s="215"/>
       <c r="F167" s="78" t="s">
         <v>242</v>
       </c>
@@ -11522,10 +11526,10 @@
       <c r="C168" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D168" s="198" t="s">
+      <c r="D168" s="214" t="s">
         <v>193</v>
       </c>
-      <c r="E168" s="199"/>
+      <c r="E168" s="215"/>
       <c r="F168" s="78" t="s">
         <v>242</v>
       </c>
@@ -11579,10 +11583,10 @@
       <c r="C169" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="D169" s="228" t="s">
+      <c r="D169" s="212" t="s">
         <v>187</v>
       </c>
-      <c r="E169" s="229"/>
+      <c r="E169" s="213"/>
       <c r="F169" s="76" t="s">
         <v>242</v>
       </c>
@@ -11630,10 +11634,10 @@
       <c r="C170" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="D170" s="228" t="s">
+      <c r="D170" s="212" t="s">
         <v>187</v>
       </c>
-      <c r="E170" s="229"/>
+      <c r="E170" s="213"/>
       <c r="F170" s="76" t="s">
         <v>242</v>
       </c>
@@ -11687,10 +11691,10 @@
       <c r="C171" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="D171" s="228" t="s">
+      <c r="D171" s="212" t="s">
         <v>187</v>
       </c>
-      <c r="E171" s="229"/>
+      <c r="E171" s="213"/>
       <c r="F171" s="76" t="s">
         <v>242</v>
       </c>
@@ -11744,10 +11748,10 @@
       <c r="C172" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="D172" s="228" t="s">
+      <c r="D172" s="212" t="s">
         <v>187</v>
       </c>
-      <c r="E172" s="229"/>
+      <c r="E172" s="213"/>
       <c r="F172" s="76" t="s">
         <v>242</v>
       </c>
@@ -11792,19 +11796,19 @@
       <c r="AA172" s="93"/>
     </row>
     <row r="173" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A173" s="200" t="s">
+      <c r="A173" s="179" t="s">
         <v>216</v>
       </c>
-      <c r="B173" s="202" t="s">
+      <c r="B173" s="176" t="s">
         <v>58</v>
       </c>
-      <c r="C173" s="204" t="s">
+      <c r="C173" s="170" t="s">
         <v>58</v>
       </c>
-      <c r="D173" s="204" t="s">
+      <c r="D173" s="170" t="s">
         <v>187</v>
       </c>
-      <c r="E173" s="206"/>
+      <c r="E173" s="173"/>
       <c r="F173" s="76" t="s">
         <v>242</v>
       </c>
@@ -11851,11 +11855,11 @@
       <c r="AA173" s="93"/>
     </row>
     <row r="174" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A174" s="208"/>
-      <c r="B174" s="209"/>
-      <c r="C174" s="214"/>
-      <c r="D174" s="214"/>
-      <c r="E174" s="215"/>
+      <c r="A174" s="180"/>
+      <c r="B174" s="177"/>
+      <c r="C174" s="171"/>
+      <c r="D174" s="171"/>
+      <c r="E174" s="174"/>
       <c r="F174" s="76" t="s">
         <v>243</v>
       </c>
@@ -11890,11 +11894,11 @@
       <c r="AA174" s="93"/>
     </row>
     <row r="175" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A175" s="201"/>
-      <c r="B175" s="203"/>
-      <c r="C175" s="205"/>
-      <c r="D175" s="205"/>
-      <c r="E175" s="207"/>
+      <c r="A175" s="181"/>
+      <c r="B175" s="178"/>
+      <c r="C175" s="172"/>
+      <c r="D175" s="172"/>
+      <c r="E175" s="175"/>
       <c r="F175" s="76" t="s">
         <v>244</v>
       </c>
@@ -11937,19 +11941,19 @@
       <c r="AA175" s="93"/>
     </row>
     <row r="176" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A176" s="200" t="s">
+      <c r="A176" s="179" t="s">
         <v>217</v>
       </c>
-      <c r="B176" s="202" t="s">
+      <c r="B176" s="176" t="s">
         <v>58</v>
       </c>
-      <c r="C176" s="204" t="s">
+      <c r="C176" s="170" t="s">
         <v>59</v>
       </c>
-      <c r="D176" s="204" t="s">
+      <c r="D176" s="170" t="s">
         <v>187</v>
       </c>
-      <c r="E176" s="206"/>
+      <c r="E176" s="173"/>
       <c r="F176" s="76" t="s">
         <v>242</v>
       </c>
@@ -11996,11 +12000,11 @@
       <c r="AA176" s="93"/>
     </row>
     <row r="177" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A177" s="208"/>
-      <c r="B177" s="209"/>
-      <c r="C177" s="214"/>
-      <c r="D177" s="214"/>
-      <c r="E177" s="215"/>
+      <c r="A177" s="180"/>
+      <c r="B177" s="177"/>
+      <c r="C177" s="171"/>
+      <c r="D177" s="171"/>
+      <c r="E177" s="174"/>
       <c r="F177" s="76" t="s">
         <v>243</v>
       </c>
@@ -12035,11 +12039,11 @@
       <c r="AA177" s="93"/>
     </row>
     <row r="178" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A178" s="201"/>
-      <c r="B178" s="203"/>
-      <c r="C178" s="205"/>
-      <c r="D178" s="205"/>
-      <c r="E178" s="207"/>
+      <c r="A178" s="181"/>
+      <c r="B178" s="178"/>
+      <c r="C178" s="172"/>
+      <c r="D178" s="172"/>
+      <c r="E178" s="175"/>
       <c r="F178" s="76" t="s">
         <v>244</v>
       </c>
@@ -12084,19 +12088,19 @@
       <c r="AA178" s="93"/>
     </row>
     <row r="179" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A179" s="200" t="s">
+      <c r="A179" s="179" t="s">
         <v>218</v>
       </c>
-      <c r="B179" s="202" t="s">
+      <c r="B179" s="176" t="s">
         <v>58</v>
       </c>
-      <c r="C179" s="204" t="s">
+      <c r="C179" s="170" t="s">
         <v>60</v>
       </c>
-      <c r="D179" s="204" t="s">
+      <c r="D179" s="170" t="s">
         <v>187</v>
       </c>
-      <c r="E179" s="206"/>
+      <c r="E179" s="173"/>
       <c r="F179" s="76" t="s">
         <v>242</v>
       </c>
@@ -12143,11 +12147,11 @@
       <c r="AA179" s="93"/>
     </row>
     <row r="180" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A180" s="208"/>
-      <c r="B180" s="209"/>
-      <c r="C180" s="214"/>
-      <c r="D180" s="214"/>
-      <c r="E180" s="215"/>
+      <c r="A180" s="180"/>
+      <c r="B180" s="177"/>
+      <c r="C180" s="171"/>
+      <c r="D180" s="171"/>
+      <c r="E180" s="174"/>
       <c r="F180" s="76" t="s">
         <v>243</v>
       </c>
@@ -12182,11 +12186,11 @@
       <c r="AA180" s="93"/>
     </row>
     <row r="181" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A181" s="201"/>
-      <c r="B181" s="203"/>
-      <c r="C181" s="205"/>
-      <c r="D181" s="205"/>
-      <c r="E181" s="207"/>
+      <c r="A181" s="181"/>
+      <c r="B181" s="178"/>
+      <c r="C181" s="172"/>
+      <c r="D181" s="172"/>
+      <c r="E181" s="175"/>
       <c r="F181" s="76" t="s">
         <v>244</v>
       </c>
@@ -12231,19 +12235,19 @@
       <c r="AA181" s="93"/>
     </row>
     <row r="182" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A182" s="200" t="s">
+      <c r="A182" s="179" t="s">
         <v>219</v>
       </c>
-      <c r="B182" s="202" t="s">
+      <c r="B182" s="176" t="s">
         <v>58</v>
       </c>
-      <c r="C182" s="204" t="s">
+      <c r="C182" s="170" t="s">
         <v>61</v>
       </c>
-      <c r="D182" s="204" t="s">
+      <c r="D182" s="170" t="s">
         <v>187</v>
       </c>
-      <c r="E182" s="206"/>
+      <c r="E182" s="173"/>
       <c r="F182" s="76" t="s">
         <v>242</v>
       </c>
@@ -12290,11 +12294,11 @@
       <c r="AA182" s="93"/>
     </row>
     <row r="183" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A183" s="208"/>
-      <c r="B183" s="209"/>
-      <c r="C183" s="214"/>
-      <c r="D183" s="214"/>
-      <c r="E183" s="215"/>
+      <c r="A183" s="180"/>
+      <c r="B183" s="177"/>
+      <c r="C183" s="171"/>
+      <c r="D183" s="171"/>
+      <c r="E183" s="174"/>
       <c r="F183" s="76" t="s">
         <v>243</v>
       </c>
@@ -12329,11 +12333,11 @@
       <c r="AA183" s="93"/>
     </row>
     <row r="184" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A184" s="201"/>
-      <c r="B184" s="203"/>
-      <c r="C184" s="205"/>
-      <c r="D184" s="205"/>
-      <c r="E184" s="207"/>
+      <c r="A184" s="181"/>
+      <c r="B184" s="178"/>
+      <c r="C184" s="172"/>
+      <c r="D184" s="172"/>
+      <c r="E184" s="175"/>
       <c r="F184" s="76" t="s">
         <v>244</v>
       </c>
@@ -12387,10 +12391,10 @@
       <c r="C185" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D185" s="198" t="s">
+      <c r="D185" s="214" t="s">
         <v>193</v>
       </c>
-      <c r="E185" s="199"/>
+      <c r="E185" s="215"/>
       <c r="F185" s="78" t="s">
         <v>242</v>
       </c>
@@ -12444,10 +12448,10 @@
       <c r="C186" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D186" s="212" t="s">
+      <c r="D186" s="250" t="s">
         <v>187</v>
       </c>
-      <c r="E186" s="213"/>
+      <c r="E186" s="251"/>
       <c r="F186" s="17" t="s">
         <v>242</v>
       </c>
@@ -12488,19 +12492,19 @@
       <c r="AA186" s="96"/>
     </row>
     <row r="187" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="190" t="s">
+      <c r="A187" s="247" t="s">
         <v>265</v>
       </c>
-      <c r="B187" s="174" t="s">
+      <c r="B187" s="196" t="s">
         <v>61</v>
       </c>
-      <c r="C187" s="174" t="s">
+      <c r="C187" s="196" t="s">
         <v>5</v>
       </c>
-      <c r="D187" s="174" t="s">
+      <c r="D187" s="196" t="s">
         <v>187</v>
       </c>
-      <c r="E187" s="176"/>
+      <c r="E187" s="199"/>
       <c r="F187" s="136" t="s">
         <v>242</v>
       </c>
@@ -12529,11 +12533,11 @@
       <c r="AA187" s="127"/>
     </row>
     <row r="188" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="191"/>
-      <c r="B188" s="193"/>
-      <c r="C188" s="193"/>
-      <c r="D188" s="193"/>
-      <c r="E188" s="216"/>
+      <c r="A188" s="248"/>
+      <c r="B188" s="197"/>
+      <c r="C188" s="197"/>
+      <c r="D188" s="197"/>
+      <c r="E188" s="200"/>
       <c r="F188" s="136" t="s">
         <v>243</v>
       </c>
@@ -12586,11 +12590,11 @@
       <c r="AA188" s="127"/>
     </row>
     <row r="189" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="191"/>
-      <c r="B189" s="193"/>
-      <c r="C189" s="193"/>
-      <c r="D189" s="193"/>
-      <c r="E189" s="216"/>
+      <c r="A189" s="248"/>
+      <c r="B189" s="197"/>
+      <c r="C189" s="197"/>
+      <c r="D189" s="197"/>
+      <c r="E189" s="200"/>
       <c r="F189" s="136" t="s">
         <v>244</v>
       </c>
@@ -12643,11 +12647,11 @@
       <c r="AA189" s="127"/>
     </row>
     <row r="190" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="191"/>
-      <c r="B190" s="193"/>
-      <c r="C190" s="193"/>
-      <c r="D190" s="193"/>
-      <c r="E190" s="216"/>
+      <c r="A190" s="248"/>
+      <c r="B190" s="197"/>
+      <c r="C190" s="197"/>
+      <c r="D190" s="197"/>
+      <c r="E190" s="200"/>
       <c r="F190" s="136" t="s">
         <v>245</v>
       </c>
@@ -12676,11 +12680,11 @@
       <c r="AA190" s="127"/>
     </row>
     <row r="191" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="191"/>
-      <c r="B191" s="193"/>
-      <c r="C191" s="193"/>
-      <c r="D191" s="193"/>
-      <c r="E191" s="216"/>
+      <c r="A191" s="248"/>
+      <c r="B191" s="197"/>
+      <c r="C191" s="197"/>
+      <c r="D191" s="197"/>
+      <c r="E191" s="200"/>
       <c r="F191" s="136" t="s">
         <v>254</v>
       </c>
@@ -12723,11 +12727,11 @@
       <c r="AA191" s="127"/>
     </row>
     <row r="192" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="191"/>
-      <c r="B192" s="193"/>
-      <c r="C192" s="193"/>
-      <c r="D192" s="193"/>
-      <c r="E192" s="216"/>
+      <c r="A192" s="248"/>
+      <c r="B192" s="197"/>
+      <c r="C192" s="197"/>
+      <c r="D192" s="197"/>
+      <c r="E192" s="200"/>
       <c r="F192" s="136" t="s">
         <v>262</v>
       </c>
@@ -12754,11 +12758,11 @@
       <c r="AA192" s="127"/>
     </row>
     <row r="193" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="191"/>
-      <c r="B193" s="193"/>
-      <c r="C193" s="193"/>
-      <c r="D193" s="193"/>
-      <c r="E193" s="216"/>
+      <c r="A193" s="248"/>
+      <c r="B193" s="197"/>
+      <c r="C193" s="197"/>
+      <c r="D193" s="197"/>
+      <c r="E193" s="200"/>
       <c r="F193" s="136" t="s">
         <v>263</v>
       </c>
@@ -12797,11 +12801,11 @@
       <c r="AA193" s="127"/>
     </row>
     <row r="194" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A194" s="192"/>
-      <c r="B194" s="175"/>
-      <c r="C194" s="175"/>
-      <c r="D194" s="175"/>
-      <c r="E194" s="177"/>
+      <c r="A194" s="249"/>
+      <c r="B194" s="198"/>
+      <c r="C194" s="198"/>
+      <c r="D194" s="198"/>
+      <c r="E194" s="201"/>
       <c r="F194" s="136" t="s">
         <v>264</v>
       </c>
@@ -12828,19 +12832,19 @@
       <c r="AA194" s="127"/>
     </row>
     <row r="195" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="190" t="s">
+      <c r="A195" s="247" t="s">
         <v>253</v>
       </c>
-      <c r="B195" s="193" t="s">
+      <c r="B195" s="197" t="s">
         <v>61</v>
       </c>
-      <c r="C195" s="193" t="s">
+      <c r="C195" s="197" t="s">
         <v>6</v>
       </c>
-      <c r="D195" s="174" t="s">
+      <c r="D195" s="196" t="s">
         <v>187</v>
       </c>
-      <c r="E195" s="176"/>
+      <c r="E195" s="199"/>
       <c r="F195" s="123" t="s">
         <v>242</v>
       </c>
@@ -12869,11 +12873,11 @@
       <c r="AA195" s="127"/>
     </row>
     <row r="196" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A196" s="191"/>
-      <c r="B196" s="193"/>
-      <c r="C196" s="193"/>
-      <c r="D196" s="193"/>
-      <c r="E196" s="216"/>
+      <c r="A196" s="248"/>
+      <c r="B196" s="197"/>
+      <c r="C196" s="197"/>
+      <c r="D196" s="197"/>
+      <c r="E196" s="200"/>
       <c r="F196" s="102" t="s">
         <v>243</v>
       </c>
@@ -12910,11 +12914,11 @@
       <c r="AA196" s="127"/>
     </row>
     <row r="197" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="191"/>
-      <c r="B197" s="193"/>
-      <c r="C197" s="193"/>
-      <c r="D197" s="193"/>
-      <c r="E197" s="216"/>
+      <c r="A197" s="248"/>
+      <c r="B197" s="197"/>
+      <c r="C197" s="197"/>
+      <c r="D197" s="197"/>
+      <c r="E197" s="200"/>
       <c r="F197" s="102" t="s">
         <v>244</v>
       </c>
@@ -12959,11 +12963,11 @@
       <c r="AA197" s="127"/>
     </row>
     <row r="198" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="191"/>
-      <c r="B198" s="193"/>
-      <c r="C198" s="193"/>
-      <c r="D198" s="193"/>
-      <c r="E198" s="216"/>
+      <c r="A198" s="248"/>
+      <c r="B198" s="197"/>
+      <c r="C198" s="197"/>
+      <c r="D198" s="197"/>
+      <c r="E198" s="200"/>
       <c r="F198" s="102" t="s">
         <v>245</v>
       </c>
@@ -13006,11 +13010,11 @@
       <c r="AA198" s="127"/>
     </row>
     <row r="199" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A199" s="191"/>
-      <c r="B199" s="193"/>
-      <c r="C199" s="193"/>
-      <c r="D199" s="193"/>
-      <c r="E199" s="216"/>
+      <c r="A199" s="248"/>
+      <c r="B199" s="197"/>
+      <c r="C199" s="197"/>
+      <c r="D199" s="197"/>
+      <c r="E199" s="200"/>
       <c r="F199" s="102" t="s">
         <v>254</v>
       </c>
@@ -13049,11 +13053,11 @@
       <c r="AA199" s="127"/>
     </row>
     <row r="200" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A200" s="192"/>
-      <c r="B200" s="193"/>
-      <c r="C200" s="193"/>
-      <c r="D200" s="175"/>
-      <c r="E200" s="177"/>
+      <c r="A200" s="249"/>
+      <c r="B200" s="197"/>
+      <c r="C200" s="197"/>
+      <c r="D200" s="198"/>
+      <c r="E200" s="201"/>
       <c r="F200" s="20" t="s">
         <v>262</v>
       </c>
@@ -13537,6 +13541,138 @@
     </row>
   </sheetData>
   <mergeCells count="156">
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="D80:D81"/>
+    <mergeCell ref="E80:E81"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A173:A175"/>
+    <mergeCell ref="B173:B175"/>
+    <mergeCell ref="D149:E149"/>
+    <mergeCell ref="D150:E150"/>
+    <mergeCell ref="A110:A111"/>
+    <mergeCell ref="B110:B111"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="A158:A164"/>
+    <mergeCell ref="B158:B164"/>
+    <mergeCell ref="C158:C164"/>
+    <mergeCell ref="D158:E164"/>
+    <mergeCell ref="D165:E165"/>
+    <mergeCell ref="A151:A152"/>
+    <mergeCell ref="A121:A122"/>
+    <mergeCell ref="B121:B122"/>
+    <mergeCell ref="C121:C122"/>
+    <mergeCell ref="D121:D122"/>
+    <mergeCell ref="E121:E122"/>
+    <mergeCell ref="D155:E155"/>
+    <mergeCell ref="A195:A200"/>
+    <mergeCell ref="B195:B200"/>
+    <mergeCell ref="C195:C200"/>
+    <mergeCell ref="D186:E186"/>
+    <mergeCell ref="D185:E185"/>
+    <mergeCell ref="C176:C178"/>
+    <mergeCell ref="D176:E178"/>
+    <mergeCell ref="A179:A181"/>
+    <mergeCell ref="B182:B184"/>
+    <mergeCell ref="C179:C181"/>
+    <mergeCell ref="C182:C184"/>
+    <mergeCell ref="D179:E181"/>
+    <mergeCell ref="D182:E184"/>
+    <mergeCell ref="A182:A184"/>
+    <mergeCell ref="B176:B178"/>
+    <mergeCell ref="D195:E200"/>
+    <mergeCell ref="D187:E194"/>
+    <mergeCell ref="A187:A194"/>
+    <mergeCell ref="B187:B194"/>
+    <mergeCell ref="C187:C194"/>
+    <mergeCell ref="G1:M1"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:E2"/>
+    <mergeCell ref="D140:E140"/>
+    <mergeCell ref="A112:A115"/>
+    <mergeCell ref="B112:B115"/>
+    <mergeCell ref="C112:C115"/>
+    <mergeCell ref="D112:D115"/>
+    <mergeCell ref="E112:E115"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="B95:B97"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="C98:C100"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="E82:E83"/>
+    <mergeCell ref="B151:B152"/>
+    <mergeCell ref="C151:E152"/>
+    <mergeCell ref="A153:A154"/>
+    <mergeCell ref="B153:B154"/>
+    <mergeCell ref="C153:E154"/>
+    <mergeCell ref="A116:A117"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="C82:C83"/>
+    <mergeCell ref="D82:D83"/>
+    <mergeCell ref="C95:C97"/>
+    <mergeCell ref="A92:A94"/>
+    <mergeCell ref="A95:A97"/>
+    <mergeCell ref="A98:A100"/>
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="C92:C94"/>
+    <mergeCell ref="B98:B100"/>
+    <mergeCell ref="C110:C111"/>
+    <mergeCell ref="D110:D111"/>
+    <mergeCell ref="E110:E111"/>
+    <mergeCell ref="B116:B117"/>
+    <mergeCell ref="C116:C117"/>
+    <mergeCell ref="D116:D117"/>
+    <mergeCell ref="E116:E117"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="S1:Y1"/>
+    <mergeCell ref="D172:E172"/>
+    <mergeCell ref="D167:E167"/>
+    <mergeCell ref="D168:E168"/>
+    <mergeCell ref="D169:E169"/>
+    <mergeCell ref="D170:E170"/>
+    <mergeCell ref="D171:E171"/>
+    <mergeCell ref="D156:E156"/>
+    <mergeCell ref="D157:E157"/>
+    <mergeCell ref="D166:E166"/>
+    <mergeCell ref="E98:E100"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="E78:E79"/>
+    <mergeCell ref="D98:D100"/>
+    <mergeCell ref="D145:E145"/>
+    <mergeCell ref="D146:E146"/>
+    <mergeCell ref="D147:E147"/>
+    <mergeCell ref="D148:E148"/>
+    <mergeCell ref="D92:D94"/>
+    <mergeCell ref="E92:E94"/>
+    <mergeCell ref="D95:D97"/>
+    <mergeCell ref="E95:E97"/>
     <mergeCell ref="AA1:AA2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="C173:C175"/>
@@ -13561,138 +13697,6 @@
     <mergeCell ref="E57:E58"/>
     <mergeCell ref="B65:B66"/>
     <mergeCell ref="C65:C66"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="S1:Y1"/>
-    <mergeCell ref="D172:E172"/>
-    <mergeCell ref="D167:E167"/>
-    <mergeCell ref="D168:E168"/>
-    <mergeCell ref="D169:E169"/>
-    <mergeCell ref="D170:E170"/>
-    <mergeCell ref="D171:E171"/>
-    <mergeCell ref="D156:E156"/>
-    <mergeCell ref="D157:E157"/>
-    <mergeCell ref="D166:E166"/>
-    <mergeCell ref="E98:E100"/>
-    <mergeCell ref="D78:D79"/>
-    <mergeCell ref="E78:E79"/>
-    <mergeCell ref="D98:D100"/>
-    <mergeCell ref="D145:E145"/>
-    <mergeCell ref="D146:E146"/>
-    <mergeCell ref="D147:E147"/>
-    <mergeCell ref="D148:E148"/>
-    <mergeCell ref="D92:D94"/>
-    <mergeCell ref="E92:E94"/>
-    <mergeCell ref="D95:D97"/>
-    <mergeCell ref="E95:E97"/>
-    <mergeCell ref="E82:E83"/>
-    <mergeCell ref="B151:B152"/>
-    <mergeCell ref="C151:E152"/>
-    <mergeCell ref="A153:A154"/>
-    <mergeCell ref="B153:B154"/>
-    <mergeCell ref="C153:E154"/>
-    <mergeCell ref="A116:A117"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="C82:C83"/>
-    <mergeCell ref="D82:D83"/>
-    <mergeCell ref="C95:C97"/>
-    <mergeCell ref="A92:A94"/>
-    <mergeCell ref="A95:A97"/>
-    <mergeCell ref="A98:A100"/>
-    <mergeCell ref="B92:B94"/>
-    <mergeCell ref="C92:C94"/>
-    <mergeCell ref="B98:B100"/>
-    <mergeCell ref="C110:C111"/>
-    <mergeCell ref="D110:D111"/>
-    <mergeCell ref="E110:E111"/>
-    <mergeCell ref="B116:B117"/>
-    <mergeCell ref="C116:C117"/>
-    <mergeCell ref="G1:M1"/>
-    <mergeCell ref="N1:R1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:E2"/>
-    <mergeCell ref="D140:E140"/>
-    <mergeCell ref="A112:A115"/>
-    <mergeCell ref="B112:B115"/>
-    <mergeCell ref="C112:C115"/>
-    <mergeCell ref="D112:D115"/>
-    <mergeCell ref="E112:E115"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="B80:B81"/>
-    <mergeCell ref="B95:B97"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="C98:C100"/>
-    <mergeCell ref="C80:C81"/>
-    <mergeCell ref="A195:A200"/>
-    <mergeCell ref="B195:B200"/>
-    <mergeCell ref="C195:C200"/>
-    <mergeCell ref="D186:E186"/>
-    <mergeCell ref="D185:E185"/>
-    <mergeCell ref="C176:C178"/>
-    <mergeCell ref="D176:E178"/>
-    <mergeCell ref="A179:A181"/>
-    <mergeCell ref="B182:B184"/>
-    <mergeCell ref="C179:C181"/>
-    <mergeCell ref="C182:C184"/>
-    <mergeCell ref="D179:E181"/>
-    <mergeCell ref="D182:E184"/>
-    <mergeCell ref="A182:A184"/>
-    <mergeCell ref="B176:B178"/>
-    <mergeCell ref="D195:E200"/>
-    <mergeCell ref="D187:E194"/>
-    <mergeCell ref="D116:D117"/>
-    <mergeCell ref="E116:E117"/>
-    <mergeCell ref="A187:A194"/>
-    <mergeCell ref="B187:B194"/>
-    <mergeCell ref="C187:C194"/>
-    <mergeCell ref="A158:A164"/>
-    <mergeCell ref="B158:B164"/>
-    <mergeCell ref="C158:C164"/>
-    <mergeCell ref="D158:E164"/>
-    <mergeCell ref="D165:E165"/>
-    <mergeCell ref="A151:A152"/>
-    <mergeCell ref="A121:A122"/>
-    <mergeCell ref="B121:B122"/>
-    <mergeCell ref="C121:C122"/>
-    <mergeCell ref="D121:D122"/>
-    <mergeCell ref="E121:E122"/>
-    <mergeCell ref="D155:E155"/>
-    <mergeCell ref="A173:A175"/>
-    <mergeCell ref="B173:B175"/>
-    <mergeCell ref="D149:E149"/>
-    <mergeCell ref="D150:E150"/>
-    <mergeCell ref="A110:A111"/>
-    <mergeCell ref="B110:B111"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="D80:D81"/>
-    <mergeCell ref="E80:E81"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="36" fitToHeight="5" orientation="landscape" verticalDpi="0" r:id="rId1"/>

--- a/SH opcodes.xlsx
+++ b/SH opcodes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2299" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2303" uniqueCount="273">
   <si>
     <t>EX</t>
   </si>
@@ -1511,7 +1511,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="256">
+  <cellXfs count="254">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1769,18 +1769,6 @@
     <xf numFmtId="49" fontId="5" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1863,9 +1851,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1949,17 +1934,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1972,11 +1946,233 @@
     <xf numFmtId="49" fontId="3" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1984,42 +2180,6 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2044,204 +2204,38 @@
     <xf numFmtId="49" fontId="4" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="4" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="4" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2555,10 +2549,10 @@
   </sheetPr>
   <dimension ref="A1:AA216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A156" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="AA76" sqref="AA76"/>
+      <selection pane="bottomLeft" activeCell="A121" sqref="A121:A122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2575,62 +2569,62 @@
     <col min="21" max="24" width="12.5703125" style="1" customWidth="1"/>
     <col min="25" max="25" width="20" style="1" customWidth="1"/>
     <col min="26" max="26" width="14" style="1" customWidth="1"/>
-    <col min="27" max="27" width="9.5703125" style="103" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.5703125" style="99" bestFit="1" customWidth="1"/>
     <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="239" t="s">
+      <c r="A1" s="207" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="241" t="s">
+      <c r="B1" s="209" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="242"/>
-      <c r="D1" s="242"/>
-      <c r="E1" s="243"/>
-      <c r="F1" s="168" t="s">
+      <c r="C1" s="210"/>
+      <c r="D1" s="210"/>
+      <c r="E1" s="211"/>
+      <c r="F1" s="232" t="s">
         <v>241</v>
       </c>
-      <c r="G1" s="210" t="s">
+      <c r="G1" s="228" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="211"/>
-      <c r="I1" s="211"/>
-      <c r="J1" s="211"/>
-      <c r="K1" s="211"/>
-      <c r="L1" s="211"/>
-      <c r="M1" s="238"/>
-      <c r="N1" s="210" t="s">
+      <c r="H1" s="229"/>
+      <c r="I1" s="229"/>
+      <c r="J1" s="229"/>
+      <c r="K1" s="229"/>
+      <c r="L1" s="229"/>
+      <c r="M1" s="231"/>
+      <c r="N1" s="228" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="211"/>
-      <c r="P1" s="211"/>
-      <c r="Q1" s="211"/>
-      <c r="R1" s="238"/>
-      <c r="S1" s="210" t="s">
+      <c r="O1" s="229"/>
+      <c r="P1" s="229"/>
+      <c r="Q1" s="229"/>
+      <c r="R1" s="231"/>
+      <c r="S1" s="228" t="s">
         <v>2</v>
       </c>
-      <c r="T1" s="211"/>
-      <c r="U1" s="211"/>
-      <c r="V1" s="211"/>
-      <c r="W1" s="211"/>
-      <c r="X1" s="211"/>
-      <c r="Y1" s="211"/>
-      <c r="Z1" s="98" t="s">
+      <c r="T1" s="229"/>
+      <c r="U1" s="229"/>
+      <c r="V1" s="229"/>
+      <c r="W1" s="229"/>
+      <c r="X1" s="229"/>
+      <c r="Y1" s="229"/>
+      <c r="Z1" s="94" t="s">
         <v>247</v>
       </c>
-      <c r="AA1" s="166" t="s">
+      <c r="AA1" s="232" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="2" spans="1:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="240"/>
-      <c r="B2" s="244"/>
-      <c r="C2" s="245"/>
-      <c r="D2" s="245"/>
-      <c r="E2" s="246"/>
-      <c r="F2" s="169"/>
+      <c r="A2" s="208"/>
+      <c r="B2" s="212"/>
+      <c r="C2" s="213"/>
+      <c r="D2" s="213"/>
+      <c r="E2" s="214"/>
+      <c r="F2" s="233"/>
       <c r="G2" s="25" t="s">
         <v>13</v>
       </c>
@@ -2686,10 +2680,10 @@
       <c r="Y2" s="79" t="s">
         <v>229</v>
       </c>
-      <c r="Z2" s="97" t="s">
+      <c r="Z2" s="93" t="s">
         <v>248</v>
       </c>
-      <c r="AA2" s="167"/>
+      <c r="AA2" s="233"/>
     </row>
     <row r="3" spans="1:27" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="75" t="s">
@@ -2707,7 +2701,7 @@
       <c r="E3" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="163" t="s">
+      <c r="F3" s="153" t="s">
         <v>242</v>
       </c>
       <c r="G3" s="72"/>
@@ -2722,7 +2716,7 @@
       <c r="L3" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="M3" s="106"/>
+      <c r="M3" s="102"/>
       <c r="N3" s="30" t="s">
         <v>18</v>
       </c>
@@ -2743,8 +2737,8 @@
       <c r="W3" s="73"/>
       <c r="X3" s="73"/>
       <c r="Y3" s="74"/>
-      <c r="Z3" s="156"/>
-      <c r="AA3" s="158"/>
+      <c r="Z3" s="151"/>
+      <c r="AA3" s="245"/>
     </row>
     <row r="4" spans="1:27" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="57" t="s">
@@ -2762,7 +2756,7 @@
       <c r="E4" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="164" t="s">
+      <c r="F4" s="154" t="s">
         <v>242</v>
       </c>
       <c r="G4" s="30"/>
@@ -2777,7 +2771,7 @@
       <c r="L4" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="M4" s="107"/>
+      <c r="M4" s="103"/>
       <c r="N4" s="30" t="s">
         <v>18</v>
       </c>
@@ -2798,8 +2792,8 @@
       <c r="W4" s="7"/>
       <c r="X4" s="7"/>
       <c r="Y4" s="31"/>
-      <c r="Z4" s="149"/>
-      <c r="AA4" s="94"/>
+      <c r="Z4" s="144"/>
+      <c r="AA4" s="244"/>
     </row>
     <row r="5" spans="1:27" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="57" t="s">
@@ -2817,7 +2811,7 @@
       <c r="E5" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="165" t="s">
+      <c r="F5" s="155" t="s">
         <v>242</v>
       </c>
       <c r="G5" s="30"/>
@@ -2832,7 +2826,7 @@
       <c r="L5" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="M5" s="107"/>
+      <c r="M5" s="103"/>
       <c r="N5" s="30" t="s">
         <v>18</v>
       </c>
@@ -2853,23 +2847,23 @@
       <c r="W5" s="7"/>
       <c r="X5" s="7"/>
       <c r="Y5" s="31"/>
-      <c r="Z5" s="149"/>
-      <c r="AA5" s="94"/>
+      <c r="Z5" s="144"/>
+      <c r="AA5" s="244"/>
     </row>
     <row r="6" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="190" t="s">
+      <c r="A6" s="164" t="s">
         <v>46</v>
       </c>
-      <c r="B6" s="193" t="s">
+      <c r="B6" s="166" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="196" t="s">
+      <c r="C6" s="168" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="196" t="s">
+      <c r="D6" s="168" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="199" t="s">
+      <c r="E6" s="170" t="s">
         <v>25</v>
       </c>
       <c r="F6" s="8" t="s">
@@ -2914,15 +2908,15 @@
         <v>70</v>
       </c>
       <c r="Y6" s="27"/>
-      <c r="Z6" s="150"/>
-      <c r="AA6" s="95"/>
+      <c r="Z6" s="145"/>
+      <c r="AA6" s="246"/>
     </row>
     <row r="7" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="192"/>
-      <c r="B7" s="195"/>
-      <c r="C7" s="198"/>
-      <c r="D7" s="198"/>
-      <c r="E7" s="201"/>
+      <c r="A7" s="165"/>
+      <c r="B7" s="167"/>
+      <c r="C7" s="169"/>
+      <c r="D7" s="169"/>
+      <c r="E7" s="171"/>
       <c r="F7" s="8" t="s">
         <v>243</v>
       </c>
@@ -2945,23 +2939,23 @@
       <c r="W7" s="9"/>
       <c r="X7" s="9"/>
       <c r="Y7" s="27"/>
-      <c r="Z7" s="150"/>
-      <c r="AA7" s="95"/>
+      <c r="Z7" s="145"/>
+      <c r="AA7" s="246"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A8" s="190" t="s">
+      <c r="A8" s="164" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="193" t="s">
+      <c r="B8" s="166" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="196" t="s">
+      <c r="C8" s="168" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="196" t="s">
+      <c r="D8" s="168" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="199" t="s">
+      <c r="E8" s="170" t="s">
         <v>25</v>
       </c>
       <c r="F8" s="8" t="s">
@@ -2998,15 +2992,15 @@
       <c r="W8" s="9"/>
       <c r="X8" s="9"/>
       <c r="Y8" s="27"/>
-      <c r="Z8" s="150"/>
-      <c r="AA8" s="95"/>
+      <c r="Z8" s="145"/>
+      <c r="AA8" s="246"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A9" s="192"/>
-      <c r="B9" s="195"/>
-      <c r="C9" s="198"/>
-      <c r="D9" s="198"/>
-      <c r="E9" s="201"/>
+      <c r="A9" s="165"/>
+      <c r="B9" s="167"/>
+      <c r="C9" s="169"/>
+      <c r="D9" s="169"/>
+      <c r="E9" s="171"/>
       <c r="F9" s="8" t="s">
         <v>243</v>
       </c>
@@ -3029,8 +3023,8 @@
       <c r="W9" s="9"/>
       <c r="X9" s="9"/>
       <c r="Y9" s="27"/>
-      <c r="Z9" s="150"/>
-      <c r="AA9" s="95"/>
+      <c r="Z9" s="145"/>
+      <c r="AA9" s="246"/>
     </row>
     <row r="10" spans="1:27" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A10" s="56" t="s">
@@ -3069,7 +3063,7 @@
       <c r="L10" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="M10" s="109"/>
+      <c r="M10" s="105"/>
       <c r="N10" s="28"/>
       <c r="O10" s="5" t="s">
         <v>18</v>
@@ -3088,8 +3082,8 @@
       <c r="W10" s="5"/>
       <c r="X10" s="5"/>
       <c r="Y10" s="29"/>
-      <c r="Z10" s="151"/>
-      <c r="AA10" s="96"/>
+      <c r="Z10" s="146"/>
+      <c r="AA10" s="247"/>
     </row>
     <row r="11" spans="1:27" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A11" s="56" t="s">
@@ -3128,7 +3122,7 @@
       <c r="L11" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="M11" s="109"/>
+      <c r="M11" s="105"/>
       <c r="N11" s="28"/>
       <c r="O11" s="5" t="s">
         <v>18</v>
@@ -3147,8 +3141,8 @@
       <c r="W11" s="5"/>
       <c r="X11" s="5"/>
       <c r="Y11" s="29"/>
-      <c r="Z11" s="151"/>
-      <c r="AA11" s="96"/>
+      <c r="Z11" s="146"/>
+      <c r="AA11" s="247"/>
     </row>
     <row r="12" spans="1:27" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A12" s="56" t="s">
@@ -3187,7 +3181,7 @@
       <c r="L12" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="M12" s="109"/>
+      <c r="M12" s="105"/>
       <c r="N12" s="28"/>
       <c r="O12" s="5" t="s">
         <v>18</v>
@@ -3206,23 +3200,23 @@
       <c r="W12" s="5"/>
       <c r="X12" s="5"/>
       <c r="Y12" s="29"/>
-      <c r="Z12" s="151"/>
-      <c r="AA12" s="96"/>
+      <c r="Z12" s="146"/>
+      <c r="AA12" s="247"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A13" s="202" t="s">
+      <c r="A13" s="222" t="s">
         <v>48</v>
       </c>
-      <c r="B13" s="204" t="s">
+      <c r="B13" s="224" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="206" t="s">
+      <c r="C13" s="156" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="206" t="s">
+      <c r="D13" s="156" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="208" t="s">
+      <c r="E13" s="158" t="s">
         <v>30</v>
       </c>
       <c r="F13" s="11" t="s">
@@ -3236,7 +3230,7 @@
       <c r="J13" s="12"/>
       <c r="K13" s="12"/>
       <c r="L13" s="12"/>
-      <c r="M13" s="110"/>
+      <c r="M13" s="106"/>
       <c r="N13" s="32"/>
       <c r="O13" s="12"/>
       <c r="P13" s="12" t="s">
@@ -3254,16 +3248,16 @@
       <c r="X13" s="12"/>
       <c r="Y13" s="33"/>
       <c r="Z13" s="90"/>
-      <c r="AA13" s="93" t="s">
-        <v>5</v>
+      <c r="AA13" s="248" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A14" s="203"/>
-      <c r="B14" s="205"/>
-      <c r="C14" s="207"/>
-      <c r="D14" s="207"/>
-      <c r="E14" s="209"/>
+      <c r="A14" s="223"/>
+      <c r="B14" s="225"/>
+      <c r="C14" s="157"/>
+      <c r="D14" s="157"/>
+      <c r="E14" s="159"/>
       <c r="F14" s="11" t="s">
         <v>243</v>
       </c>
@@ -3275,7 +3269,7 @@
       <c r="J14" s="12"/>
       <c r="K14" s="12"/>
       <c r="L14" s="12"/>
-      <c r="M14" s="110"/>
+      <c r="M14" s="106"/>
       <c r="N14" s="32"/>
       <c r="O14" s="12"/>
       <c r="P14" s="12" t="s">
@@ -3293,8 +3287,8 @@
       <c r="X14" s="12"/>
       <c r="Y14" s="33"/>
       <c r="Z14" s="90"/>
-      <c r="AA14" s="93" t="s">
-        <v>5</v>
+      <c r="AA14" s="248" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:27" ht="16.5" x14ac:dyDescent="0.25">
@@ -3328,7 +3322,7 @@
       <c r="L15" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="M15" s="107" t="s">
+      <c r="M15" s="103" t="s">
         <v>43</v>
       </c>
       <c r="N15" s="30"/>
@@ -3343,8 +3337,8 @@
       <c r="W15" s="7"/>
       <c r="X15" s="7"/>
       <c r="Y15" s="31"/>
-      <c r="Z15" s="149"/>
-      <c r="AA15" s="94"/>
+      <c r="Z15" s="144"/>
+      <c r="AA15" s="244"/>
     </row>
     <row r="16" spans="1:27" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A16" s="57" t="s">
@@ -3377,7 +3371,7 @@
       <c r="L16" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="M16" s="107" t="s">
+      <c r="M16" s="103" t="s">
         <v>43</v>
       </c>
       <c r="N16" s="30"/>
@@ -3392,8 +3386,8 @@
       <c r="W16" s="7"/>
       <c r="X16" s="7"/>
       <c r="Y16" s="31"/>
-      <c r="Z16" s="149"/>
-      <c r="AA16" s="94"/>
+      <c r="Z16" s="144"/>
+      <c r="AA16" s="244"/>
     </row>
     <row r="17" spans="1:27" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A17" s="57" t="s">
@@ -3426,7 +3420,7 @@
       <c r="L17" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="M17" s="107"/>
+      <c r="M17" s="103"/>
       <c r="N17" s="30"/>
       <c r="O17" s="7"/>
       <c r="P17" s="7" t="s">
@@ -3443,8 +3437,8 @@
       <c r="W17" s="7"/>
       <c r="X17" s="7"/>
       <c r="Y17" s="31"/>
-      <c r="Z17" s="149"/>
-      <c r="AA17" s="94" t="s">
+      <c r="Z17" s="144"/>
+      <c r="AA17" s="244" t="s">
         <v>61</v>
       </c>
     </row>
@@ -3473,7 +3467,7 @@
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
-      <c r="M18" s="107"/>
+      <c r="M18" s="103"/>
       <c r="N18" s="30"/>
       <c r="O18" s="7"/>
       <c r="P18" s="7"/>
@@ -3486,8 +3480,8 @@
       <c r="W18" s="7"/>
       <c r="X18" s="7"/>
       <c r="Y18" s="31"/>
-      <c r="Z18" s="149"/>
-      <c r="AA18" s="94"/>
+      <c r="Z18" s="144"/>
+      <c r="AA18" s="244"/>
     </row>
     <row r="19" spans="1:27" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A19" s="58" t="s">
@@ -3520,7 +3514,7 @@
       <c r="L19" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="M19" s="110" t="s">
+      <c r="M19" s="106" t="s">
         <v>233</v>
       </c>
       <c r="N19" s="32"/>
@@ -3536,7 +3530,7 @@
       <c r="X19" s="12"/>
       <c r="Y19" s="33"/>
       <c r="Z19" s="90"/>
-      <c r="AA19" s="93"/>
+      <c r="AA19" s="248"/>
     </row>
     <row r="20" spans="1:27" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A20" s="56" t="s">
@@ -3573,7 +3567,7 @@
       <c r="L20" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="M20" s="109"/>
+      <c r="M20" s="105"/>
       <c r="N20" s="28" t="s">
         <v>18</v>
       </c>
@@ -3594,23 +3588,23 @@
       <c r="W20" s="5"/>
       <c r="X20" s="5"/>
       <c r="Y20" s="29"/>
-      <c r="Z20" s="151"/>
-      <c r="AA20" s="96"/>
+      <c r="Z20" s="146"/>
+      <c r="AA20" s="247"/>
     </row>
     <row r="21" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="190" t="s">
+      <c r="A21" s="164" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="193" t="s">
+      <c r="B21" s="166" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="196" t="s">
+      <c r="C21" s="168" t="s">
         <v>5</v>
       </c>
-      <c r="D21" s="196" t="s">
+      <c r="D21" s="168" t="s">
         <v>5</v>
       </c>
-      <c r="E21" s="199" t="s">
+      <c r="E21" s="170" t="s">
         <v>50</v>
       </c>
       <c r="F21" s="8" t="s">
@@ -3643,15 +3637,15 @@
       <c r="W21" s="9"/>
       <c r="X21" s="9"/>
       <c r="Y21" s="27"/>
-      <c r="Z21" s="150"/>
-      <c r="AA21" s="95"/>
+      <c r="Z21" s="145"/>
+      <c r="AA21" s="246"/>
     </row>
     <row r="22" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="192"/>
-      <c r="B22" s="195"/>
-      <c r="C22" s="198"/>
-      <c r="D22" s="198"/>
-      <c r="E22" s="201"/>
+      <c r="A22" s="165"/>
+      <c r="B22" s="167"/>
+      <c r="C22" s="169"/>
+      <c r="D22" s="169"/>
+      <c r="E22" s="171"/>
       <c r="F22" s="8" t="s">
         <v>243</v>
       </c>
@@ -3674,23 +3668,23 @@
       <c r="W22" s="9"/>
       <c r="X22" s="9"/>
       <c r="Y22" s="27"/>
-      <c r="Z22" s="150"/>
-      <c r="AA22" s="95"/>
+      <c r="Z22" s="145"/>
+      <c r="AA22" s="246"/>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A23" s="188" t="s">
+      <c r="A23" s="240" t="s">
         <v>52</v>
       </c>
-      <c r="B23" s="182" t="s">
+      <c r="B23" s="234" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="184" t="s">
+      <c r="C23" s="236" t="s">
         <v>5</v>
       </c>
-      <c r="D23" s="184" t="s">
+      <c r="D23" s="236" t="s">
         <v>6</v>
       </c>
-      <c r="E23" s="186" t="s">
+      <c r="E23" s="238" t="s">
         <v>50</v>
       </c>
       <c r="F23" s="6" t="s">
@@ -3702,7 +3696,7 @@
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
       <c r="L23" s="7"/>
-      <c r="M23" s="107" t="s">
+      <c r="M23" s="103" t="s">
         <v>270</v>
       </c>
       <c r="N23" s="30"/>
@@ -3717,15 +3711,15 @@
       <c r="W23" s="7"/>
       <c r="X23" s="7"/>
       <c r="Y23" s="31"/>
-      <c r="Z23" s="149"/>
-      <c r="AA23" s="94"/>
+      <c r="Z23" s="144"/>
+      <c r="AA23" s="244"/>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A24" s="189"/>
-      <c r="B24" s="183"/>
-      <c r="C24" s="185"/>
-      <c r="D24" s="185"/>
-      <c r="E24" s="187"/>
+      <c r="A24" s="241"/>
+      <c r="B24" s="235"/>
+      <c r="C24" s="237"/>
+      <c r="D24" s="237"/>
+      <c r="E24" s="239"/>
       <c r="F24" s="6" t="s">
         <v>243</v>
       </c>
@@ -3735,7 +3729,7 @@
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
       <c r="L24" s="7"/>
-      <c r="M24" s="107"/>
+      <c r="M24" s="103"/>
       <c r="N24" s="30"/>
       <c r="O24" s="7"/>
       <c r="P24" s="7"/>
@@ -3748,29 +3742,29 @@
       <c r="W24" s="7"/>
       <c r="X24" s="7"/>
       <c r="Y24" s="31"/>
-      <c r="Z24" s="149"/>
-      <c r="AA24" s="94"/>
+      <c r="Z24" s="144"/>
+      <c r="AA24" s="244"/>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A25" s="190" t="s">
+      <c r="A25" s="164" t="s">
         <v>53</v>
       </c>
-      <c r="B25" s="193" t="s">
+      <c r="B25" s="166" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="196" t="s">
+      <c r="C25" s="168" t="s">
         <v>5</v>
       </c>
-      <c r="D25" s="196" t="s">
+      <c r="D25" s="168" t="s">
         <v>8</v>
       </c>
-      <c r="E25" s="199" t="s">
+      <c r="E25" s="170" t="s">
         <v>50</v>
       </c>
       <c r="F25" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="G25" s="99"/>
+      <c r="G25" s="95"/>
       <c r="H25" s="9" t="s">
         <v>250</v>
       </c>
@@ -3786,18 +3780,18 @@
       <c r="L25" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="M25" s="108"/>
+      <c r="M25" s="104"/>
       <c r="N25" s="26" t="s">
         <v>18</v>
       </c>
       <c r="O25" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="P25" s="100"/>
+      <c r="P25" s="96"/>
       <c r="Q25" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="R25" s="101"/>
+      <c r="R25" s="97"/>
       <c r="S25" s="26"/>
       <c r="T25" s="9" t="s">
         <v>240</v>
@@ -3807,15 +3801,15 @@
       <c r="W25" s="9"/>
       <c r="X25" s="9"/>
       <c r="Y25" s="27"/>
-      <c r="Z25" s="150"/>
-      <c r="AA25" s="95"/>
+      <c r="Z25" s="145"/>
+      <c r="AA25" s="246"/>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A26" s="191"/>
-      <c r="B26" s="194"/>
-      <c r="C26" s="197"/>
-      <c r="D26" s="197"/>
-      <c r="E26" s="200"/>
+      <c r="A26" s="242"/>
+      <c r="B26" s="243"/>
+      <c r="C26" s="201"/>
+      <c r="D26" s="201"/>
+      <c r="E26" s="206"/>
       <c r="F26" s="8" t="s">
         <v>243</v>
       </c>
@@ -3835,7 +3829,7 @@
       <c r="L26" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="M26" s="108"/>
+      <c r="M26" s="104"/>
       <c r="N26" s="26" t="s">
         <v>18</v>
       </c>
@@ -3862,15 +3856,15 @@
         <v>70</v>
       </c>
       <c r="Y26" s="27"/>
-      <c r="Z26" s="150"/>
-      <c r="AA26" s="95"/>
+      <c r="Z26" s="145"/>
+      <c r="AA26" s="246"/>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A27" s="191"/>
-      <c r="B27" s="194"/>
-      <c r="C27" s="197"/>
-      <c r="D27" s="197"/>
-      <c r="E27" s="200"/>
+      <c r="A27" s="242"/>
+      <c r="B27" s="243"/>
+      <c r="C27" s="201"/>
+      <c r="D27" s="201"/>
+      <c r="E27" s="206"/>
       <c r="F27" s="8" t="s">
         <v>244</v>
       </c>
@@ -3890,7 +3884,7 @@
       <c r="L27" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="M27" s="108" t="s">
+      <c r="M27" s="104" t="s">
         <v>251</v>
       </c>
       <c r="N27" s="26"/>
@@ -3905,15 +3899,15 @@
       <c r="W27" s="9"/>
       <c r="X27" s="9"/>
       <c r="Y27" s="27"/>
-      <c r="Z27" s="150"/>
-      <c r="AA27" s="95"/>
+      <c r="Z27" s="145"/>
+      <c r="AA27" s="246"/>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A28" s="192"/>
-      <c r="B28" s="195"/>
-      <c r="C28" s="198"/>
-      <c r="D28" s="198"/>
-      <c r="E28" s="201"/>
+      <c r="A28" s="165"/>
+      <c r="B28" s="167"/>
+      <c r="C28" s="169"/>
+      <c r="D28" s="169"/>
+      <c r="E28" s="171"/>
       <c r="F28" s="8" t="s">
         <v>245</v>
       </c>
@@ -3933,7 +3927,7 @@
       <c r="L28" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="M28" s="108" t="s">
+      <c r="M28" s="104" t="s">
         <v>230</v>
       </c>
       <c r="N28" s="26"/>
@@ -3948,8 +3942,8 @@
       <c r="W28" s="9"/>
       <c r="X28" s="9"/>
       <c r="Y28" s="27"/>
-      <c r="Z28" s="150"/>
-      <c r="AA28" s="95"/>
+      <c r="Z28" s="145"/>
+      <c r="AA28" s="246"/>
     </row>
     <row r="29" spans="1:27" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A29" s="57" t="s">
@@ -3976,7 +3970,7 @@
       <c r="J29" s="7"/>
       <c r="K29" s="7"/>
       <c r="L29" s="7"/>
-      <c r="M29" s="107"/>
+      <c r="M29" s="103"/>
       <c r="N29" s="30"/>
       <c r="O29" s="7"/>
       <c r="P29" s="7"/>
@@ -3995,8 +3989,10 @@
       <c r="W29" s="7"/>
       <c r="X29" s="7"/>
       <c r="Y29" s="31"/>
-      <c r="Z29" s="149"/>
-      <c r="AA29" s="94"/>
+      <c r="Z29" s="144"/>
+      <c r="AA29" s="244" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="30" spans="1:27" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A30" s="57" t="s">
@@ -4023,7 +4019,7 @@
       <c r="J30" s="7"/>
       <c r="K30" s="7"/>
       <c r="L30" s="7"/>
-      <c r="M30" s="107"/>
+      <c r="M30" s="103"/>
       <c r="N30" s="30"/>
       <c r="O30" s="7"/>
       <c r="P30" s="7"/>
@@ -4042,8 +4038,10 @@
       <c r="W30" s="7"/>
       <c r="X30" s="7"/>
       <c r="Y30" s="31"/>
-      <c r="Z30" s="149"/>
-      <c r="AA30" s="94"/>
+      <c r="Z30" s="144"/>
+      <c r="AA30" s="244" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="31" spans="1:27" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A31" s="57" t="s">
@@ -4076,7 +4074,7 @@
       <c r="L31" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="M31" s="107"/>
+      <c r="M31" s="103"/>
       <c r="N31" s="30" t="s">
         <v>18</v>
       </c>
@@ -4097,8 +4095,8 @@
       <c r="W31" s="7"/>
       <c r="X31" s="7"/>
       <c r="Y31" s="31"/>
-      <c r="Z31" s="149"/>
-      <c r="AA31" s="94"/>
+      <c r="Z31" s="144"/>
+      <c r="AA31" s="244"/>
     </row>
     <row r="32" spans="1:27" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A32" s="56" t="s">
@@ -4135,7 +4133,7 @@
       <c r="L32" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="M32" s="109"/>
+      <c r="M32" s="105"/>
       <c r="N32" s="28"/>
       <c r="O32" s="5" t="s">
         <v>18</v>
@@ -4158,8 +4156,8 @@
       <c r="W32" s="5"/>
       <c r="X32" s="5"/>
       <c r="Y32" s="29"/>
-      <c r="Z32" s="151"/>
-      <c r="AA32" s="96"/>
+      <c r="Z32" s="146"/>
+      <c r="AA32" s="247"/>
     </row>
     <row r="33" spans="1:27" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A33" s="56" t="s">
@@ -4196,7 +4194,7 @@
       <c r="L33" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="M33" s="109"/>
+      <c r="M33" s="105"/>
       <c r="N33" s="28"/>
       <c r="O33" s="5" t="s">
         <v>18</v>
@@ -4219,8 +4217,8 @@
       <c r="W33" s="5"/>
       <c r="X33" s="5"/>
       <c r="Y33" s="29"/>
-      <c r="Z33" s="151"/>
-      <c r="AA33" s="96"/>
+      <c r="Z33" s="146"/>
+      <c r="AA33" s="247"/>
     </row>
     <row r="34" spans="1:27" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A34" s="56" t="s">
@@ -4257,7 +4255,7 @@
       <c r="L34" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="M34" s="109"/>
+      <c r="M34" s="105"/>
       <c r="N34" s="28"/>
       <c r="O34" s="5" t="s">
         <v>18</v>
@@ -4280,23 +4278,23 @@
       <c r="W34" s="5"/>
       <c r="X34" s="5"/>
       <c r="Y34" s="29"/>
-      <c r="Z34" s="151"/>
-      <c r="AA34" s="96"/>
+      <c r="Z34" s="146"/>
+      <c r="AA34" s="247"/>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A35" s="202" t="s">
+      <c r="A35" s="222" t="s">
         <v>65</v>
       </c>
-      <c r="B35" s="204" t="s">
+      <c r="B35" s="224" t="s">
         <v>5</v>
       </c>
-      <c r="C35" s="206" t="s">
+      <c r="C35" s="156" t="s">
         <v>7</v>
       </c>
-      <c r="D35" s="206" t="s">
+      <c r="D35" s="156" t="s">
         <v>26</v>
       </c>
-      <c r="E35" s="208" t="s">
+      <c r="E35" s="158" t="s">
         <v>61</v>
       </c>
       <c r="F35" s="41" t="s">
@@ -4318,7 +4316,7 @@
       <c r="L35" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="M35" s="110"/>
+      <c r="M35" s="106"/>
       <c r="N35" s="32" t="s">
         <v>18</v>
       </c>
@@ -4346,16 +4344,16 @@
       </c>
       <c r="Y35" s="33"/>
       <c r="Z35" s="90"/>
-      <c r="AA35" s="93" t="s">
+      <c r="AA35" s="248" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A36" s="203"/>
-      <c r="B36" s="205"/>
-      <c r="C36" s="207"/>
-      <c r="D36" s="207"/>
-      <c r="E36" s="209"/>
+      <c r="A36" s="223"/>
+      <c r="B36" s="225"/>
+      <c r="C36" s="157"/>
+      <c r="D36" s="157"/>
+      <c r="E36" s="159"/>
       <c r="F36" s="41" t="s">
         <v>243</v>
       </c>
@@ -4375,7 +4373,7 @@
       <c r="L36" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="M36" s="110"/>
+      <c r="M36" s="106"/>
       <c r="N36" s="32" t="s">
         <v>18</v>
       </c>
@@ -4403,7 +4401,7 @@
       <c r="X36" s="12"/>
       <c r="Y36" s="33"/>
       <c r="Z36" s="90"/>
-      <c r="AA36" s="93" t="s">
+      <c r="AA36" s="248" t="s">
         <v>44</v>
       </c>
     </row>
@@ -4444,7 +4442,7 @@
       <c r="L37" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="M37" s="109"/>
+      <c r="M37" s="105"/>
       <c r="N37" s="28"/>
       <c r="O37" s="5" t="s">
         <v>18</v>
@@ -4463,8 +4461,8 @@
       <c r="W37" s="5"/>
       <c r="X37" s="5"/>
       <c r="Y37" s="29"/>
-      <c r="Z37" s="151"/>
-      <c r="AA37" s="96"/>
+      <c r="Z37" s="146"/>
+      <c r="AA37" s="247"/>
     </row>
     <row r="38" spans="1:27" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A38" s="56" t="s">
@@ -4501,7 +4499,7 @@
       <c r="L38" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="M38" s="109"/>
+      <c r="M38" s="105"/>
       <c r="N38" s="28"/>
       <c r="O38" s="5" t="s">
         <v>18</v>
@@ -4520,8 +4518,8 @@
       <c r="W38" s="5"/>
       <c r="X38" s="5"/>
       <c r="Y38" s="29"/>
-      <c r="Z38" s="151"/>
-      <c r="AA38" s="96"/>
+      <c r="Z38" s="146"/>
+      <c r="AA38" s="247"/>
     </row>
     <row r="39" spans="1:27" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A39" s="56" t="s">
@@ -4558,7 +4556,7 @@
       <c r="L39" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="M39" s="109"/>
+      <c r="M39" s="105"/>
       <c r="N39" s="28"/>
       <c r="O39" s="5" t="s">
         <v>18</v>
@@ -4577,8 +4575,8 @@
       <c r="W39" s="5"/>
       <c r="X39" s="5"/>
       <c r="Y39" s="29"/>
-      <c r="Z39" s="151"/>
-      <c r="AA39" s="96"/>
+      <c r="Z39" s="146"/>
+      <c r="AA39" s="247"/>
     </row>
     <row r="40" spans="1:27" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A40" s="56" t="s">
@@ -4615,7 +4613,7 @@
       <c r="L40" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="M40" s="109"/>
+      <c r="M40" s="105"/>
       <c r="N40" s="28"/>
       <c r="O40" s="5" t="s">
         <v>18</v>
@@ -4634,8 +4632,8 @@
       <c r="W40" s="5"/>
       <c r="X40" s="5"/>
       <c r="Y40" s="29"/>
-      <c r="Z40" s="151"/>
-      <c r="AA40" s="96"/>
+      <c r="Z40" s="146"/>
+      <c r="AA40" s="247"/>
     </row>
     <row r="41" spans="1:27" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A41" s="56" t="s">
@@ -4674,7 +4672,7 @@
       <c r="L41" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="M41" s="109"/>
+      <c r="M41" s="105"/>
       <c r="N41" s="28" t="s">
         <v>18</v>
       </c>
@@ -4701,8 +4699,8 @@
       <c r="W41" s="5"/>
       <c r="X41" s="5"/>
       <c r="Y41" s="29"/>
-      <c r="Z41" s="151"/>
-      <c r="AA41" s="96"/>
+      <c r="Z41" s="146"/>
+      <c r="AA41" s="247"/>
     </row>
     <row r="42" spans="1:27" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A42" s="56" t="s">
@@ -4741,7 +4739,7 @@
       <c r="L42" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="M42" s="109"/>
+      <c r="M42" s="105"/>
       <c r="N42" s="28" t="s">
         <v>18</v>
       </c>
@@ -4768,8 +4766,8 @@
       <c r="W42" s="5"/>
       <c r="X42" s="5"/>
       <c r="Y42" s="29"/>
-      <c r="Z42" s="151"/>
-      <c r="AA42" s="96"/>
+      <c r="Z42" s="146"/>
+      <c r="AA42" s="247"/>
     </row>
     <row r="43" spans="1:27" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A43" s="56" t="s">
@@ -4808,7 +4806,7 @@
       <c r="L43" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="M43" s="109"/>
+      <c r="M43" s="105"/>
       <c r="N43" s="28" t="s">
         <v>18</v>
       </c>
@@ -4835,8 +4833,8 @@
       <c r="W43" s="5"/>
       <c r="X43" s="5"/>
       <c r="Y43" s="29"/>
-      <c r="Z43" s="151"/>
-      <c r="AA43" s="96"/>
+      <c r="Z43" s="146"/>
+      <c r="AA43" s="247"/>
     </row>
     <row r="44" spans="1:27" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A44" s="58" t="s">
@@ -4871,7 +4869,7 @@
         <v>14</v>
       </c>
       <c r="L44" s="12"/>
-      <c r="M44" s="110" t="s">
+      <c r="M44" s="106" t="s">
         <v>234</v>
       </c>
       <c r="N44" s="32"/>
@@ -4887,7 +4885,7 @@
       <c r="X44" s="12"/>
       <c r="Y44" s="33"/>
       <c r="Z44" s="90"/>
-      <c r="AA44" s="93"/>
+      <c r="AA44" s="248"/>
     </row>
     <row r="45" spans="1:27" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A45" s="58" t="s">
@@ -4924,7 +4922,7 @@
       <c r="L45" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="M45" s="110" t="s">
+      <c r="M45" s="106" t="s">
         <v>92</v>
       </c>
       <c r="N45" s="32"/>
@@ -4940,7 +4938,7 @@
       <c r="X45" s="12"/>
       <c r="Y45" s="33"/>
       <c r="Z45" s="90"/>
-      <c r="AA45" s="93"/>
+      <c r="AA45" s="248"/>
     </row>
     <row r="46" spans="1:27" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A46" s="58" t="s">
@@ -4977,7 +4975,7 @@
       <c r="L46" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="M46" s="110"/>
+      <c r="M46" s="106"/>
       <c r="N46" s="32" t="s">
         <v>18</v>
       </c>
@@ -4999,7 +4997,7 @@
       <c r="X46" s="12"/>
       <c r="Y46" s="33"/>
       <c r="Z46" s="90"/>
-      <c r="AA46" s="93"/>
+      <c r="AA46" s="248"/>
     </row>
     <row r="47" spans="1:27" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A47" s="58" t="s">
@@ -5036,7 +5034,7 @@
       <c r="L47" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="M47" s="110"/>
+      <c r="M47" s="106"/>
       <c r="N47" s="32" t="s">
         <v>18</v>
       </c>
@@ -5058,7 +5056,7 @@
       <c r="X47" s="12"/>
       <c r="Y47" s="33"/>
       <c r="Z47" s="90"/>
-      <c r="AA47" s="93"/>
+      <c r="AA47" s="248"/>
     </row>
     <row r="48" spans="1:27" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A48" s="58" t="s">
@@ -5095,7 +5093,7 @@
       <c r="L48" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="M48" s="111"/>
+      <c r="M48" s="107"/>
       <c r="N48" s="34" t="s">
         <v>18</v>
       </c>
@@ -5116,8 +5114,8 @@
       <c r="W48" s="12"/>
       <c r="X48" s="13"/>
       <c r="Y48" s="35"/>
-      <c r="Z48" s="152"/>
-      <c r="AA48" s="159"/>
+      <c r="Z48" s="147"/>
+      <c r="AA48" s="249"/>
     </row>
     <row r="49" spans="1:27" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A49" s="58" t="s">
@@ -5154,7 +5152,7 @@
       <c r="L49" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="M49" s="110" t="s">
+      <c r="M49" s="106" t="s">
         <v>92</v>
       </c>
       <c r="N49" s="34"/>
@@ -5169,8 +5167,8 @@
       <c r="W49" s="13"/>
       <c r="X49" s="13"/>
       <c r="Y49" s="35"/>
-      <c r="Z49" s="152"/>
-      <c r="AA49" s="159"/>
+      <c r="Z49" s="147"/>
+      <c r="AA49" s="249"/>
     </row>
     <row r="50" spans="1:27" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A50" s="56" t="s">
@@ -5207,7 +5205,7 @@
       <c r="L50" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="M50" s="112"/>
+      <c r="M50" s="108"/>
       <c r="N50" s="36" t="s">
         <v>18</v>
       </c>
@@ -5228,8 +5226,8 @@
       <c r="W50" s="22"/>
       <c r="X50" s="22"/>
       <c r="Y50" s="37"/>
-      <c r="Z50" s="153"/>
-      <c r="AA50" s="160"/>
+      <c r="Z50" s="148"/>
+      <c r="AA50" s="250"/>
     </row>
     <row r="51" spans="1:27" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A51" s="58" t="s">
@@ -5266,7 +5264,7 @@
       <c r="L51" s="13" t="s">
         <v>271</v>
       </c>
-      <c r="M51" s="111"/>
+      <c r="M51" s="107"/>
       <c r="N51" s="34"/>
       <c r="O51" s="13"/>
       <c r="P51" s="13" t="s">
@@ -5283,8 +5281,8 @@
       <c r="W51" s="13"/>
       <c r="X51" s="13"/>
       <c r="Y51" s="35"/>
-      <c r="Z51" s="152"/>
-      <c r="AA51" s="159" t="s">
+      <c r="Z51" s="147"/>
+      <c r="AA51" s="249" t="s">
         <v>29</v>
       </c>
     </row>
@@ -5292,7 +5290,7 @@
       <c r="A52" s="58" t="s">
         <v>97</v>
       </c>
-      <c r="B52" s="104" t="s">
+      <c r="B52" s="100" t="s">
         <v>8</v>
       </c>
       <c r="C52" s="14" t="s">
@@ -5301,7 +5299,7 @@
       <c r="D52" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="E52" s="105" t="s">
+      <c r="E52" s="101" t="s">
         <v>61</v>
       </c>
       <c r="F52" s="14" t="s">
@@ -5323,7 +5321,7 @@
       <c r="L52" s="13" t="s">
         <v>271</v>
       </c>
-      <c r="M52" s="111"/>
+      <c r="M52" s="107"/>
       <c r="N52" s="34"/>
       <c r="O52" s="13"/>
       <c r="P52" s="13" t="s">
@@ -5340,8 +5338,8 @@
       <c r="W52" s="13"/>
       <c r="X52" s="13"/>
       <c r="Y52" s="35"/>
-      <c r="Z52" s="152"/>
-      <c r="AA52" s="159" t="s">
+      <c r="Z52" s="147"/>
+      <c r="AA52" s="249" t="s">
         <v>30</v>
       </c>
     </row>
@@ -5380,7 +5378,7 @@
       <c r="L53" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="M53" s="110" t="s">
+      <c r="M53" s="106" t="s">
         <v>92</v>
       </c>
       <c r="N53" s="34"/>
@@ -5395,8 +5393,8 @@
       <c r="W53" s="13"/>
       <c r="X53" s="13"/>
       <c r="Y53" s="35"/>
-      <c r="Z53" s="152"/>
-      <c r="AA53" s="159"/>
+      <c r="Z53" s="147"/>
+      <c r="AA53" s="249"/>
     </row>
     <row r="54" spans="1:27" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A54" s="58" t="s">
@@ -5433,7 +5431,7 @@
       <c r="L54" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="M54" s="110" t="s">
+      <c r="M54" s="106" t="s">
         <v>92</v>
       </c>
       <c r="N54" s="34"/>
@@ -5448,8 +5446,8 @@
       <c r="W54" s="13"/>
       <c r="X54" s="13"/>
       <c r="Y54" s="35"/>
-      <c r="Z54" s="152"/>
-      <c r="AA54" s="159"/>
+      <c r="Z54" s="147"/>
+      <c r="AA54" s="249"/>
     </row>
     <row r="55" spans="1:27" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A55" s="58" t="s">
@@ -5486,7 +5484,7 @@
       <c r="L55" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="M55" s="110" t="s">
+      <c r="M55" s="106" t="s">
         <v>92</v>
       </c>
       <c r="N55" s="34"/>
@@ -5501,8 +5499,8 @@
       <c r="W55" s="13"/>
       <c r="X55" s="13"/>
       <c r="Y55" s="35"/>
-      <c r="Z55" s="152"/>
-      <c r="AA55" s="159"/>
+      <c r="Z55" s="147"/>
+      <c r="AA55" s="249"/>
     </row>
     <row r="56" spans="1:27" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A56" s="58" t="s">
@@ -5539,7 +5537,7 @@
       <c r="L56" s="13" t="s">
         <v>235</v>
       </c>
-      <c r="M56" s="110" t="s">
+      <c r="M56" s="106" t="s">
         <v>236</v>
       </c>
       <c r="N56" s="34" t="s">
@@ -5562,23 +5560,23 @@
       <c r="W56" s="13"/>
       <c r="X56" s="13"/>
       <c r="Y56" s="35"/>
-      <c r="Z56" s="152"/>
-      <c r="AA56" s="159"/>
+      <c r="Z56" s="147"/>
+      <c r="AA56" s="249"/>
     </row>
     <row r="57" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A57" s="202" t="s">
+      <c r="A57" s="222" t="s">
         <v>103</v>
       </c>
-      <c r="B57" s="204" t="s">
+      <c r="B57" s="224" t="s">
         <v>25</v>
       </c>
-      <c r="C57" s="206" t="s">
+      <c r="C57" s="156" t="s">
         <v>7</v>
       </c>
-      <c r="D57" s="206" t="s">
+      <c r="D57" s="156" t="s">
         <v>26</v>
       </c>
-      <c r="E57" s="208" t="s">
+      <c r="E57" s="158" t="s">
         <v>28</v>
       </c>
       <c r="F57" s="11" t="s">
@@ -5592,7 +5590,7 @@
       <c r="J57" s="12"/>
       <c r="K57" s="12"/>
       <c r="L57" s="12"/>
-      <c r="M57" s="110"/>
+      <c r="M57" s="106"/>
       <c r="N57" s="32"/>
       <c r="O57" s="12"/>
       <c r="P57" s="12" t="s">
@@ -5610,16 +5608,16 @@
       <c r="X57" s="12"/>
       <c r="Y57" s="33"/>
       <c r="Z57" s="90"/>
-      <c r="AA57" s="159" t="s">
+      <c r="AA57" s="249" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="58" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A58" s="203"/>
-      <c r="B58" s="205"/>
-      <c r="C58" s="207"/>
-      <c r="D58" s="207"/>
-      <c r="E58" s="209"/>
+      <c r="A58" s="223"/>
+      <c r="B58" s="225"/>
+      <c r="C58" s="157"/>
+      <c r="D58" s="157"/>
+      <c r="E58" s="159"/>
       <c r="F58" s="11" t="s">
         <v>243</v>
       </c>
@@ -5631,7 +5629,7 @@
       <c r="J58" s="12"/>
       <c r="K58" s="12"/>
       <c r="L58" s="12"/>
-      <c r="M58" s="110"/>
+      <c r="M58" s="106"/>
       <c r="N58" s="32"/>
       <c r="O58" s="12"/>
       <c r="P58" s="12" t="s">
@@ -5649,7 +5647,7 @@
       <c r="X58" s="12"/>
       <c r="Y58" s="33"/>
       <c r="Z58" s="90"/>
-      <c r="AA58" s="159" t="s">
+      <c r="AA58" s="249" t="s">
         <v>8</v>
       </c>
     </row>
@@ -5688,7 +5686,7 @@
       <c r="L59" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="M59" s="110" t="s">
+      <c r="M59" s="106" t="s">
         <v>92</v>
       </c>
       <c r="N59" s="34"/>
@@ -5703,8 +5701,8 @@
       <c r="W59" s="13"/>
       <c r="X59" s="13"/>
       <c r="Y59" s="35"/>
-      <c r="Z59" s="152"/>
-      <c r="AA59" s="159"/>
+      <c r="Z59" s="147"/>
+      <c r="AA59" s="249"/>
     </row>
     <row r="60" spans="1:27" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A60" s="58" t="s">
@@ -5741,7 +5739,7 @@
       <c r="L60" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="M60" s="110" t="s">
+      <c r="M60" s="106" t="s">
         <v>92</v>
       </c>
       <c r="N60" s="34"/>
@@ -5756,8 +5754,8 @@
       <c r="W60" s="13"/>
       <c r="X60" s="13"/>
       <c r="Y60" s="35"/>
-      <c r="Z60" s="152"/>
-      <c r="AA60" s="159"/>
+      <c r="Z60" s="147"/>
+      <c r="AA60" s="249"/>
     </row>
     <row r="61" spans="1:27" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A61" s="58" t="s">
@@ -5794,7 +5792,7 @@
       <c r="L61" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="M61" s="110"/>
+      <c r="M61" s="106"/>
       <c r="N61" s="32" t="s">
         <v>18</v>
       </c>
@@ -5816,7 +5814,7 @@
       <c r="X61" s="13"/>
       <c r="Y61" s="35"/>
       <c r="Z61" s="90"/>
-      <c r="AA61" s="159"/>
+      <c r="AA61" s="249"/>
     </row>
     <row r="62" spans="1:27" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A62" s="58" t="s">
@@ -5853,7 +5851,7 @@
       <c r="L62" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="M62" s="110" t="s">
+      <c r="M62" s="106" t="s">
         <v>109</v>
       </c>
       <c r="N62" s="32" t="s">
@@ -5877,7 +5875,7 @@
       <c r="X62" s="13"/>
       <c r="Y62" s="35"/>
       <c r="Z62" s="90"/>
-      <c r="AA62" s="159"/>
+      <c r="AA62" s="249"/>
     </row>
     <row r="63" spans="1:27" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A63" s="58" t="s">
@@ -5914,7 +5912,7 @@
       <c r="L63" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="M63" s="110" t="s">
+      <c r="M63" s="106" t="s">
         <v>110</v>
       </c>
       <c r="N63" s="32" t="s">
@@ -5938,7 +5936,7 @@
       <c r="X63" s="13"/>
       <c r="Y63" s="35"/>
       <c r="Z63" s="90"/>
-      <c r="AA63" s="159"/>
+      <c r="AA63" s="249"/>
     </row>
     <row r="64" spans="1:27" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A64" s="58" t="s">
@@ -5975,7 +5973,7 @@
       <c r="L64" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="M64" s="111"/>
+      <c r="M64" s="107"/>
       <c r="N64" s="32" t="s">
         <v>18</v>
       </c>
@@ -5997,22 +5995,22 @@
       <c r="X64" s="13"/>
       <c r="Y64" s="35"/>
       <c r="Z64" s="90"/>
-      <c r="AA64" s="159"/>
+      <c r="AA64" s="249"/>
     </row>
     <row r="65" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A65" s="202" t="s">
+      <c r="A65" s="222" t="s">
         <v>114</v>
       </c>
-      <c r="B65" s="204" t="s">
+      <c r="B65" s="224" t="s">
         <v>25</v>
       </c>
-      <c r="C65" s="206" t="s">
+      <c r="C65" s="156" t="s">
         <v>7</v>
       </c>
-      <c r="D65" s="206" t="s">
+      <c r="D65" s="156" t="s">
         <v>26</v>
       </c>
-      <c r="E65" s="208" t="s">
+      <c r="E65" s="158" t="s">
         <v>59</v>
       </c>
       <c r="F65" s="11" t="s">
@@ -6026,7 +6024,7 @@
       <c r="J65" s="12"/>
       <c r="K65" s="12"/>
       <c r="L65" s="12"/>
-      <c r="M65" s="110"/>
+      <c r="M65" s="106"/>
       <c r="N65" s="32"/>
       <c r="O65" s="12"/>
       <c r="P65" s="12" t="s">
@@ -6044,16 +6042,16 @@
       <c r="X65" s="12"/>
       <c r="Y65" s="33"/>
       <c r="Z65" s="90"/>
-      <c r="AA65" s="159" t="s">
+      <c r="AA65" s="249" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="66" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A66" s="203"/>
-      <c r="B66" s="205"/>
-      <c r="C66" s="207"/>
-      <c r="D66" s="207"/>
-      <c r="E66" s="209"/>
+      <c r="A66" s="223"/>
+      <c r="B66" s="225"/>
+      <c r="C66" s="157"/>
+      <c r="D66" s="157"/>
+      <c r="E66" s="159"/>
       <c r="F66" s="11" t="s">
         <v>243</v>
       </c>
@@ -6065,7 +6063,7 @@
       <c r="J66" s="12"/>
       <c r="K66" s="12"/>
       <c r="L66" s="12"/>
-      <c r="M66" s="110"/>
+      <c r="M66" s="106"/>
       <c r="N66" s="32"/>
       <c r="O66" s="12"/>
       <c r="P66" s="12" t="s">
@@ -6083,7 +6081,7 @@
       <c r="X66" s="12"/>
       <c r="Y66" s="33"/>
       <c r="Z66" s="90"/>
-      <c r="AA66" s="159" t="s">
+      <c r="AA66" s="249" t="s">
         <v>25</v>
       </c>
     </row>
@@ -6122,7 +6120,7 @@
       <c r="L67" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="M67" s="110" t="s">
+      <c r="M67" s="106" t="s">
         <v>261</v>
       </c>
       <c r="N67" s="32" t="s">
@@ -6146,7 +6144,7 @@
       <c r="X67" s="13"/>
       <c r="Y67" s="35"/>
       <c r="Z67" s="90"/>
-      <c r="AA67" s="93"/>
+      <c r="AA67" s="248"/>
     </row>
     <row r="68" spans="1:27" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A68" s="58" t="s">
@@ -6183,7 +6181,7 @@
       <c r="L68" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="M68" s="110" t="s">
+      <c r="M68" s="106" t="s">
         <v>260</v>
       </c>
       <c r="N68" s="32" t="s">
@@ -6207,7 +6205,7 @@
       <c r="X68" s="13"/>
       <c r="Y68" s="35"/>
       <c r="Z68" s="90"/>
-      <c r="AA68" s="93"/>
+      <c r="AA68" s="248"/>
     </row>
     <row r="69" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A69" s="59" t="s">
@@ -6240,7 +6238,7 @@
       <c r="L69" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="M69" s="111" t="s">
+      <c r="M69" s="107" t="s">
         <v>258</v>
       </c>
       <c r="N69" s="32" t="s">
@@ -6264,7 +6262,7 @@
       <c r="X69" s="13"/>
       <c r="Y69" s="35"/>
       <c r="Z69" s="90"/>
-      <c r="AA69" s="93"/>
+      <c r="AA69" s="248"/>
     </row>
     <row r="70" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A70" s="59" t="s">
@@ -6301,7 +6299,7 @@
       <c r="L70" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="M70" s="111" t="s">
+      <c r="M70" s="107" t="s">
         <v>259</v>
       </c>
       <c r="N70" s="32" t="s">
@@ -6325,7 +6323,7 @@
       <c r="X70" s="13"/>
       <c r="Y70" s="35"/>
       <c r="Z70" s="90"/>
-      <c r="AA70" s="93"/>
+      <c r="AA70" s="248"/>
     </row>
     <row r="71" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A71" s="59" t="s">
@@ -6358,7 +6356,7 @@
       <c r="L71" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="M71" s="111" t="s">
+      <c r="M71" s="107" t="s">
         <v>258</v>
       </c>
       <c r="N71" s="32" t="s">
@@ -6382,7 +6380,7 @@
       <c r="X71" s="13"/>
       <c r="Y71" s="35"/>
       <c r="Z71" s="90"/>
-      <c r="AA71" s="93"/>
+      <c r="AA71" s="248"/>
     </row>
     <row r="72" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A72" s="59" t="s">
@@ -6415,7 +6413,7 @@
       <c r="L72" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="M72" s="111" t="s">
+      <c r="M72" s="107" t="s">
         <v>257</v>
       </c>
       <c r="N72" s="32" t="s">
@@ -6439,7 +6437,7 @@
       <c r="X72" s="13"/>
       <c r="Y72" s="35"/>
       <c r="Z72" s="90"/>
-      <c r="AA72" s="93"/>
+      <c r="AA72" s="248"/>
     </row>
     <row r="73" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A73" s="59" t="s">
@@ -6476,7 +6474,7 @@
       <c r="L73" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="M73" s="110" t="s">
+      <c r="M73" s="106" t="s">
         <v>255</v>
       </c>
       <c r="N73" s="32"/>
@@ -6492,7 +6490,7 @@
       <c r="X73" s="13"/>
       <c r="Y73" s="35"/>
       <c r="Z73" s="90"/>
-      <c r="AA73" s="93"/>
+      <c r="AA73" s="248"/>
     </row>
     <row r="74" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A74" s="59" t="s">
@@ -6525,7 +6523,7 @@
       <c r="L74" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="M74" s="111" t="s">
+      <c r="M74" s="107" t="s">
         <v>257</v>
       </c>
       <c r="N74" s="32" t="s">
@@ -6549,7 +6547,7 @@
       <c r="X74" s="13"/>
       <c r="Y74" s="35"/>
       <c r="Z74" s="90"/>
-      <c r="AA74" s="93"/>
+      <c r="AA74" s="248"/>
     </row>
     <row r="75" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A75" s="62" t="s">
@@ -6586,7 +6584,7 @@
       <c r="L75" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="M75" s="113"/>
+      <c r="M75" s="109"/>
       <c r="N75" s="30" t="s">
         <v>18</v>
       </c>
@@ -6611,9 +6609,9 @@
       <c r="W75" s="19"/>
       <c r="X75" s="19"/>
       <c r="Y75" s="66"/>
-      <c r="Z75" s="149"/>
-      <c r="AA75" s="94" t="s">
-        <v>61</v>
+      <c r="Z75" s="144"/>
+      <c r="AA75" s="244" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="76" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
@@ -6651,7 +6649,7 @@
       <c r="L76" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="M76" s="113"/>
+      <c r="M76" s="109"/>
       <c r="N76" s="30" t="s">
         <v>18</v>
       </c>
@@ -6676,9 +6674,9 @@
       <c r="W76" s="19"/>
       <c r="X76" s="19"/>
       <c r="Y76" s="66"/>
-      <c r="Z76" s="149"/>
-      <c r="AA76" s="94" t="s">
-        <v>61</v>
+      <c r="Z76" s="144"/>
+      <c r="AA76" s="244" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="77" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
@@ -6718,7 +6716,7 @@
       <c r="L77" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="M77" s="113"/>
+      <c r="M77" s="109"/>
       <c r="N77" s="30" t="s">
         <v>18</v>
       </c>
@@ -6745,23 +6743,23 @@
       <c r="W77" s="19"/>
       <c r="X77" s="19"/>
       <c r="Y77" s="66"/>
-      <c r="Z77" s="149"/>
-      <c r="AA77" s="94"/>
+      <c r="Z77" s="144"/>
+      <c r="AA77" s="244"/>
     </row>
     <row r="78" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="234" t="s">
+      <c r="A78" s="217" t="s">
         <v>126</v>
       </c>
-      <c r="B78" s="232" t="s">
+      <c r="B78" s="219" t="s">
         <v>27</v>
       </c>
-      <c r="C78" s="219" t="s">
+      <c r="C78" s="160" t="s">
         <v>7</v>
       </c>
-      <c r="D78" s="219" t="s">
+      <c r="D78" s="160" t="s">
         <v>5</v>
       </c>
-      <c r="E78" s="216" t="s">
+      <c r="E78" s="162" t="s">
         <v>25</v>
       </c>
       <c r="F78" s="89" t="s">
@@ -6785,7 +6783,7 @@
       <c r="L78" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="M78" s="113"/>
+      <c r="M78" s="109"/>
       <c r="N78" s="30" t="s">
         <v>18</v>
       </c>
@@ -6812,15 +6810,15 @@
       <c r="W78" s="19"/>
       <c r="X78" s="19"/>
       <c r="Y78" s="66"/>
-      <c r="Z78" s="149"/>
-      <c r="AA78" s="94"/>
+      <c r="Z78" s="144"/>
+      <c r="AA78" s="244"/>
     </row>
     <row r="79" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="236"/>
-      <c r="B79" s="233"/>
-      <c r="C79" s="220"/>
-      <c r="D79" s="220"/>
-      <c r="E79" s="218"/>
+      <c r="A79" s="218"/>
+      <c r="B79" s="220"/>
+      <c r="C79" s="161"/>
+      <c r="D79" s="161"/>
+      <c r="E79" s="163"/>
       <c r="F79" s="89" t="s">
         <v>243</v>
       </c>
@@ -6830,7 +6828,7 @@
       <c r="J79" s="7"/>
       <c r="K79" s="7"/>
       <c r="L79" s="7"/>
-      <c r="M79" s="113"/>
+      <c r="M79" s="109"/>
       <c r="N79" s="30"/>
       <c r="O79" s="7"/>
       <c r="P79" s="7"/>
@@ -6843,23 +6841,23 @@
       <c r="W79" s="19"/>
       <c r="X79" s="19"/>
       <c r="Y79" s="66"/>
-      <c r="Z79" s="149"/>
-      <c r="AA79" s="94"/>
+      <c r="Z79" s="144"/>
+      <c r="AA79" s="244"/>
     </row>
     <row r="80" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="234" t="s">
+      <c r="A80" s="217" t="s">
         <v>127</v>
       </c>
-      <c r="B80" s="232" t="s">
+      <c r="B80" s="219" t="s">
         <v>27</v>
       </c>
-      <c r="C80" s="219" t="s">
+      <c r="C80" s="160" t="s">
         <v>7</v>
       </c>
-      <c r="D80" s="219" t="s">
+      <c r="D80" s="160" t="s">
         <v>6</v>
       </c>
-      <c r="E80" s="216" t="s">
+      <c r="E80" s="162" t="s">
         <v>25</v>
       </c>
       <c r="F80" s="89" t="s">
@@ -6883,7 +6881,7 @@
       <c r="L80" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="M80" s="113"/>
+      <c r="M80" s="109"/>
       <c r="N80" s="30" t="s">
         <v>18</v>
       </c>
@@ -6910,15 +6908,15 @@
       <c r="W80" s="19"/>
       <c r="X80" s="19"/>
       <c r="Y80" s="66"/>
-      <c r="Z80" s="149"/>
-      <c r="AA80" s="94"/>
+      <c r="Z80" s="144"/>
+      <c r="AA80" s="244"/>
     </row>
     <row r="81" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="236"/>
-      <c r="B81" s="233"/>
-      <c r="C81" s="220"/>
-      <c r="D81" s="220"/>
-      <c r="E81" s="218"/>
+      <c r="A81" s="218"/>
+      <c r="B81" s="220"/>
+      <c r="C81" s="161"/>
+      <c r="D81" s="161"/>
+      <c r="E81" s="163"/>
       <c r="F81" s="89" t="s">
         <v>243</v>
       </c>
@@ -6928,7 +6926,7 @@
       <c r="J81" s="7"/>
       <c r="K81" s="7"/>
       <c r="L81" s="7"/>
-      <c r="M81" s="113"/>
+      <c r="M81" s="109"/>
       <c r="N81" s="30"/>
       <c r="O81" s="7"/>
       <c r="P81" s="7"/>
@@ -6941,23 +6939,23 @@
       <c r="W81" s="19"/>
       <c r="X81" s="19"/>
       <c r="Y81" s="66"/>
-      <c r="Z81" s="149"/>
-      <c r="AA81" s="94"/>
+      <c r="Z81" s="144"/>
+      <c r="AA81" s="244"/>
     </row>
     <row r="82" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="234" t="s">
+      <c r="A82" s="217" t="s">
         <v>128</v>
       </c>
-      <c r="B82" s="232" t="s">
+      <c r="B82" s="219" t="s">
         <v>27</v>
       </c>
-      <c r="C82" s="219" t="s">
+      <c r="C82" s="160" t="s">
         <v>7</v>
       </c>
-      <c r="D82" s="219" t="s">
+      <c r="D82" s="160" t="s">
         <v>8</v>
       </c>
-      <c r="E82" s="216" t="s">
+      <c r="E82" s="162" t="s">
         <v>25</v>
       </c>
       <c r="F82" s="89" t="s">
@@ -6981,7 +6979,7 @@
       <c r="L82" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="M82" s="113"/>
+      <c r="M82" s="109"/>
       <c r="N82" s="30" t="s">
         <v>18</v>
       </c>
@@ -7008,15 +7006,15 @@
       <c r="W82" s="19"/>
       <c r="X82" s="19"/>
       <c r="Y82" s="66"/>
-      <c r="Z82" s="149"/>
-      <c r="AA82" s="94"/>
+      <c r="Z82" s="144"/>
+      <c r="AA82" s="244"/>
     </row>
     <row r="83" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="236"/>
-      <c r="B83" s="233"/>
-      <c r="C83" s="220"/>
-      <c r="D83" s="220"/>
-      <c r="E83" s="218"/>
+      <c r="A83" s="218"/>
+      <c r="B83" s="220"/>
+      <c r="C83" s="161"/>
+      <c r="D83" s="161"/>
+      <c r="E83" s="163"/>
       <c r="F83" s="89" t="s">
         <v>243</v>
       </c>
@@ -7026,7 +7024,7 @@
       <c r="J83" s="7"/>
       <c r="K83" s="7"/>
       <c r="L83" s="7"/>
-      <c r="M83" s="113"/>
+      <c r="M83" s="109"/>
       <c r="N83" s="30"/>
       <c r="O83" s="7"/>
       <c r="P83" s="7"/>
@@ -7039,8 +7037,8 @@
       <c r="W83" s="19"/>
       <c r="X83" s="19"/>
       <c r="Y83" s="66"/>
-      <c r="Z83" s="149"/>
-      <c r="AA83" s="94"/>
+      <c r="Z83" s="144"/>
+      <c r="AA83" s="244"/>
     </row>
     <row r="84" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A84" s="59" t="s">
@@ -7073,7 +7071,7 @@
       <c r="L84" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="M84" s="111" t="s">
+      <c r="M84" s="107" t="s">
         <v>258</v>
       </c>
       <c r="N84" s="32" t="s">
@@ -7097,7 +7095,7 @@
       <c r="X84" s="15"/>
       <c r="Y84" s="38"/>
       <c r="Z84" s="90"/>
-      <c r="AA84" s="93"/>
+      <c r="AA84" s="248"/>
     </row>
     <row r="85" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A85" s="59" t="s">
@@ -7130,7 +7128,7 @@
       <c r="L85" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="M85" s="111" t="s">
+      <c r="M85" s="107" t="s">
         <v>258</v>
       </c>
       <c r="N85" s="32" t="s">
@@ -7154,7 +7152,7 @@
       <c r="X85" s="15"/>
       <c r="Y85" s="38"/>
       <c r="Z85" s="90"/>
-      <c r="AA85" s="93"/>
+      <c r="AA85" s="248"/>
     </row>
     <row r="86" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A86" s="59" t="s">
@@ -7187,7 +7185,7 @@
       <c r="L86" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="M86" s="111" t="s">
+      <c r="M86" s="107" t="s">
         <v>257</v>
       </c>
       <c r="N86" s="32" t="s">
@@ -7211,7 +7209,7 @@
       <c r="X86" s="15"/>
       <c r="Y86" s="38"/>
       <c r="Z86" s="90"/>
-      <c r="AA86" s="93"/>
+      <c r="AA86" s="248"/>
     </row>
     <row r="87" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A87" s="59" t="s">
@@ -7248,7 +7246,7 @@
       <c r="L87" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="M87" s="110" t="s">
+      <c r="M87" s="106" t="s">
         <v>255</v>
       </c>
       <c r="N87" s="39"/>
@@ -7264,7 +7262,7 @@
       <c r="X87" s="15"/>
       <c r="Y87" s="38"/>
       <c r="Z87" s="90"/>
-      <c r="AA87" s="93"/>
+      <c r="AA87" s="248"/>
     </row>
     <row r="88" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A88" s="59" t="s">
@@ -7297,7 +7295,7 @@
       <c r="L88" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="M88" s="111" t="s">
+      <c r="M88" s="107" t="s">
         <v>257</v>
       </c>
       <c r="N88" s="32" t="s">
@@ -7321,7 +7319,7 @@
       <c r="X88" s="15"/>
       <c r="Y88" s="38"/>
       <c r="Z88" s="90"/>
-      <c r="AA88" s="93"/>
+      <c r="AA88" s="248"/>
     </row>
     <row r="89" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A89" s="62" t="s">
@@ -7358,7 +7356,7 @@
       <c r="L89" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="M89" s="114"/>
+      <c r="M89" s="110"/>
       <c r="N89" s="30" t="s">
         <v>18</v>
       </c>
@@ -7383,8 +7381,8 @@
         <v>70</v>
       </c>
       <c r="Y89" s="68"/>
-      <c r="Z89" s="149"/>
-      <c r="AA89" s="94" t="s">
+      <c r="Z89" s="144"/>
+      <c r="AA89" s="244" t="s">
         <v>39</v>
       </c>
     </row>
@@ -7423,7 +7421,7 @@
       <c r="L90" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="M90" s="114"/>
+      <c r="M90" s="110"/>
       <c r="N90" s="30" t="s">
         <v>18</v>
       </c>
@@ -7448,9 +7446,9 @@
         <v>70</v>
       </c>
       <c r="Y90" s="68"/>
-      <c r="Z90" s="149"/>
-      <c r="AA90" s="94" t="s">
-        <v>44</v>
+      <c r="Z90" s="144"/>
+      <c r="AA90" s="244" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="91" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
@@ -7488,7 +7486,7 @@
       <c r="L91" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="M91" s="114"/>
+      <c r="M91" s="110"/>
       <c r="N91" s="30" t="s">
         <v>18</v>
       </c>
@@ -7519,23 +7517,23 @@
         <v>70</v>
       </c>
       <c r="Y91" s="68"/>
-      <c r="Z91" s="149"/>
-      <c r="AA91" s="94"/>
+      <c r="Z91" s="144"/>
+      <c r="AA91" s="244"/>
     </row>
     <row r="92" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="234" t="s">
+      <c r="A92" s="217" t="s">
         <v>137</v>
       </c>
-      <c r="B92" s="232" t="s">
+      <c r="B92" s="219" t="s">
         <v>27</v>
       </c>
-      <c r="C92" s="219" t="s">
+      <c r="C92" s="160" t="s">
         <v>26</v>
       </c>
-      <c r="D92" s="219" t="s">
+      <c r="D92" s="160" t="s">
         <v>5</v>
       </c>
-      <c r="E92" s="216" t="s">
+      <c r="E92" s="162" t="s">
         <v>30</v>
       </c>
       <c r="F92" s="89" t="s">
@@ -7557,7 +7555,7 @@
       <c r="L92" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="M92" s="107"/>
+      <c r="M92" s="103"/>
       <c r="N92" s="30" t="s">
         <v>18</v>
       </c>
@@ -7584,15 +7582,15 @@
         <v>70</v>
       </c>
       <c r="Y92" s="31"/>
-      <c r="Z92" s="149"/>
-      <c r="AA92" s="94"/>
+      <c r="Z92" s="144"/>
+      <c r="AA92" s="244"/>
     </row>
     <row r="93" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="235"/>
-      <c r="B93" s="237"/>
-      <c r="C93" s="221"/>
-      <c r="D93" s="221"/>
-      <c r="E93" s="217"/>
+      <c r="A93" s="227"/>
+      <c r="B93" s="221"/>
+      <c r="C93" s="226"/>
+      <c r="D93" s="226"/>
+      <c r="E93" s="230"/>
       <c r="F93" s="89" t="s">
         <v>243</v>
       </c>
@@ -7602,7 +7600,7 @@
       <c r="J93" s="7"/>
       <c r="K93" s="7"/>
       <c r="L93" s="7"/>
-      <c r="M93" s="107"/>
+      <c r="M93" s="103"/>
       <c r="N93" s="30"/>
       <c r="O93" s="7"/>
       <c r="P93" s="67"/>
@@ -7615,15 +7613,15 @@
       <c r="W93" s="7"/>
       <c r="X93" s="7"/>
       <c r="Y93" s="31"/>
-      <c r="Z93" s="149"/>
-      <c r="AA93" s="94"/>
+      <c r="Z93" s="144"/>
+      <c r="AA93" s="244"/>
     </row>
     <row r="94" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="236"/>
-      <c r="B94" s="233"/>
-      <c r="C94" s="220"/>
-      <c r="D94" s="220"/>
-      <c r="E94" s="218"/>
+      <c r="A94" s="218"/>
+      <c r="B94" s="220"/>
+      <c r="C94" s="161"/>
+      <c r="D94" s="161"/>
+      <c r="E94" s="163"/>
       <c r="F94" s="89" t="s">
         <v>244</v>
       </c>
@@ -7643,7 +7641,7 @@
       <c r="L94" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="M94" s="107" t="s">
+      <c r="M94" s="103" t="s">
         <v>230</v>
       </c>
       <c r="N94" s="30"/>
@@ -7658,23 +7656,23 @@
       <c r="W94" s="7"/>
       <c r="X94" s="7"/>
       <c r="Y94" s="31"/>
-      <c r="Z94" s="149"/>
-      <c r="AA94" s="94"/>
+      <c r="Z94" s="144"/>
+      <c r="AA94" s="244"/>
     </row>
     <row r="95" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="234" t="s">
+      <c r="A95" s="217" t="s">
         <v>138</v>
       </c>
-      <c r="B95" s="232" t="s">
+      <c r="B95" s="219" t="s">
         <v>27</v>
       </c>
-      <c r="C95" s="219" t="s">
+      <c r="C95" s="160" t="s">
         <v>26</v>
       </c>
-      <c r="D95" s="219" t="s">
+      <c r="D95" s="160" t="s">
         <v>6</v>
       </c>
-      <c r="E95" s="216" t="s">
+      <c r="E95" s="162" t="s">
         <v>30</v>
       </c>
       <c r="F95" s="89" t="s">
@@ -7696,7 +7694,7 @@
       <c r="L95" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="M95" s="107"/>
+      <c r="M95" s="103"/>
       <c r="N95" s="30" t="s">
         <v>18</v>
       </c>
@@ -7723,15 +7721,15 @@
         <v>70</v>
       </c>
       <c r="Y95" s="31"/>
-      <c r="Z95" s="149"/>
-      <c r="AA95" s="94"/>
+      <c r="Z95" s="144"/>
+      <c r="AA95" s="244"/>
     </row>
     <row r="96" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="235"/>
-      <c r="B96" s="237"/>
-      <c r="C96" s="221"/>
-      <c r="D96" s="221"/>
-      <c r="E96" s="217"/>
+      <c r="A96" s="227"/>
+      <c r="B96" s="221"/>
+      <c r="C96" s="226"/>
+      <c r="D96" s="226"/>
+      <c r="E96" s="230"/>
       <c r="F96" s="89" t="s">
         <v>243</v>
       </c>
@@ -7741,7 +7739,7 @@
       <c r="J96" s="7"/>
       <c r="K96" s="7"/>
       <c r="L96" s="7"/>
-      <c r="M96" s="107"/>
+      <c r="M96" s="103"/>
       <c r="N96" s="30"/>
       <c r="O96" s="7"/>
       <c r="P96" s="67"/>
@@ -7754,15 +7752,15 @@
       <c r="W96" s="7"/>
       <c r="X96" s="7"/>
       <c r="Y96" s="31"/>
-      <c r="Z96" s="149"/>
-      <c r="AA96" s="94"/>
+      <c r="Z96" s="144"/>
+      <c r="AA96" s="244"/>
     </row>
     <row r="97" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="236"/>
-      <c r="B97" s="233"/>
-      <c r="C97" s="220"/>
-      <c r="D97" s="220"/>
-      <c r="E97" s="218"/>
+      <c r="A97" s="218"/>
+      <c r="B97" s="220"/>
+      <c r="C97" s="161"/>
+      <c r="D97" s="161"/>
+      <c r="E97" s="163"/>
       <c r="F97" s="89" t="s">
         <v>244</v>
       </c>
@@ -7782,7 +7780,7 @@
       <c r="L97" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="M97" s="107" t="s">
+      <c r="M97" s="103" t="s">
         <v>231</v>
       </c>
       <c r="N97" s="30"/>
@@ -7797,23 +7795,23 @@
       <c r="W97" s="7"/>
       <c r="X97" s="7"/>
       <c r="Y97" s="31"/>
-      <c r="Z97" s="149"/>
-      <c r="AA97" s="94"/>
+      <c r="Z97" s="144"/>
+      <c r="AA97" s="244"/>
     </row>
     <row r="98" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="234" t="s">
+      <c r="A98" s="217" t="s">
         <v>139</v>
       </c>
-      <c r="B98" s="232" t="s">
+      <c r="B98" s="219" t="s">
         <v>27</v>
       </c>
-      <c r="C98" s="219" t="s">
+      <c r="C98" s="160" t="s">
         <v>26</v>
       </c>
-      <c r="D98" s="219" t="s">
+      <c r="D98" s="160" t="s">
         <v>8</v>
       </c>
-      <c r="E98" s="216" t="s">
+      <c r="E98" s="162" t="s">
         <v>30</v>
       </c>
       <c r="F98" s="89" t="s">
@@ -7835,7 +7833,7 @@
       <c r="L98" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="M98" s="107"/>
+      <c r="M98" s="103"/>
       <c r="N98" s="30" t="s">
         <v>18</v>
       </c>
@@ -7862,15 +7860,15 @@
         <v>70</v>
       </c>
       <c r="Y98" s="31"/>
-      <c r="Z98" s="149"/>
-      <c r="AA98" s="94"/>
+      <c r="Z98" s="144"/>
+      <c r="AA98" s="244"/>
     </row>
     <row r="99" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="235"/>
-      <c r="B99" s="237"/>
-      <c r="C99" s="221"/>
-      <c r="D99" s="221"/>
-      <c r="E99" s="217"/>
+      <c r="A99" s="227"/>
+      <c r="B99" s="221"/>
+      <c r="C99" s="226"/>
+      <c r="D99" s="226"/>
+      <c r="E99" s="230"/>
       <c r="F99" s="89" t="s">
         <v>243</v>
       </c>
@@ -7880,7 +7878,7 @@
       <c r="J99" s="7"/>
       <c r="K99" s="7"/>
       <c r="L99" s="7"/>
-      <c r="M99" s="107"/>
+      <c r="M99" s="103"/>
       <c r="N99" s="30"/>
       <c r="O99" s="7"/>
       <c r="P99" s="67"/>
@@ -7893,15 +7891,15 @@
       <c r="W99" s="7"/>
       <c r="X99" s="7"/>
       <c r="Y99" s="31"/>
-      <c r="Z99" s="149"/>
-      <c r="AA99" s="94"/>
+      <c r="Z99" s="144"/>
+      <c r="AA99" s="244"/>
     </row>
     <row r="100" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="236"/>
-      <c r="B100" s="233"/>
-      <c r="C100" s="220"/>
-      <c r="D100" s="220"/>
-      <c r="E100" s="218"/>
+      <c r="A100" s="218"/>
+      <c r="B100" s="220"/>
+      <c r="C100" s="161"/>
+      <c r="D100" s="161"/>
+      <c r="E100" s="163"/>
       <c r="F100" s="89" t="s">
         <v>244</v>
       </c>
@@ -7921,7 +7919,7 @@
       <c r="L100" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="M100" s="107" t="s">
+      <c r="M100" s="103" t="s">
         <v>232</v>
       </c>
       <c r="N100" s="30"/>
@@ -7936,8 +7934,8 @@
       <c r="W100" s="7"/>
       <c r="X100" s="7"/>
       <c r="Y100" s="31"/>
-      <c r="Z100" s="149"/>
-      <c r="AA100" s="94"/>
+      <c r="Z100" s="144"/>
+      <c r="AA100" s="244"/>
     </row>
     <row r="101" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A101" s="59" t="s">
@@ -7970,7 +7968,7 @@
       <c r="L101" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="M101" s="115"/>
+      <c r="M101" s="111"/>
       <c r="N101" s="32" t="s">
         <v>18</v>
       </c>
@@ -7992,7 +7990,7 @@
       <c r="X101" s="15"/>
       <c r="Y101" s="38"/>
       <c r="Z101" s="90"/>
-      <c r="AA101" s="93"/>
+      <c r="AA101" s="248"/>
     </row>
     <row r="102" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A102" s="59" t="s">
@@ -8025,7 +8023,7 @@
       <c r="L102" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="M102" s="115"/>
+      <c r="M102" s="111"/>
       <c r="N102" s="32" t="s">
         <v>18</v>
       </c>
@@ -8047,7 +8045,7 @@
       <c r="X102" s="15"/>
       <c r="Y102" s="38"/>
       <c r="Z102" s="90"/>
-      <c r="AA102" s="93"/>
+      <c r="AA102" s="248"/>
     </row>
     <row r="103" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A103" s="59" t="s">
@@ -8080,7 +8078,7 @@
       <c r="L103" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="M103" s="115"/>
+      <c r="M103" s="111"/>
       <c r="N103" s="32" t="s">
         <v>18</v>
       </c>
@@ -8102,7 +8100,7 @@
       <c r="X103" s="15"/>
       <c r="Y103" s="38"/>
       <c r="Z103" s="90"/>
-      <c r="AA103" s="93"/>
+      <c r="AA103" s="248"/>
     </row>
     <row r="104" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A104" s="59" t="s">
@@ -8135,7 +8133,7 @@
       <c r="L104" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="M104" s="115"/>
+      <c r="M104" s="111"/>
       <c r="N104" s="32" t="s">
         <v>18</v>
       </c>
@@ -8157,7 +8155,7 @@
       <c r="X104" s="15"/>
       <c r="Y104" s="38"/>
       <c r="Z104" s="90"/>
-      <c r="AA104" s="93"/>
+      <c r="AA104" s="248"/>
     </row>
     <row r="105" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A105" s="59" t="s">
@@ -8190,7 +8188,7 @@
       <c r="L105" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="M105" s="115"/>
+      <c r="M105" s="111"/>
       <c r="N105" s="32" t="s">
         <v>18</v>
       </c>
@@ -8212,7 +8210,7 @@
       <c r="X105" s="15"/>
       <c r="Y105" s="38"/>
       <c r="Z105" s="90"/>
-      <c r="AA105" s="93"/>
+      <c r="AA105" s="248"/>
     </row>
     <row r="106" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A106" s="59" t="s">
@@ -8245,7 +8243,7 @@
       <c r="L106" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="M106" s="115"/>
+      <c r="M106" s="111"/>
       <c r="N106" s="32" t="s">
         <v>18</v>
       </c>
@@ -8267,7 +8265,7 @@
       <c r="X106" s="15"/>
       <c r="Y106" s="38"/>
       <c r="Z106" s="90"/>
-      <c r="AA106" s="93"/>
+      <c r="AA106" s="248"/>
     </row>
     <row r="107" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A107" s="62" t="s">
@@ -8296,7 +8294,7 @@
       <c r="J107" s="7"/>
       <c r="K107" s="7"/>
       <c r="L107" s="7"/>
-      <c r="M107" s="107"/>
+      <c r="M107" s="103"/>
       <c r="N107" s="30"/>
       <c r="O107" s="7"/>
       <c r="P107" s="7" t="s">
@@ -8313,8 +8311,10 @@
       <c r="W107" s="7"/>
       <c r="X107" s="7"/>
       <c r="Y107" s="31"/>
-      <c r="Z107" s="149"/>
-      <c r="AA107" s="94"/>
+      <c r="Z107" s="144"/>
+      <c r="AA107" s="244" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="108" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A108" s="62" t="s">
@@ -8343,7 +8343,7 @@
       <c r="J108" s="7"/>
       <c r="K108" s="7"/>
       <c r="L108" s="7"/>
-      <c r="M108" s="107"/>
+      <c r="M108" s="103"/>
       <c r="N108" s="30"/>
       <c r="O108" s="7"/>
       <c r="P108" s="7" t="s">
@@ -8360,8 +8360,10 @@
       <c r="W108" s="7"/>
       <c r="X108" s="7"/>
       <c r="Y108" s="31"/>
-      <c r="Z108" s="149"/>
-      <c r="AA108" s="94"/>
+      <c r="Z108" s="144"/>
+      <c r="AA108" s="244" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="109" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A109" s="62" t="s">
@@ -8398,7 +8400,7 @@
       <c r="L109" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="M109" s="107"/>
+      <c r="M109" s="103"/>
       <c r="N109" s="30" t="s">
         <v>18</v>
       </c>
@@ -8419,23 +8421,23 @@
         <v>70</v>
       </c>
       <c r="Y109" s="7"/>
-      <c r="Z109" s="149"/>
-      <c r="AA109" s="94"/>
+      <c r="Z109" s="144"/>
+      <c r="AA109" s="244"/>
     </row>
     <row r="110" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A110" s="230" t="s">
+      <c r="A110" s="182" t="s">
         <v>155</v>
       </c>
-      <c r="B110" s="224" t="s">
+      <c r="B110" s="184" t="s">
         <v>27</v>
       </c>
-      <c r="C110" s="226" t="s">
+      <c r="C110" s="188" t="s">
         <v>26</v>
       </c>
-      <c r="D110" s="226" t="s">
+      <c r="D110" s="188" t="s">
         <v>5</v>
       </c>
-      <c r="E110" s="227" t="s">
+      <c r="E110" s="191" t="s">
         <v>50</v>
       </c>
       <c r="F110" s="77" t="s">
@@ -8482,16 +8484,16 @@
         <v>70</v>
       </c>
       <c r="Y110" s="27"/>
-      <c r="Z110" s="150"/>
-      <c r="AA110" s="95"/>
+      <c r="Z110" s="145"/>
+      <c r="AA110" s="246"/>
     </row>
     <row r="111" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A111" s="231"/>
-      <c r="B111" s="225"/>
-      <c r="C111" s="228"/>
-      <c r="D111" s="228"/>
-      <c r="E111" s="229"/>
-      <c r="F111" s="134" t="s">
+      <c r="A111" s="183"/>
+      <c r="B111" s="185"/>
+      <c r="C111" s="190"/>
+      <c r="D111" s="190"/>
+      <c r="E111" s="193"/>
+      <c r="F111" s="129" t="s">
         <v>243</v>
       </c>
       <c r="G111" s="26"/>
@@ -8501,7 +8503,7 @@
       <c r="K111" s="9"/>
       <c r="L111" s="9"/>
       <c r="M111" s="27"/>
-      <c r="N111" s="138"/>
+      <c r="N111" s="133"/>
       <c r="O111" s="9"/>
       <c r="P111" s="9"/>
       <c r="Q111" s="82"/>
@@ -8513,23 +8515,23 @@
       <c r="W111" s="9"/>
       <c r="X111" s="9"/>
       <c r="Y111" s="27"/>
-      <c r="Z111" s="150"/>
-      <c r="AA111" s="95"/>
+      <c r="Z111" s="145"/>
+      <c r="AA111" s="246"/>
     </row>
     <row r="112" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A112" s="179" t="s">
+      <c r="A112" s="172" t="s">
         <v>156</v>
       </c>
-      <c r="B112" s="176" t="s">
+      <c r="B112" s="175" t="s">
         <v>27</v>
       </c>
-      <c r="C112" s="170" t="s">
+      <c r="C112" s="194" t="s">
         <v>7</v>
       </c>
-      <c r="D112" s="170" t="s">
+      <c r="D112" s="194" t="s">
         <v>6</v>
       </c>
-      <c r="E112" s="173" t="s">
+      <c r="E112" s="196" t="s">
         <v>50</v>
       </c>
       <c r="F112" s="76" t="s">
@@ -8551,7 +8553,7 @@
       <c r="L112" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="M112" s="110"/>
+      <c r="M112" s="106"/>
       <c r="N112" s="12" t="s">
         <v>18</v>
       </c>
@@ -8577,14 +8579,14 @@
       <c r="Z112" s="90" t="s">
         <v>69</v>
       </c>
-      <c r="AA112" s="93"/>
+      <c r="AA112" s="248"/>
     </row>
     <row r="113" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A113" s="180"/>
-      <c r="B113" s="177"/>
-      <c r="C113" s="171"/>
-      <c r="D113" s="171"/>
-      <c r="E113" s="174"/>
+      <c r="A113" s="173"/>
+      <c r="B113" s="176"/>
+      <c r="C113" s="204"/>
+      <c r="D113" s="204"/>
+      <c r="E113" s="205"/>
       <c r="F113" s="76" t="s">
         <v>243</v>
       </c>
@@ -8600,7 +8602,7 @@
       <c r="L113" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="M113" s="110"/>
+      <c r="M113" s="106"/>
       <c r="N113" s="12" t="s">
         <v>18</v>
       </c>
@@ -8618,14 +8620,14 @@
       <c r="X113" s="12"/>
       <c r="Y113" s="33"/>
       <c r="Z113" s="90"/>
-      <c r="AA113" s="93"/>
+      <c r="AA113" s="248"/>
     </row>
     <row r="114" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A114" s="180"/>
-      <c r="B114" s="177"/>
-      <c r="C114" s="171"/>
-      <c r="D114" s="171"/>
-      <c r="E114" s="174"/>
+      <c r="A114" s="173"/>
+      <c r="B114" s="176"/>
+      <c r="C114" s="204"/>
+      <c r="D114" s="204"/>
+      <c r="E114" s="205"/>
       <c r="F114" s="76" t="s">
         <v>244</v>
       </c>
@@ -8645,7 +8647,7 @@
       <c r="L114" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="M114" s="110"/>
+      <c r="M114" s="106"/>
       <c r="N114" s="32"/>
       <c r="O114" s="12" t="s">
         <v>14</v>
@@ -8665,14 +8667,14 @@
       <c r="X114" s="12"/>
       <c r="Y114" s="33"/>
       <c r="Z114" s="90"/>
-      <c r="AA114" s="93"/>
+      <c r="AA114" s="248"/>
     </row>
     <row r="115" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A115" s="181"/>
-      <c r="B115" s="178"/>
-      <c r="C115" s="172"/>
-      <c r="D115" s="172"/>
-      <c r="E115" s="175"/>
+      <c r="A115" s="174"/>
+      <c r="B115" s="177"/>
+      <c r="C115" s="195"/>
+      <c r="D115" s="195"/>
+      <c r="E115" s="197"/>
       <c r="F115" s="76" t="s">
         <v>245</v>
       </c>
@@ -8692,7 +8694,7 @@
       <c r="L115" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="M115" s="110" t="s">
+      <c r="M115" s="106" t="s">
         <v>255</v>
       </c>
       <c r="N115" s="32"/>
@@ -8708,22 +8710,22 @@
       <c r="X115" s="12"/>
       <c r="Y115" s="33"/>
       <c r="Z115" s="90"/>
-      <c r="AA115" s="93"/>
+      <c r="AA115" s="248"/>
     </row>
     <row r="116" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="230" t="s">
+      <c r="A116" s="182" t="s">
         <v>157</v>
       </c>
-      <c r="B116" s="224" t="s">
+      <c r="B116" s="184" t="s">
         <v>27</v>
       </c>
-      <c r="C116" s="226" t="s">
+      <c r="C116" s="188" t="s">
         <v>26</v>
       </c>
-      <c r="D116" s="226" t="s">
+      <c r="D116" s="188" t="s">
         <v>8</v>
       </c>
-      <c r="E116" s="227" t="s">
+      <c r="E116" s="191" t="s">
         <v>50</v>
       </c>
       <c r="F116" s="77" t="s">
@@ -8760,16 +8762,16 @@
       <c r="W116" s="9"/>
       <c r="X116" s="9"/>
       <c r="Y116" s="27"/>
-      <c r="Z116" s="150"/>
-      <c r="AA116" s="95"/>
+      <c r="Z116" s="145"/>
+      <c r="AA116" s="246"/>
     </row>
     <row r="117" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="231"/>
-      <c r="B117" s="225"/>
-      <c r="C117" s="228"/>
-      <c r="D117" s="228"/>
-      <c r="E117" s="229"/>
-      <c r="F117" s="134" t="s">
+      <c r="A117" s="183"/>
+      <c r="B117" s="185"/>
+      <c r="C117" s="190"/>
+      <c r="D117" s="190"/>
+      <c r="E117" s="193"/>
+      <c r="F117" s="129" t="s">
         <v>243</v>
       </c>
       <c r="G117" s="26"/>
@@ -8791,8 +8793,8 @@
       <c r="W117" s="9"/>
       <c r="X117" s="9"/>
       <c r="Y117" s="27"/>
-      <c r="Z117" s="150"/>
-      <c r="AA117" s="95"/>
+      <c r="Z117" s="145"/>
+      <c r="AA117" s="246"/>
     </row>
     <row r="118" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A118" s="62" t="s">
@@ -8825,7 +8827,7 @@
       <c r="L118" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="M118" s="107" t="s">
+      <c r="M118" s="103" t="s">
         <v>230</v>
       </c>
       <c r="N118" s="30"/>
@@ -8840,8 +8842,8 @@
       <c r="W118" s="7"/>
       <c r="X118" s="7"/>
       <c r="Y118" s="31"/>
-      <c r="Z118" s="149"/>
-      <c r="AA118" s="94"/>
+      <c r="Z118" s="144"/>
+      <c r="AA118" s="244"/>
     </row>
     <row r="119" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A119" s="62" t="s">
@@ -8874,7 +8876,7 @@
       <c r="L119" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="M119" s="107" t="s">
+      <c r="M119" s="103" t="s">
         <v>231</v>
       </c>
       <c r="N119" s="30"/>
@@ -8889,8 +8891,8 @@
       <c r="W119" s="7"/>
       <c r="X119" s="7"/>
       <c r="Y119" s="31"/>
-      <c r="Z119" s="149"/>
-      <c r="AA119" s="94"/>
+      <c r="Z119" s="144"/>
+      <c r="AA119" s="244"/>
     </row>
     <row r="120" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A120" s="62" t="s">
@@ -8923,7 +8925,7 @@
       <c r="L120" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="M120" s="107" t="s">
+      <c r="M120" s="103" t="s">
         <v>232</v>
       </c>
       <c r="N120" s="30"/>
@@ -8938,23 +8940,23 @@
       <c r="W120" s="7"/>
       <c r="X120" s="7"/>
       <c r="Y120" s="31"/>
-      <c r="Z120" s="149"/>
-      <c r="AA120" s="94"/>
+      <c r="Z120" s="144"/>
+      <c r="AA120" s="244"/>
     </row>
     <row r="121" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A121" s="179" t="s">
+      <c r="A121" s="172" t="s">
         <v>161</v>
       </c>
-      <c r="B121" s="176" t="s">
+      <c r="B121" s="175" t="s">
         <v>27</v>
       </c>
-      <c r="C121" s="170" t="s">
+      <c r="C121" s="194" t="s">
         <v>7</v>
       </c>
-      <c r="D121" s="170" t="s">
+      <c r="D121" s="194" t="s">
         <v>26</v>
       </c>
-      <c r="E121" s="173" t="s">
+      <c r="E121" s="196" t="s">
         <v>61</v>
       </c>
       <c r="F121" s="41" t="s">
@@ -8976,7 +8978,7 @@
       <c r="L121" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="M121" s="110"/>
+      <c r="M121" s="106"/>
       <c r="N121" s="32" t="s">
         <v>18</v>
       </c>
@@ -9004,16 +9006,16 @@
       </c>
       <c r="Y121" s="33"/>
       <c r="Z121" s="90"/>
-      <c r="AA121" s="93" t="s">
+      <c r="AA121" s="248" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="122" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A122" s="181"/>
-      <c r="B122" s="178"/>
-      <c r="C122" s="172"/>
-      <c r="D122" s="172"/>
-      <c r="E122" s="175"/>
+      <c r="A122" s="174"/>
+      <c r="B122" s="177"/>
+      <c r="C122" s="195"/>
+      <c r="D122" s="195"/>
+      <c r="E122" s="197"/>
       <c r="F122" s="41" t="s">
         <v>243</v>
       </c>
@@ -9033,7 +9035,7 @@
       <c r="L122" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="M122" s="110"/>
+      <c r="M122" s="106"/>
       <c r="N122" s="32" t="s">
         <v>18</v>
       </c>
@@ -9061,7 +9063,7 @@
       <c r="X122" s="12"/>
       <c r="Y122" s="33"/>
       <c r="Z122" s="90"/>
-      <c r="AA122" s="93" t="s">
+      <c r="AA122" s="248" t="s">
         <v>50</v>
       </c>
     </row>
@@ -9100,7 +9102,7 @@
       <c r="L123" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="M123" s="109"/>
+      <c r="M123" s="105"/>
       <c r="N123" s="28"/>
       <c r="O123" s="5" t="s">
         <v>18</v>
@@ -9123,8 +9125,8 @@
       <c r="W123" s="5"/>
       <c r="X123" s="5"/>
       <c r="Y123" s="29"/>
-      <c r="Z123" s="151"/>
-      <c r="AA123" s="96"/>
+      <c r="Z123" s="146"/>
+      <c r="AA123" s="247"/>
     </row>
     <row r="124" spans="1:27" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A124" s="56" t="s">
@@ -9161,7 +9163,7 @@
       <c r="L124" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="M124" s="109"/>
+      <c r="M124" s="105"/>
       <c r="N124" s="28"/>
       <c r="O124" s="5" t="s">
         <v>18</v>
@@ -9184,8 +9186,8 @@
       <c r="W124" s="5"/>
       <c r="X124" s="5"/>
       <c r="Y124" s="29"/>
-      <c r="Z124" s="151"/>
-      <c r="AA124" s="96"/>
+      <c r="Z124" s="146"/>
+      <c r="AA124" s="247"/>
     </row>
     <row r="125" spans="1:27" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A125" s="56" t="s">
@@ -9222,7 +9224,7 @@
       <c r="L125" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="M125" s="109"/>
+      <c r="M125" s="105"/>
       <c r="N125" s="28"/>
       <c r="O125" s="5" t="s">
         <v>18</v>
@@ -9245,8 +9247,8 @@
       <c r="W125" s="5"/>
       <c r="X125" s="5"/>
       <c r="Y125" s="29"/>
-      <c r="Z125" s="151"/>
-      <c r="AA125" s="96"/>
+      <c r="Z125" s="146"/>
+      <c r="AA125" s="247"/>
     </row>
     <row r="126" spans="1:27" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A126" s="56" t="s">
@@ -9283,7 +9285,7 @@
       <c r="L126" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="M126" s="109"/>
+      <c r="M126" s="105"/>
       <c r="N126" s="28"/>
       <c r="O126" s="5" t="s">
         <v>18</v>
@@ -9306,8 +9308,8 @@
       <c r="W126" s="5"/>
       <c r="X126" s="5"/>
       <c r="Y126" s="29"/>
-      <c r="Z126" s="151"/>
-      <c r="AA126" s="96"/>
+      <c r="Z126" s="146"/>
+      <c r="AA126" s="247"/>
     </row>
     <row r="127" spans="1:27" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A127" s="56" t="s">
@@ -9344,7 +9346,7 @@
       <c r="L127" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="M127" s="109"/>
+      <c r="M127" s="105"/>
       <c r="N127" s="28" t="s">
         <v>18</v>
       </c>
@@ -9365,8 +9367,8 @@
       <c r="W127" s="5"/>
       <c r="X127" s="5"/>
       <c r="Y127" s="29"/>
-      <c r="Z127" s="151"/>
-      <c r="AA127" s="96"/>
+      <c r="Z127" s="146"/>
+      <c r="AA127" s="247"/>
     </row>
     <row r="128" spans="1:27" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A128" s="56" t="s">
@@ -9403,7 +9405,7 @@
       <c r="L128" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="M128" s="109"/>
+      <c r="M128" s="105"/>
       <c r="N128" s="28" t="s">
         <v>18</v>
       </c>
@@ -9434,8 +9436,8 @@
         <v>70</v>
       </c>
       <c r="Y128" s="29"/>
-      <c r="Z128" s="151"/>
-      <c r="AA128" s="96"/>
+      <c r="Z128" s="146"/>
+      <c r="AA128" s="247"/>
     </row>
     <row r="129" spans="1:27" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A129" s="56" t="s">
@@ -9472,7 +9474,7 @@
       <c r="L129" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="M129" s="109"/>
+      <c r="M129" s="105"/>
       <c r="N129" s="28" t="s">
         <v>18</v>
       </c>
@@ -9503,8 +9505,8 @@
         <v>70</v>
       </c>
       <c r="Y129" s="29"/>
-      <c r="Z129" s="151"/>
-      <c r="AA129" s="96"/>
+      <c r="Z129" s="146"/>
+      <c r="AA129" s="247"/>
     </row>
     <row r="130" spans="1:27" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A130" s="56" t="s">
@@ -9541,7 +9543,7 @@
       <c r="L130" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="M130" s="109"/>
+      <c r="M130" s="105"/>
       <c r="N130" s="28" t="s">
         <v>18</v>
       </c>
@@ -9572,8 +9574,8 @@
         <v>70</v>
       </c>
       <c r="Y130" s="29"/>
-      <c r="Z130" s="151"/>
-      <c r="AA130" s="96"/>
+      <c r="Z130" s="146"/>
+      <c r="AA130" s="247"/>
     </row>
     <row r="131" spans="1:27" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A131" s="58" t="s">
@@ -9610,7 +9612,7 @@
       <c r="L131" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="M131" s="110"/>
+      <c r="M131" s="106"/>
       <c r="N131" s="32" t="s">
         <v>18</v>
       </c>
@@ -9632,7 +9634,7 @@
       <c r="X131" s="12"/>
       <c r="Y131" s="33"/>
       <c r="Z131" s="90"/>
-      <c r="AA131" s="93"/>
+      <c r="AA131" s="248"/>
     </row>
     <row r="132" spans="1:27" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A132" s="56" t="s">
@@ -9665,7 +9667,7 @@
       <c r="L132" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="M132" s="109"/>
+      <c r="M132" s="105"/>
       <c r="N132" s="28" t="s">
         <v>18</v>
       </c>
@@ -9686,8 +9688,8 @@
       <c r="W132" s="5"/>
       <c r="X132" s="5"/>
       <c r="Y132" s="29"/>
-      <c r="Z132" s="151"/>
-      <c r="AA132" s="96"/>
+      <c r="Z132" s="146"/>
+      <c r="AA132" s="247"/>
     </row>
     <row r="133" spans="1:27" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A133" s="56" t="s">
@@ -9720,7 +9722,7 @@
       <c r="L133" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="M133" s="109"/>
+      <c r="M133" s="105"/>
       <c r="N133" s="28" t="s">
         <v>18</v>
       </c>
@@ -9741,8 +9743,8 @@
       <c r="W133" s="5"/>
       <c r="X133" s="5"/>
       <c r="Y133" s="29"/>
-      <c r="Z133" s="151"/>
-      <c r="AA133" s="96"/>
+      <c r="Z133" s="146"/>
+      <c r="AA133" s="247"/>
     </row>
     <row r="134" spans="1:27" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A134" s="58" t="s">
@@ -9779,7 +9781,7 @@
       <c r="L134" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="M134" s="110" t="s">
+      <c r="M134" s="106" t="s">
         <v>256</v>
       </c>
       <c r="N134" s="32" t="s">
@@ -9803,7 +9805,7 @@
       <c r="X134" s="12"/>
       <c r="Y134" s="33"/>
       <c r="Z134" s="90"/>
-      <c r="AA134" s="93"/>
+      <c r="AA134" s="248"/>
     </row>
     <row r="135" spans="1:27" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A135" s="58" t="s">
@@ -9840,7 +9842,7 @@
       <c r="L135" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="M135" s="110"/>
+      <c r="M135" s="106"/>
       <c r="N135" s="32" t="s">
         <v>18</v>
       </c>
@@ -9862,7 +9864,7 @@
       <c r="X135" s="12"/>
       <c r="Y135" s="33"/>
       <c r="Z135" s="90"/>
-      <c r="AA135" s="93"/>
+      <c r="AA135" s="248"/>
     </row>
     <row r="136" spans="1:27" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A136" s="58" t="s">
@@ -9895,7 +9897,7 @@
       <c r="L136" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="M136" s="110"/>
+      <c r="M136" s="106"/>
       <c r="N136" s="32" t="s">
         <v>18</v>
       </c>
@@ -9917,7 +9919,7 @@
       <c r="X136" s="12"/>
       <c r="Y136" s="33"/>
       <c r="Z136" s="90"/>
-      <c r="AA136" s="93"/>
+      <c r="AA136" s="248"/>
     </row>
     <row r="137" spans="1:27" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A137" s="58" t="s">
@@ -9950,7 +9952,7 @@
       <c r="L137" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="M137" s="110"/>
+      <c r="M137" s="106"/>
       <c r="N137" s="32" t="s">
         <v>18</v>
       </c>
@@ -9972,7 +9974,7 @@
       <c r="X137" s="12"/>
       <c r="Y137" s="33"/>
       <c r="Z137" s="90"/>
-      <c r="AA137" s="93"/>
+      <c r="AA137" s="248"/>
     </row>
     <row r="138" spans="1:27" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A138" s="58" t="s">
@@ -10005,7 +10007,7 @@
       <c r="L138" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="M138" s="110"/>
+      <c r="M138" s="106"/>
       <c r="N138" s="32" t="s">
         <v>18</v>
       </c>
@@ -10027,7 +10029,7 @@
       <c r="X138" s="12"/>
       <c r="Y138" s="33"/>
       <c r="Z138" s="90"/>
-      <c r="AA138" s="93"/>
+      <c r="AA138" s="248"/>
     </row>
     <row r="139" spans="1:27" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A139" s="58" t="s">
@@ -10060,7 +10062,7 @@
       <c r="L139" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="M139" s="110"/>
+      <c r="M139" s="106"/>
       <c r="N139" s="32" t="s">
         <v>18</v>
       </c>
@@ -10082,7 +10084,7 @@
       <c r="X139" s="12"/>
       <c r="Y139" s="33"/>
       <c r="Z139" s="90"/>
-      <c r="AA139" s="93"/>
+      <c r="AA139" s="248"/>
     </row>
     <row r="140" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A140" s="59" t="s">
@@ -10094,10 +10096,10 @@
       <c r="C140" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D140" s="212" t="s">
+      <c r="D140" s="215" t="s">
         <v>187</v>
       </c>
-      <c r="E140" s="213"/>
+      <c r="E140" s="216"/>
       <c r="F140" s="76" t="s">
         <v>242</v>
       </c>
@@ -10117,7 +10119,7 @@
       <c r="L140" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="M140" s="110"/>
+      <c r="M140" s="106"/>
       <c r="N140" s="32" t="s">
         <v>18</v>
       </c>
@@ -10139,7 +10141,7 @@
       <c r="X140" s="12"/>
       <c r="Y140" s="33"/>
       <c r="Z140" s="90"/>
-      <c r="AA140" s="93"/>
+      <c r="AA140" s="248"/>
     </row>
     <row r="141" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A141" s="60" t="s">
@@ -10178,7 +10180,7 @@
       <c r="L141" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="M141" s="109"/>
+      <c r="M141" s="105"/>
       <c r="N141" s="28"/>
       <c r="O141" s="5" t="s">
         <v>18</v>
@@ -10197,8 +10199,8 @@
       <c r="W141" s="5"/>
       <c r="X141" s="5"/>
       <c r="Y141" s="29"/>
-      <c r="Z141" s="151"/>
-      <c r="AA141" s="96"/>
+      <c r="Z141" s="146"/>
+      <c r="AA141" s="247"/>
     </row>
     <row r="142" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A142" s="60" t="s">
@@ -10237,7 +10239,7 @@
       <c r="L142" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="M142" s="109"/>
+      <c r="M142" s="105"/>
       <c r="N142" s="28"/>
       <c r="O142" s="5" t="s">
         <v>18</v>
@@ -10256,8 +10258,8 @@
       <c r="W142" s="5"/>
       <c r="X142" s="5"/>
       <c r="Y142" s="29"/>
-      <c r="Z142" s="151"/>
-      <c r="AA142" s="96"/>
+      <c r="Z142" s="146"/>
+      <c r="AA142" s="247"/>
     </row>
     <row r="143" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A143" s="60" t="s">
@@ -10294,7 +10296,7 @@
       <c r="L143" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="M143" s="109"/>
+      <c r="M143" s="105"/>
       <c r="N143" s="28"/>
       <c r="O143" s="5" t="s">
         <v>18</v>
@@ -10317,8 +10319,8 @@
       <c r="W143" s="5"/>
       <c r="X143" s="5"/>
       <c r="Y143" s="29"/>
-      <c r="Z143" s="151"/>
-      <c r="AA143" s="96"/>
+      <c r="Z143" s="146"/>
+      <c r="AA143" s="247"/>
     </row>
     <row r="144" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A144" s="60" t="s">
@@ -10355,7 +10357,7 @@
       <c r="L144" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="M144" s="109"/>
+      <c r="M144" s="105"/>
       <c r="N144" s="28"/>
       <c r="O144" s="5" t="s">
         <v>18</v>
@@ -10378,8 +10380,8 @@
       <c r="W144" s="5"/>
       <c r="X144" s="5"/>
       <c r="Y144" s="29"/>
-      <c r="Z144" s="151"/>
-      <c r="AA144" s="96"/>
+      <c r="Z144" s="146"/>
+      <c r="AA144" s="247"/>
     </row>
     <row r="145" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A145" s="59" t="s">
@@ -10391,10 +10393,10 @@
       <c r="C145" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="D145" s="212" t="s">
+      <c r="D145" s="215" t="s">
         <v>187</v>
       </c>
-      <c r="E145" s="213"/>
+      <c r="E145" s="216"/>
       <c r="F145" s="76" t="s">
         <v>242</v>
       </c>
@@ -10414,7 +10416,7 @@
       <c r="L145" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="M145" s="110" t="s">
+      <c r="M145" s="106" t="s">
         <v>255</v>
       </c>
       <c r="N145" s="32"/>
@@ -10430,7 +10432,7 @@
       <c r="X145" s="12"/>
       <c r="Y145" s="33"/>
       <c r="Z145" s="90"/>
-      <c r="AA145" s="93"/>
+      <c r="AA145" s="248"/>
     </row>
     <row r="146" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A146" s="61" t="s">
@@ -10442,10 +10444,10 @@
       <c r="C146" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="D146" s="222" t="s">
+      <c r="D146" s="178" t="s">
         <v>193</v>
       </c>
-      <c r="E146" s="223"/>
+      <c r="E146" s="179"/>
       <c r="F146" s="77" t="s">
         <v>242</v>
       </c>
@@ -10480,8 +10482,8 @@
       <c r="W146" s="9"/>
       <c r="X146" s="9"/>
       <c r="Y146" s="27"/>
-      <c r="Z146" s="150"/>
-      <c r="AA146" s="95"/>
+      <c r="Z146" s="145"/>
+      <c r="AA146" s="246"/>
     </row>
     <row r="147" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A147" s="61" t="s">
@@ -10493,10 +10495,10 @@
       <c r="C147" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="D147" s="222" t="s">
+      <c r="D147" s="178" t="s">
         <v>193</v>
       </c>
-      <c r="E147" s="223"/>
+      <c r="E147" s="179"/>
       <c r="F147" s="77" t="s">
         <v>242</v>
       </c>
@@ -10531,8 +10533,8 @@
       <c r="W147" s="9"/>
       <c r="X147" s="9"/>
       <c r="Y147" s="27"/>
-      <c r="Z147" s="150"/>
-      <c r="AA147" s="95"/>
+      <c r="Z147" s="145"/>
+      <c r="AA147" s="246"/>
     </row>
     <row r="148" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A148" s="61" t="s">
@@ -10544,10 +10546,10 @@
       <c r="C148" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="D148" s="222" t="s">
+      <c r="D148" s="178" t="s">
         <v>193</v>
       </c>
-      <c r="E148" s="223"/>
+      <c r="E148" s="179"/>
       <c r="F148" s="77" t="s">
         <v>242</v>
       </c>
@@ -10582,8 +10584,8 @@
       <c r="W148" s="9"/>
       <c r="X148" s="9"/>
       <c r="Y148" s="27"/>
-      <c r="Z148" s="150"/>
-      <c r="AA148" s="95"/>
+      <c r="Z148" s="145"/>
+      <c r="AA148" s="246"/>
     </row>
     <row r="149" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A149" s="61" t="s">
@@ -10595,10 +10597,10 @@
       <c r="C149" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="D149" s="222" t="s">
+      <c r="D149" s="178" t="s">
         <v>193</v>
       </c>
-      <c r="E149" s="223"/>
+      <c r="E149" s="179"/>
       <c r="F149" s="77" t="s">
         <v>242</v>
       </c>
@@ -10633,8 +10635,8 @@
       <c r="W149" s="9"/>
       <c r="X149" s="9"/>
       <c r="Y149" s="27"/>
-      <c r="Z149" s="150"/>
-      <c r="AA149" s="95"/>
+      <c r="Z149" s="145"/>
+      <c r="AA149" s="246"/>
     </row>
     <row r="150" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A150" s="60" t="s">
@@ -10646,10 +10648,10 @@
       <c r="C150" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D150" s="214" t="s">
+      <c r="D150" s="180" t="s">
         <v>193</v>
       </c>
-      <c r="E150" s="215"/>
+      <c r="E150" s="181"/>
       <c r="F150" s="78" t="s">
         <v>242</v>
       </c>
@@ -10669,7 +10671,7 @@
       <c r="L150" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="M150" s="109"/>
+      <c r="M150" s="105"/>
       <c r="N150" s="28"/>
       <c r="O150" s="5" t="s">
         <v>18</v>
@@ -10692,21 +10694,21 @@
       <c r="W150" s="5"/>
       <c r="X150" s="5"/>
       <c r="Y150" s="29"/>
-      <c r="Z150" s="151"/>
-      <c r="AA150" s="96"/>
+      <c r="Z150" s="146"/>
+      <c r="AA150" s="247"/>
     </row>
     <row r="151" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="230" t="s">
+      <c r="A151" s="182" t="s">
         <v>201</v>
       </c>
-      <c r="B151" s="224" t="s">
+      <c r="B151" s="184" t="s">
         <v>54</v>
       </c>
-      <c r="C151" s="226" t="s">
+      <c r="C151" s="188" t="s">
         <v>200</v>
       </c>
-      <c r="D151" s="226"/>
-      <c r="E151" s="227"/>
+      <c r="D151" s="188"/>
+      <c r="E151" s="191"/>
       <c r="F151" s="77" t="s">
         <v>242</v>
       </c>
@@ -10741,16 +10743,16 @@
       <c r="W151" s="9"/>
       <c r="X151" s="9"/>
       <c r="Y151" s="40"/>
-      <c r="Z151" s="150"/>
-      <c r="AA151" s="95"/>
+      <c r="Z151" s="145"/>
+      <c r="AA151" s="246"/>
     </row>
     <row r="152" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="231"/>
-      <c r="B152" s="225"/>
-      <c r="C152" s="228"/>
-      <c r="D152" s="228"/>
-      <c r="E152" s="229"/>
-      <c r="F152" s="102" t="s">
+      <c r="A152" s="183"/>
+      <c r="B152" s="185"/>
+      <c r="C152" s="190"/>
+      <c r="D152" s="190"/>
+      <c r="E152" s="193"/>
+      <c r="F152" s="98" t="s">
         <v>243</v>
       </c>
       <c r="G152" s="26"/>
@@ -10759,7 +10761,7 @@
       <c r="J152" s="21"/>
       <c r="K152" s="21"/>
       <c r="L152" s="9"/>
-      <c r="M152" s="108"/>
+      <c r="M152" s="104"/>
       <c r="N152" s="26"/>
       <c r="O152" s="9"/>
       <c r="P152" s="9"/>
@@ -10772,21 +10774,21 @@
       <c r="W152" s="9"/>
       <c r="X152" s="9"/>
       <c r="Y152" s="40"/>
-      <c r="Z152" s="150"/>
-      <c r="AA152" s="95"/>
+      <c r="Z152" s="145"/>
+      <c r="AA152" s="246"/>
     </row>
     <row r="153" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="230" t="s">
+      <c r="A153" s="182" t="s">
         <v>202</v>
       </c>
-      <c r="B153" s="224" t="s">
+      <c r="B153" s="184" t="s">
         <v>50</v>
       </c>
-      <c r="C153" s="226" t="s">
+      <c r="C153" s="188" t="s">
         <v>200</v>
       </c>
-      <c r="D153" s="226"/>
-      <c r="E153" s="227"/>
+      <c r="D153" s="188"/>
+      <c r="E153" s="191"/>
       <c r="F153" s="77" t="s">
         <v>242</v>
       </c>
@@ -10829,16 +10831,16 @@
         <v>70</v>
       </c>
       <c r="Y153" s="27"/>
-      <c r="Z153" s="150"/>
-      <c r="AA153" s="95"/>
+      <c r="Z153" s="145"/>
+      <c r="AA153" s="246"/>
     </row>
     <row r="154" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="231"/>
-      <c r="B154" s="225"/>
-      <c r="C154" s="228"/>
-      <c r="D154" s="228"/>
-      <c r="E154" s="229"/>
-      <c r="F154" s="134" t="s">
+      <c r="A154" s="183"/>
+      <c r="B154" s="185"/>
+      <c r="C154" s="190"/>
+      <c r="D154" s="190"/>
+      <c r="E154" s="193"/>
+      <c r="F154" s="129" t="s">
         <v>243</v>
       </c>
       <c r="G154" s="26"/>
@@ -10860,8 +10862,8 @@
       <c r="W154" s="9"/>
       <c r="X154" s="9"/>
       <c r="Y154" s="27"/>
-      <c r="Z154" s="150"/>
-      <c r="AA154" s="95"/>
+      <c r="Z154" s="145"/>
+      <c r="AA154" s="246"/>
     </row>
     <row r="155" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A155" s="60" t="s">
@@ -10873,10 +10875,10 @@
       <c r="C155" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D155" s="214" t="s">
+      <c r="D155" s="180" t="s">
         <v>193</v>
       </c>
-      <c r="E155" s="215"/>
+      <c r="E155" s="181"/>
       <c r="F155" s="78" t="s">
         <v>242</v>
       </c>
@@ -10898,7 +10900,7 @@
       <c r="L155" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="M155" s="109"/>
+      <c r="M155" s="105"/>
       <c r="N155" s="28"/>
       <c r="O155" s="5" t="s">
         <v>18</v>
@@ -10917,8 +10919,8 @@
       <c r="W155" s="5"/>
       <c r="X155" s="5"/>
       <c r="Y155" s="29"/>
-      <c r="Z155" s="151"/>
-      <c r="AA155" s="96"/>
+      <c r="Z155" s="146"/>
+      <c r="AA155" s="247"/>
     </row>
     <row r="156" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A156" s="60" t="s">
@@ -10930,10 +10932,10 @@
       <c r="C156" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D156" s="214" t="s">
+      <c r="D156" s="180" t="s">
         <v>193</v>
       </c>
-      <c r="E156" s="215"/>
+      <c r="E156" s="181"/>
       <c r="F156" s="78" t="s">
         <v>242</v>
       </c>
@@ -10955,7 +10957,7 @@
       <c r="L156" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="M156" s="109"/>
+      <c r="M156" s="105"/>
       <c r="N156" s="28"/>
       <c r="O156" s="5" t="s">
         <v>18</v>
@@ -10974,8 +10976,8 @@
       <c r="W156" s="5"/>
       <c r="X156" s="5"/>
       <c r="Y156" s="29"/>
-      <c r="Z156" s="151"/>
-      <c r="AA156" s="96"/>
+      <c r="Z156" s="146"/>
+      <c r="AA156" s="247"/>
     </row>
     <row r="157" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A157" s="60" t="s">
@@ -10987,10 +10989,10 @@
       <c r="C157" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D157" s="214" t="s">
+      <c r="D157" s="180" t="s">
         <v>193</v>
       </c>
-      <c r="E157" s="215"/>
+      <c r="E157" s="181"/>
       <c r="F157" s="78" t="s">
         <v>242</v>
       </c>
@@ -11012,7 +11014,7 @@
       <c r="L157" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="M157" s="109"/>
+      <c r="M157" s="105"/>
       <c r="N157" s="28"/>
       <c r="O157" s="5" t="s">
         <v>18</v>
@@ -11031,58 +11033,58 @@
       <c r="W157" s="5"/>
       <c r="X157" s="5"/>
       <c r="Y157" s="29"/>
-      <c r="Z157" s="151"/>
-      <c r="AA157" s="96"/>
+      <c r="Z157" s="146"/>
+      <c r="AA157" s="247"/>
     </row>
     <row r="158" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A158" s="230" t="s">
+      <c r="A158" s="182" t="s">
         <v>207</v>
       </c>
-      <c r="B158" s="224" t="s">
+      <c r="B158" s="184" t="s">
         <v>58</v>
       </c>
-      <c r="C158" s="226" t="s">
+      <c r="C158" s="188" t="s">
         <v>25</v>
       </c>
-      <c r="D158" s="226" t="s">
+      <c r="D158" s="188" t="s">
         <v>187</v>
       </c>
-      <c r="E158" s="227"/>
-      <c r="F158" s="102" t="s">
-        <v>242</v>
-      </c>
-      <c r="G158" s="128"/>
+      <c r="E158" s="191"/>
+      <c r="F158" s="98" t="s">
+        <v>242</v>
+      </c>
+      <c r="G158" s="123"/>
       <c r="H158" s="9"/>
       <c r="I158" s="9"/>
       <c r="J158" s="9"/>
       <c r="K158" s="9"/>
       <c r="L158" s="9"/>
-      <c r="M158" s="132"/>
-      <c r="N158" s="128"/>
-      <c r="O158" s="129"/>
+      <c r="M158" s="127"/>
+      <c r="N158" s="123"/>
+      <c r="O158" s="124"/>
       <c r="P158" s="9"/>
-      <c r="Q158" s="137"/>
+      <c r="Q158" s="132"/>
       <c r="R158" s="27"/>
-      <c r="S158" s="128"/>
-      <c r="T158" s="129"/>
-      <c r="U158" s="129"/>
-      <c r="V158" s="129"/>
-      <c r="W158" s="129"/>
-      <c r="X158" s="129"/>
-      <c r="Y158" s="130"/>
-      <c r="Z158" s="133"/>
-      <c r="AA158" s="127"/>
+      <c r="S158" s="123"/>
+      <c r="T158" s="124"/>
+      <c r="U158" s="124"/>
+      <c r="V158" s="124"/>
+      <c r="W158" s="124"/>
+      <c r="X158" s="124"/>
+      <c r="Y158" s="125"/>
+      <c r="Z158" s="128"/>
+      <c r="AA158" s="251"/>
     </row>
     <row r="159" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A159" s="252"/>
-      <c r="B159" s="253"/>
-      <c r="C159" s="254"/>
-      <c r="D159" s="254"/>
-      <c r="E159" s="255"/>
-      <c r="F159" s="102" t="s">
+      <c r="A159" s="186"/>
+      <c r="B159" s="187"/>
+      <c r="C159" s="189"/>
+      <c r="D159" s="189"/>
+      <c r="E159" s="192"/>
+      <c r="F159" s="98" t="s">
         <v>243</v>
       </c>
-      <c r="G159" s="128" t="s">
+      <c r="G159" s="123" t="s">
         <v>250</v>
       </c>
       <c r="H159" s="9" t="s">
@@ -11100,46 +11102,46 @@
       <c r="L159" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="M159" s="132"/>
-      <c r="N159" s="128" t="s">
-        <v>18</v>
-      </c>
-      <c r="O159" s="129" t="s">
+      <c r="M159" s="127"/>
+      <c r="N159" s="123" t="s">
+        <v>18</v>
+      </c>
+      <c r="O159" s="124" t="s">
         <v>18</v>
       </c>
       <c r="P159" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="Q159" s="137"/>
+      <c r="Q159" s="132"/>
       <c r="R159" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="S159" s="128" t="s">
+      <c r="S159" s="123" t="s">
         <v>38</v>
       </c>
-      <c r="T159" s="129"/>
-      <c r="U159" s="129" t="s">
+      <c r="T159" s="124"/>
+      <c r="U159" s="124" t="s">
         <v>250</v>
       </c>
-      <c r="V159" s="129" t="s">
+      <c r="V159" s="124" t="s">
         <v>70</v>
       </c>
-      <c r="W159" s="129"/>
-      <c r="X159" s="129"/>
-      <c r="Y159" s="130"/>
-      <c r="Z159" s="133"/>
-      <c r="AA159" s="127"/>
+      <c r="W159" s="124"/>
+      <c r="X159" s="124"/>
+      <c r="Y159" s="125"/>
+      <c r="Z159" s="128"/>
+      <c r="AA159" s="251"/>
     </row>
     <row r="160" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A160" s="252"/>
-      <c r="B160" s="253"/>
-      <c r="C160" s="254"/>
-      <c r="D160" s="254"/>
-      <c r="E160" s="255"/>
-      <c r="F160" s="102" t="s">
+      <c r="A160" s="186"/>
+      <c r="B160" s="187"/>
+      <c r="C160" s="189"/>
+      <c r="D160" s="189"/>
+      <c r="E160" s="192"/>
+      <c r="F160" s="98" t="s">
         <v>244</v>
       </c>
-      <c r="G160" s="128" t="s">
+      <c r="G160" s="123" t="s">
         <v>250</v>
       </c>
       <c r="H160" s="9" t="s">
@@ -11157,50 +11159,50 @@
       <c r="L160" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="M160" s="137"/>
-      <c r="N160" s="128" t="s">
-        <v>18</v>
-      </c>
-      <c r="O160" s="129" t="s">
+      <c r="M160" s="132"/>
+      <c r="N160" s="123" t="s">
+        <v>18</v>
+      </c>
+      <c r="O160" s="124" t="s">
         <v>18</v>
       </c>
       <c r="P160" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="Q160" s="137"/>
+      <c r="Q160" s="132"/>
       <c r="R160" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="S160" s="128" t="s">
+      <c r="S160" s="123" t="s">
         <v>38</v>
       </c>
-      <c r="T160" s="129"/>
-      <c r="U160" s="129" t="s">
+      <c r="T160" s="124"/>
+      <c r="U160" s="124" t="s">
         <v>250</v>
       </c>
-      <c r="V160" s="129" t="s">
+      <c r="V160" s="124" t="s">
         <v>70</v>
       </c>
-      <c r="W160" s="129"/>
-      <c r="X160" s="129"/>
-      <c r="Y160" s="130"/>
-      <c r="Z160" s="133"/>
-      <c r="AA160" s="127"/>
+      <c r="W160" s="124"/>
+      <c r="X160" s="124"/>
+      <c r="Y160" s="125"/>
+      <c r="Z160" s="128"/>
+      <c r="AA160" s="251"/>
     </row>
     <row r="161" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A161" s="252"/>
-      <c r="B161" s="253"/>
-      <c r="C161" s="254"/>
-      <c r="D161" s="254"/>
-      <c r="E161" s="255"/>
-      <c r="F161" s="102" t="s">
+      <c r="A161" s="186"/>
+      <c r="B161" s="187"/>
+      <c r="C161" s="189"/>
+      <c r="D161" s="189"/>
+      <c r="E161" s="192"/>
+      <c r="F161" s="98" t="s">
         <v>245</v>
       </c>
-      <c r="G161" s="128"/>
-      <c r="H161" s="124" t="s">
+      <c r="G161" s="123"/>
+      <c r="H161" s="120" t="s">
         <v>228</v>
       </c>
-      <c r="I161" s="124" t="s">
+      <c r="I161" s="120" t="s">
         <v>73</v>
       </c>
       <c r="J161" s="9" t="s">
@@ -11209,75 +11211,75 @@
       <c r="K161" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="L161" s="129" t="s">
+      <c r="L161" s="124" t="s">
         <v>36</v>
       </c>
-      <c r="M161" s="137"/>
-      <c r="N161" s="133"/>
+      <c r="M161" s="132"/>
+      <c r="N161" s="128"/>
       <c r="O161" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="P161" s="137"/>
+      <c r="P161" s="132"/>
       <c r="Q161" s="9" t="s">
         <v>68</v>
       </c>
       <c r="R161" s="27"/>
-      <c r="S161" s="128"/>
+      <c r="S161" s="123"/>
       <c r="T161" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="U161" s="129"/>
-      <c r="V161" s="129"/>
-      <c r="W161" s="129"/>
-      <c r="X161" s="129"/>
-      <c r="Y161" s="130"/>
-      <c r="Z161" s="133"/>
-      <c r="AA161" s="127"/>
+      <c r="U161" s="124"/>
+      <c r="V161" s="124"/>
+      <c r="W161" s="124"/>
+      <c r="X161" s="124"/>
+      <c r="Y161" s="125"/>
+      <c r="Z161" s="128"/>
+      <c r="AA161" s="251"/>
     </row>
     <row r="162" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A162" s="252"/>
-      <c r="B162" s="253"/>
-      <c r="C162" s="254"/>
-      <c r="D162" s="254"/>
-      <c r="E162" s="255"/>
-      <c r="F162" s="102" t="s">
+      <c r="A162" s="186"/>
+      <c r="B162" s="187"/>
+      <c r="C162" s="189"/>
+      <c r="D162" s="189"/>
+      <c r="E162" s="192"/>
+      <c r="F162" s="98" t="s">
         <v>254</v>
       </c>
-      <c r="G162" s="128"/>
-      <c r="H162" s="137"/>
-      <c r="I162" s="137"/>
-      <c r="J162" s="137"/>
-      <c r="K162" s="137"/>
+      <c r="G162" s="123"/>
+      <c r="H162" s="132"/>
+      <c r="I162" s="132"/>
+      <c r="J162" s="132"/>
+      <c r="K162" s="132"/>
       <c r="L162" s="9"/>
-      <c r="M162" s="137"/>
-      <c r="N162" s="128"/>
-      <c r="O162" s="129"/>
-      <c r="P162" s="137"/>
-      <c r="Q162" s="137"/>
+      <c r="M162" s="132"/>
+      <c r="N162" s="123"/>
+      <c r="O162" s="124"/>
+      <c r="P162" s="132"/>
+      <c r="Q162" s="132"/>
       <c r="R162" s="27"/>
-      <c r="S162" s="128"/>
-      <c r="T162" s="129"/>
-      <c r="U162" s="129"/>
-      <c r="V162" s="129"/>
-      <c r="W162" s="129"/>
-      <c r="X162" s="129"/>
-      <c r="Y162" s="130"/>
-      <c r="Z162" s="133"/>
-      <c r="AA162" s="127"/>
+      <c r="S162" s="123"/>
+      <c r="T162" s="124"/>
+      <c r="U162" s="124"/>
+      <c r="V162" s="124"/>
+      <c r="W162" s="124"/>
+      <c r="X162" s="124"/>
+      <c r="Y162" s="125"/>
+      <c r="Z162" s="128"/>
+      <c r="AA162" s="251"/>
     </row>
     <row r="163" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A163" s="252"/>
-      <c r="B163" s="253"/>
-      <c r="C163" s="254"/>
-      <c r="D163" s="254"/>
-      <c r="E163" s="255"/>
-      <c r="F163" s="102" t="s">
+      <c r="A163" s="186"/>
+      <c r="B163" s="187"/>
+      <c r="C163" s="189"/>
+      <c r="D163" s="189"/>
+      <c r="E163" s="192"/>
+      <c r="F163" s="98" t="s">
         <v>262</v>
       </c>
-      <c r="G163" s="128" t="s">
+      <c r="G163" s="123" t="s">
         <v>69</v>
       </c>
-      <c r="H163" s="137"/>
+      <c r="H163" s="132"/>
       <c r="I163" s="9">
         <v>0</v>
       </c>
@@ -11293,51 +11295,51 @@
       <c r="M163" s="27" t="s">
         <v>251</v>
       </c>
-      <c r="N163" s="128"/>
-      <c r="O163" s="129"/>
-      <c r="P163" s="137"/>
-      <c r="Q163" s="137"/>
+      <c r="N163" s="123"/>
+      <c r="O163" s="124"/>
+      <c r="P163" s="132"/>
+      <c r="Q163" s="132"/>
       <c r="R163" s="27"/>
-      <c r="S163" s="128"/>
-      <c r="T163" s="129"/>
-      <c r="U163" s="129"/>
-      <c r="V163" s="129"/>
-      <c r="W163" s="129"/>
-      <c r="X163" s="129"/>
-      <c r="Y163" s="130"/>
-      <c r="Z163" s="133"/>
-      <c r="AA163" s="127"/>
+      <c r="S163" s="123"/>
+      <c r="T163" s="124"/>
+      <c r="U163" s="124"/>
+      <c r="V163" s="124"/>
+      <c r="W163" s="124"/>
+      <c r="X163" s="124"/>
+      <c r="Y163" s="125"/>
+      <c r="Z163" s="128"/>
+      <c r="AA163" s="251"/>
     </row>
     <row r="164" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A164" s="231"/>
-      <c r="B164" s="225"/>
-      <c r="C164" s="228"/>
-      <c r="D164" s="228"/>
-      <c r="E164" s="229"/>
-      <c r="F164" s="102" t="s">
+      <c r="A164" s="183"/>
+      <c r="B164" s="185"/>
+      <c r="C164" s="190"/>
+      <c r="D164" s="190"/>
+      <c r="E164" s="193"/>
+      <c r="F164" s="98" t="s">
         <v>263</v>
       </c>
-      <c r="G164" s="128"/>
-      <c r="H164" s="137"/>
-      <c r="I164" s="137"/>
-      <c r="J164" s="137"/>
-      <c r="K164" s="137"/>
+      <c r="G164" s="123"/>
+      <c r="H164" s="132"/>
+      <c r="I164" s="132"/>
+      <c r="J164" s="132"/>
+      <c r="K164" s="132"/>
       <c r="L164" s="9"/>
-      <c r="M164" s="137"/>
-      <c r="N164" s="128"/>
-      <c r="O164" s="129"/>
-      <c r="P164" s="137"/>
-      <c r="Q164" s="137"/>
+      <c r="M164" s="132"/>
+      <c r="N164" s="123"/>
+      <c r="O164" s="124"/>
+      <c r="P164" s="132"/>
+      <c r="Q164" s="132"/>
       <c r="R164" s="27"/>
-      <c r="S164" s="128"/>
-      <c r="T164" s="129"/>
-      <c r="U164" s="129"/>
-      <c r="V164" s="129"/>
-      <c r="W164" s="129"/>
-      <c r="X164" s="129"/>
-      <c r="Y164" s="130"/>
-      <c r="Z164" s="133"/>
-      <c r="AA164" s="127"/>
+      <c r="S164" s="123"/>
+      <c r="T164" s="124"/>
+      <c r="U164" s="124"/>
+      <c r="V164" s="124"/>
+      <c r="W164" s="124"/>
+      <c r="X164" s="124"/>
+      <c r="Y164" s="125"/>
+      <c r="Z164" s="128"/>
+      <c r="AA164" s="251"/>
     </row>
     <row r="165" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A165" s="60" t="s">
@@ -11349,10 +11351,10 @@
       <c r="C165" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D165" s="214" t="s">
+      <c r="D165" s="180" t="s">
         <v>193</v>
       </c>
-      <c r="E165" s="215"/>
+      <c r="E165" s="181"/>
       <c r="F165" s="78" t="s">
         <v>242</v>
       </c>
@@ -11372,7 +11374,7 @@
       <c r="L165" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="M165" s="109"/>
+      <c r="M165" s="105"/>
       <c r="N165" s="28"/>
       <c r="O165" s="5" t="s">
         <v>18</v>
@@ -11395,8 +11397,8 @@
       <c r="W165" s="5"/>
       <c r="X165" s="5"/>
       <c r="Y165" s="29"/>
-      <c r="Z165" s="151"/>
-      <c r="AA165" s="96"/>
+      <c r="Z165" s="146"/>
+      <c r="AA165" s="247"/>
     </row>
     <row r="166" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A166" s="60" t="s">
@@ -11408,10 +11410,10 @@
       <c r="C166" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D166" s="214" t="s">
+      <c r="D166" s="180" t="s">
         <v>193</v>
       </c>
-      <c r="E166" s="215"/>
+      <c r="E166" s="181"/>
       <c r="F166" s="78" t="s">
         <v>242</v>
       </c>
@@ -11431,7 +11433,7 @@
       <c r="L166" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="M166" s="109"/>
+      <c r="M166" s="105"/>
       <c r="N166" s="28"/>
       <c r="O166" s="5" t="s">
         <v>18</v>
@@ -11454,8 +11456,8 @@
       <c r="W166" s="5"/>
       <c r="X166" s="5"/>
       <c r="Y166" s="29"/>
-      <c r="Z166" s="151"/>
-      <c r="AA166" s="96"/>
+      <c r="Z166" s="146"/>
+      <c r="AA166" s="247"/>
     </row>
     <row r="167" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A167" s="60" t="s">
@@ -11467,10 +11469,10 @@
       <c r="C167" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D167" s="214" t="s">
+      <c r="D167" s="180" t="s">
         <v>193</v>
       </c>
-      <c r="E167" s="215"/>
+      <c r="E167" s="181"/>
       <c r="F167" s="78" t="s">
         <v>242</v>
       </c>
@@ -11490,7 +11492,7 @@
       <c r="L167" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="M167" s="109"/>
+      <c r="M167" s="105"/>
       <c r="N167" s="28"/>
       <c r="O167" s="5" t="s">
         <v>18</v>
@@ -11513,8 +11515,8 @@
       <c r="W167" s="5"/>
       <c r="X167" s="5"/>
       <c r="Y167" s="29"/>
-      <c r="Z167" s="151"/>
-      <c r="AA167" s="96"/>
+      <c r="Z167" s="146"/>
+      <c r="AA167" s="247"/>
     </row>
     <row r="168" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A168" s="60" t="s">
@@ -11526,10 +11528,10 @@
       <c r="C168" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D168" s="214" t="s">
+      <c r="D168" s="180" t="s">
         <v>193</v>
       </c>
-      <c r="E168" s="215"/>
+      <c r="E168" s="181"/>
       <c r="F168" s="78" t="s">
         <v>242</v>
       </c>
@@ -11549,7 +11551,7 @@
       <c r="L168" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="M168" s="109"/>
+      <c r="M168" s="105"/>
       <c r="N168" s="28" t="s">
         <v>18</v>
       </c>
@@ -11570,8 +11572,8 @@
       <c r="W168" s="5"/>
       <c r="X168" s="5"/>
       <c r="Y168" s="29"/>
-      <c r="Z168" s="151"/>
-      <c r="AA168" s="96"/>
+      <c r="Z168" s="146"/>
+      <c r="AA168" s="247"/>
     </row>
     <row r="169" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A169" s="59" t="s">
@@ -11583,10 +11585,10 @@
       <c r="C169" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="D169" s="212" t="s">
+      <c r="D169" s="215" t="s">
         <v>187</v>
       </c>
-      <c r="E169" s="213"/>
+      <c r="E169" s="216"/>
       <c r="F169" s="76" t="s">
         <v>242</v>
       </c>
@@ -11606,7 +11608,7 @@
       <c r="L169" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="M169" s="110" t="s">
+      <c r="M169" s="106" t="s">
         <v>255</v>
       </c>
       <c r="N169" s="32"/>
@@ -11622,7 +11624,7 @@
       <c r="X169" s="12"/>
       <c r="Y169" s="33"/>
       <c r="Z169" s="90"/>
-      <c r="AA169" s="93"/>
+      <c r="AA169" s="248"/>
     </row>
     <row r="170" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A170" s="59" t="s">
@@ -11634,10 +11636,10 @@
       <c r="C170" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="D170" s="212" t="s">
+      <c r="D170" s="215" t="s">
         <v>187</v>
       </c>
-      <c r="E170" s="213"/>
+      <c r="E170" s="216"/>
       <c r="F170" s="76" t="s">
         <v>242</v>
       </c>
@@ -11657,7 +11659,7 @@
       <c r="L170" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="M170" s="110"/>
+      <c r="M170" s="106"/>
       <c r="N170" s="32" t="s">
         <v>18</v>
       </c>
@@ -11679,7 +11681,7 @@
       <c r="X170" s="12"/>
       <c r="Y170" s="33"/>
       <c r="Z170" s="90"/>
-      <c r="AA170" s="93"/>
+      <c r="AA170" s="248"/>
     </row>
     <row r="171" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A171" s="59" t="s">
@@ -11691,10 +11693,10 @@
       <c r="C171" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="D171" s="212" t="s">
+      <c r="D171" s="215" t="s">
         <v>187</v>
       </c>
-      <c r="E171" s="213"/>
+      <c r="E171" s="216"/>
       <c r="F171" s="76" t="s">
         <v>242</v>
       </c>
@@ -11714,7 +11716,7 @@
       <c r="L171" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="M171" s="110"/>
+      <c r="M171" s="106"/>
       <c r="N171" s="32" t="s">
         <v>18</v>
       </c>
@@ -11736,7 +11738,7 @@
       <c r="X171" s="12"/>
       <c r="Y171" s="33"/>
       <c r="Z171" s="90"/>
-      <c r="AA171" s="93"/>
+      <c r="AA171" s="248"/>
     </row>
     <row r="172" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A172" s="59" t="s">
@@ -11748,10 +11750,10 @@
       <c r="C172" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="D172" s="212" t="s">
+      <c r="D172" s="215" t="s">
         <v>187</v>
       </c>
-      <c r="E172" s="213"/>
+      <c r="E172" s="216"/>
       <c r="F172" s="76" t="s">
         <v>242</v>
       </c>
@@ -11771,7 +11773,7 @@
       <c r="L172" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="M172" s="110"/>
+      <c r="M172" s="106"/>
       <c r="N172" s="32" t="s">
         <v>18</v>
       </c>
@@ -11793,22 +11795,22 @@
       <c r="X172" s="12"/>
       <c r="Y172" s="33"/>
       <c r="Z172" s="90"/>
-      <c r="AA172" s="93"/>
+      <c r="AA172" s="248"/>
     </row>
     <row r="173" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A173" s="179" t="s">
+      <c r="A173" s="172" t="s">
         <v>216</v>
       </c>
-      <c r="B173" s="176" t="s">
+      <c r="B173" s="175" t="s">
         <v>58</v>
       </c>
-      <c r="C173" s="170" t="s">
+      <c r="C173" s="194" t="s">
         <v>58</v>
       </c>
-      <c r="D173" s="170" t="s">
+      <c r="D173" s="194" t="s">
         <v>187</v>
       </c>
-      <c r="E173" s="173"/>
+      <c r="E173" s="196"/>
       <c r="F173" s="76" t="s">
         <v>242</v>
       </c>
@@ -11828,7 +11830,7 @@
       <c r="L173" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="M173" s="110"/>
+      <c r="M173" s="106"/>
       <c r="N173" s="12" t="s">
         <v>18</v>
       </c>
@@ -11852,14 +11854,14 @@
       <c r="X173" s="12"/>
       <c r="Y173" s="33"/>
       <c r="Z173" s="90"/>
-      <c r="AA173" s="93"/>
+      <c r="AA173" s="248"/>
     </row>
     <row r="174" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A174" s="180"/>
-      <c r="B174" s="177"/>
-      <c r="C174" s="171"/>
-      <c r="D174" s="171"/>
-      <c r="E174" s="174"/>
+      <c r="A174" s="173"/>
+      <c r="B174" s="176"/>
+      <c r="C174" s="204"/>
+      <c r="D174" s="204"/>
+      <c r="E174" s="205"/>
       <c r="F174" s="76" t="s">
         <v>243</v>
       </c>
@@ -11875,7 +11877,7 @@
       <c r="L174" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="M174" s="110"/>
+      <c r="M174" s="106"/>
       <c r="N174" s="12" t="s">
         <v>18</v>
       </c>
@@ -11891,14 +11893,14 @@
       <c r="X174" s="12"/>
       <c r="Y174" s="33"/>
       <c r="Z174" s="90"/>
-      <c r="AA174" s="93"/>
+      <c r="AA174" s="248"/>
     </row>
     <row r="175" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A175" s="181"/>
-      <c r="B175" s="178"/>
-      <c r="C175" s="172"/>
-      <c r="D175" s="172"/>
-      <c r="E175" s="175"/>
+      <c r="A175" s="174"/>
+      <c r="B175" s="177"/>
+      <c r="C175" s="195"/>
+      <c r="D175" s="195"/>
+      <c r="E175" s="197"/>
       <c r="F175" s="76" t="s">
         <v>244</v>
       </c>
@@ -11920,7 +11922,7 @@
       <c r="L175" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="M175" s="110" t="s">
+      <c r="M175" s="106" t="s">
         <v>255</v>
       </c>
       <c r="N175" s="32"/>
@@ -11938,22 +11940,22 @@
       <c r="X175" s="12"/>
       <c r="Y175" s="33"/>
       <c r="Z175" s="90"/>
-      <c r="AA175" s="93"/>
+      <c r="AA175" s="248"/>
     </row>
     <row r="176" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A176" s="179" t="s">
+      <c r="A176" s="172" t="s">
         <v>217</v>
       </c>
-      <c r="B176" s="176" t="s">
+      <c r="B176" s="175" t="s">
         <v>58</v>
       </c>
-      <c r="C176" s="170" t="s">
+      <c r="C176" s="194" t="s">
         <v>59</v>
       </c>
-      <c r="D176" s="170" t="s">
+      <c r="D176" s="194" t="s">
         <v>187</v>
       </c>
-      <c r="E176" s="173"/>
+      <c r="E176" s="196"/>
       <c r="F176" s="76" t="s">
         <v>242</v>
       </c>
@@ -11973,7 +11975,7 @@
       <c r="L176" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="M176" s="110"/>
+      <c r="M176" s="106"/>
       <c r="N176" s="12" t="s">
         <v>18</v>
       </c>
@@ -11997,14 +11999,14 @@
       <c r="X176" s="12"/>
       <c r="Y176" s="33"/>
       <c r="Z176" s="90"/>
-      <c r="AA176" s="93"/>
+      <c r="AA176" s="248"/>
     </row>
     <row r="177" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A177" s="180"/>
-      <c r="B177" s="177"/>
-      <c r="C177" s="171"/>
-      <c r="D177" s="171"/>
-      <c r="E177" s="174"/>
+      <c r="A177" s="173"/>
+      <c r="B177" s="176"/>
+      <c r="C177" s="204"/>
+      <c r="D177" s="204"/>
+      <c r="E177" s="205"/>
       <c r="F177" s="76" t="s">
         <v>243</v>
       </c>
@@ -12020,7 +12022,7 @@
       <c r="L177" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="M177" s="110"/>
+      <c r="M177" s="106"/>
       <c r="N177" s="12" t="s">
         <v>18</v>
       </c>
@@ -12036,14 +12038,14 @@
       <c r="X177" s="12"/>
       <c r="Y177" s="33"/>
       <c r="Z177" s="90"/>
-      <c r="AA177" s="93"/>
+      <c r="AA177" s="248"/>
     </row>
     <row r="178" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A178" s="181"/>
-      <c r="B178" s="178"/>
-      <c r="C178" s="172"/>
-      <c r="D178" s="172"/>
-      <c r="E178" s="175"/>
+      <c r="A178" s="174"/>
+      <c r="B178" s="177"/>
+      <c r="C178" s="195"/>
+      <c r="D178" s="195"/>
+      <c r="E178" s="197"/>
       <c r="F178" s="76" t="s">
         <v>244</v>
       </c>
@@ -12065,7 +12067,7 @@
       <c r="L178" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="M178" s="110"/>
+      <c r="M178" s="106"/>
       <c r="N178" s="32"/>
       <c r="O178" s="12" t="s">
         <v>14</v>
@@ -12085,22 +12087,22 @@
       <c r="X178" s="12"/>
       <c r="Y178" s="33"/>
       <c r="Z178" s="90"/>
-      <c r="AA178" s="93"/>
+      <c r="AA178" s="248"/>
     </row>
     <row r="179" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A179" s="179" t="s">
+      <c r="A179" s="172" t="s">
         <v>218</v>
       </c>
-      <c r="B179" s="176" t="s">
+      <c r="B179" s="175" t="s">
         <v>58</v>
       </c>
-      <c r="C179" s="170" t="s">
+      <c r="C179" s="194" t="s">
         <v>60</v>
       </c>
-      <c r="D179" s="170" t="s">
+      <c r="D179" s="194" t="s">
         <v>187</v>
       </c>
-      <c r="E179" s="173"/>
+      <c r="E179" s="196"/>
       <c r="F179" s="76" t="s">
         <v>242</v>
       </c>
@@ -12120,7 +12122,7 @@
       <c r="L179" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="M179" s="110"/>
+      <c r="M179" s="106"/>
       <c r="N179" s="12" t="s">
         <v>18</v>
       </c>
@@ -12144,14 +12146,14 @@
       <c r="X179" s="12"/>
       <c r="Y179" s="33"/>
       <c r="Z179" s="90"/>
-      <c r="AA179" s="93"/>
+      <c r="AA179" s="248"/>
     </row>
     <row r="180" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A180" s="180"/>
-      <c r="B180" s="177"/>
-      <c r="C180" s="171"/>
-      <c r="D180" s="171"/>
-      <c r="E180" s="174"/>
+      <c r="A180" s="173"/>
+      <c r="B180" s="176"/>
+      <c r="C180" s="204"/>
+      <c r="D180" s="204"/>
+      <c r="E180" s="205"/>
       <c r="F180" s="76" t="s">
         <v>243</v>
       </c>
@@ -12167,7 +12169,7 @@
       <c r="L180" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="M180" s="110"/>
+      <c r="M180" s="106"/>
       <c r="N180" s="12" t="s">
         <v>18</v>
       </c>
@@ -12183,14 +12185,14 @@
       <c r="X180" s="12"/>
       <c r="Y180" s="33"/>
       <c r="Z180" s="90"/>
-      <c r="AA180" s="93"/>
+      <c r="AA180" s="248"/>
     </row>
     <row r="181" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A181" s="181"/>
-      <c r="B181" s="178"/>
-      <c r="C181" s="172"/>
-      <c r="D181" s="172"/>
-      <c r="E181" s="175"/>
+      <c r="A181" s="174"/>
+      <c r="B181" s="177"/>
+      <c r="C181" s="195"/>
+      <c r="D181" s="195"/>
+      <c r="E181" s="197"/>
       <c r="F181" s="76" t="s">
         <v>244</v>
       </c>
@@ -12212,7 +12214,7 @@
       <c r="L181" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="M181" s="110"/>
+      <c r="M181" s="106"/>
       <c r="N181" s="32"/>
       <c r="O181" s="12" t="s">
         <v>14</v>
@@ -12232,22 +12234,22 @@
       <c r="X181" s="12"/>
       <c r="Y181" s="33"/>
       <c r="Z181" s="90"/>
-      <c r="AA181" s="93"/>
+      <c r="AA181" s="248"/>
     </row>
     <row r="182" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A182" s="179" t="s">
+      <c r="A182" s="172" t="s">
         <v>219</v>
       </c>
-      <c r="B182" s="176" t="s">
+      <c r="B182" s="175" t="s">
         <v>58</v>
       </c>
-      <c r="C182" s="170" t="s">
+      <c r="C182" s="194" t="s">
         <v>61</v>
       </c>
-      <c r="D182" s="170" t="s">
+      <c r="D182" s="194" t="s">
         <v>187</v>
       </c>
-      <c r="E182" s="173"/>
+      <c r="E182" s="196"/>
       <c r="F182" s="76" t="s">
         <v>242</v>
       </c>
@@ -12267,7 +12269,7 @@
       <c r="L182" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="M182" s="110"/>
+      <c r="M182" s="106"/>
       <c r="N182" s="12" t="s">
         <v>18</v>
       </c>
@@ -12291,14 +12293,14 @@
       <c r="X182" s="12"/>
       <c r="Y182" s="33"/>
       <c r="Z182" s="90"/>
-      <c r="AA182" s="93"/>
+      <c r="AA182" s="248"/>
     </row>
     <row r="183" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A183" s="180"/>
-      <c r="B183" s="177"/>
-      <c r="C183" s="171"/>
-      <c r="D183" s="171"/>
-      <c r="E183" s="174"/>
+      <c r="A183" s="173"/>
+      <c r="B183" s="176"/>
+      <c r="C183" s="204"/>
+      <c r="D183" s="204"/>
+      <c r="E183" s="205"/>
       <c r="F183" s="76" t="s">
         <v>243</v>
       </c>
@@ -12314,7 +12316,7 @@
       <c r="L183" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="M183" s="110"/>
+      <c r="M183" s="106"/>
       <c r="N183" s="12" t="s">
         <v>18</v>
       </c>
@@ -12330,14 +12332,14 @@
       <c r="X183" s="12"/>
       <c r="Y183" s="33"/>
       <c r="Z183" s="90"/>
-      <c r="AA183" s="93"/>
+      <c r="AA183" s="248"/>
     </row>
     <row r="184" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A184" s="181"/>
-      <c r="B184" s="178"/>
-      <c r="C184" s="172"/>
-      <c r="D184" s="172"/>
-      <c r="E184" s="175"/>
+      <c r="A184" s="174"/>
+      <c r="B184" s="177"/>
+      <c r="C184" s="195"/>
+      <c r="D184" s="195"/>
+      <c r="E184" s="197"/>
       <c r="F184" s="76" t="s">
         <v>244</v>
       </c>
@@ -12359,7 +12361,7 @@
       <c r="L184" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="M184" s="110"/>
+      <c r="M184" s="106"/>
       <c r="N184" s="32"/>
       <c r="O184" s="12" t="s">
         <v>14</v>
@@ -12379,7 +12381,7 @@
       <c r="X184" s="12"/>
       <c r="Y184" s="33"/>
       <c r="Z184" s="90"/>
-      <c r="AA184" s="93"/>
+      <c r="AA184" s="248"/>
     </row>
     <row r="185" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A185" s="60" t="s">
@@ -12391,10 +12393,10 @@
       <c r="C185" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D185" s="214" t="s">
+      <c r="D185" s="180" t="s">
         <v>193</v>
       </c>
-      <c r="E185" s="215"/>
+      <c r="E185" s="181"/>
       <c r="F185" s="78" t="s">
         <v>242</v>
       </c>
@@ -12414,7 +12416,7 @@
       <c r="L185" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="M185" s="109"/>
+      <c r="M185" s="105"/>
       <c r="N185" s="28"/>
       <c r="O185" s="5" t="s">
         <v>18</v>
@@ -12435,113 +12437,113 @@
       <c r="W185" s="5"/>
       <c r="X185" s="5"/>
       <c r="Y185" s="29"/>
-      <c r="Z185" s="151"/>
-      <c r="AA185" s="96"/>
+      <c r="Z185" s="146"/>
+      <c r="AA185" s="247"/>
     </row>
     <row r="186" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A186" s="116" t="s">
+      <c r="A186" s="112" t="s">
         <v>221</v>
       </c>
-      <c r="B186" s="117" t="s">
+      <c r="B186" s="113" t="s">
         <v>60</v>
       </c>
       <c r="C186" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D186" s="250" t="s">
+      <c r="D186" s="202" t="s">
         <v>187</v>
       </c>
-      <c r="E186" s="251"/>
+      <c r="E186" s="203"/>
       <c r="F186" s="17" t="s">
         <v>242</v>
       </c>
-      <c r="G186" s="118"/>
-      <c r="H186" s="119"/>
-      <c r="I186" s="119" t="s">
+      <c r="G186" s="114"/>
+      <c r="H186" s="115"/>
+      <c r="I186" s="115" t="s">
         <v>73</v>
       </c>
-      <c r="J186" s="119"/>
-      <c r="K186" s="119" t="s">
+      <c r="J186" s="115"/>
+      <c r="K186" s="115" t="s">
         <v>15</v>
       </c>
-      <c r="L186" s="119" t="s">
+      <c r="L186" s="115" t="s">
         <v>222</v>
       </c>
-      <c r="M186" s="120"/>
-      <c r="N186" s="118" t="s">
-        <v>18</v>
-      </c>
-      <c r="O186" s="119"/>
-      <c r="P186" s="119"/>
-      <c r="Q186" s="121"/>
-      <c r="R186" s="122"/>
-      <c r="S186" s="118" t="s">
+      <c r="M186" s="116"/>
+      <c r="N186" s="114" t="s">
+        <v>18</v>
+      </c>
+      <c r="O186" s="115"/>
+      <c r="P186" s="115"/>
+      <c r="Q186" s="117"/>
+      <c r="R186" s="118"/>
+      <c r="S186" s="114" t="s">
         <v>38</v>
       </c>
-      <c r="T186" s="119"/>
-      <c r="U186" s="119" t="s">
+      <c r="T186" s="115"/>
+      <c r="U186" s="115" t="s">
         <v>35</v>
       </c>
-      <c r="V186" s="119" t="s">
+      <c r="V186" s="115" t="s">
         <v>70</v>
       </c>
-      <c r="W186" s="119"/>
-      <c r="X186" s="119"/>
-      <c r="Y186" s="122"/>
-      <c r="Z186" s="154"/>
-      <c r="AA186" s="96"/>
+      <c r="W186" s="115"/>
+      <c r="X186" s="115"/>
+      <c r="Y186" s="118"/>
+      <c r="Z186" s="149"/>
+      <c r="AA186" s="247"/>
     </row>
     <row r="187" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="247" t="s">
+      <c r="A187" s="198" t="s">
         <v>265</v>
       </c>
-      <c r="B187" s="196" t="s">
+      <c r="B187" s="168" t="s">
         <v>61</v>
       </c>
-      <c r="C187" s="196" t="s">
+      <c r="C187" s="168" t="s">
         <v>5</v>
       </c>
-      <c r="D187" s="196" t="s">
+      <c r="D187" s="168" t="s">
         <v>187</v>
       </c>
-      <c r="E187" s="199"/>
-      <c r="F187" s="136" t="s">
-        <v>242</v>
-      </c>
-      <c r="G187" s="128"/>
+      <c r="E187" s="170"/>
+      <c r="F187" s="131" t="s">
+        <v>242</v>
+      </c>
+      <c r="G187" s="123"/>
       <c r="H187" s="9"/>
       <c r="I187" s="9"/>
       <c r="J187" s="9"/>
       <c r="K187" s="9"/>
       <c r="L187" s="9"/>
-      <c r="M187" s="132" t="s">
+      <c r="M187" s="127" t="s">
         <v>266</v>
       </c>
-      <c r="N187" s="128"/>
-      <c r="O187" s="129"/>
+      <c r="N187" s="123"/>
+      <c r="O187" s="124"/>
       <c r="P187" s="9"/>
-      <c r="Q187" s="137"/>
+      <c r="Q187" s="132"/>
       <c r="R187" s="27"/>
-      <c r="S187" s="128"/>
-      <c r="T187" s="129"/>
-      <c r="U187" s="129"/>
-      <c r="V187" s="129"/>
-      <c r="W187" s="129"/>
-      <c r="X187" s="129"/>
-      <c r="Y187" s="130"/>
-      <c r="Z187" s="133"/>
-      <c r="AA187" s="127"/>
+      <c r="S187" s="123"/>
+      <c r="T187" s="124"/>
+      <c r="U187" s="124"/>
+      <c r="V187" s="124"/>
+      <c r="W187" s="124"/>
+      <c r="X187" s="124"/>
+      <c r="Y187" s="125"/>
+      <c r="Z187" s="128"/>
+      <c r="AA187" s="251"/>
     </row>
     <row r="188" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="248"/>
-      <c r="B188" s="197"/>
-      <c r="C188" s="197"/>
-      <c r="D188" s="197"/>
-      <c r="E188" s="200"/>
-      <c r="F188" s="136" t="s">
+      <c r="A188" s="199"/>
+      <c r="B188" s="201"/>
+      <c r="C188" s="201"/>
+      <c r="D188" s="201"/>
+      <c r="E188" s="206"/>
+      <c r="F188" s="131" t="s">
         <v>243</v>
       </c>
-      <c r="G188" s="128" t="s">
+      <c r="G188" s="123" t="s">
         <v>250</v>
       </c>
       <c r="H188" s="9" t="s">
@@ -12559,46 +12561,46 @@
       <c r="L188" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="M188" s="132"/>
-      <c r="N188" s="128" t="s">
-        <v>18</v>
-      </c>
-      <c r="O188" s="129" t="s">
+      <c r="M188" s="127"/>
+      <c r="N188" s="123" t="s">
+        <v>18</v>
+      </c>
+      <c r="O188" s="124" t="s">
         <v>18</v>
       </c>
       <c r="P188" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="Q188" s="137"/>
+      <c r="Q188" s="132"/>
       <c r="R188" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="S188" s="128" t="s">
+      <c r="S188" s="123" t="s">
         <v>38</v>
       </c>
-      <c r="T188" s="129"/>
-      <c r="U188" s="129" t="s">
+      <c r="T188" s="124"/>
+      <c r="U188" s="124" t="s">
         <v>250</v>
       </c>
-      <c r="V188" s="129" t="s">
+      <c r="V188" s="124" t="s">
         <v>70</v>
       </c>
-      <c r="W188" s="129"/>
-      <c r="X188" s="129"/>
-      <c r="Y188" s="130"/>
-      <c r="Z188" s="133"/>
-      <c r="AA188" s="127"/>
+      <c r="W188" s="124"/>
+      <c r="X188" s="124"/>
+      <c r="Y188" s="125"/>
+      <c r="Z188" s="128"/>
+      <c r="AA188" s="251"/>
     </row>
     <row r="189" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="248"/>
-      <c r="B189" s="197"/>
-      <c r="C189" s="197"/>
-      <c r="D189" s="197"/>
-      <c r="E189" s="200"/>
-      <c r="F189" s="136" t="s">
+      <c r="A189" s="199"/>
+      <c r="B189" s="201"/>
+      <c r="C189" s="201"/>
+      <c r="D189" s="201"/>
+      <c r="E189" s="206"/>
+      <c r="F189" s="131" t="s">
         <v>244</v>
       </c>
-      <c r="G189" s="128" t="s">
+      <c r="G189" s="123" t="s">
         <v>250</v>
       </c>
       <c r="H189" s="9" t="s">
@@ -12616,83 +12618,83 @@
       <c r="L189" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="M189" s="137"/>
-      <c r="N189" s="128" t="s">
-        <v>18</v>
-      </c>
-      <c r="O189" s="129" t="s">
+      <c r="M189" s="132"/>
+      <c r="N189" s="123" t="s">
+        <v>18</v>
+      </c>
+      <c r="O189" s="124" t="s">
         <v>18</v>
       </c>
       <c r="P189" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="Q189" s="137"/>
+      <c r="Q189" s="132"/>
       <c r="R189" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="S189" s="128" t="s">
+      <c r="S189" s="123" t="s">
         <v>38</v>
       </c>
-      <c r="T189" s="129"/>
-      <c r="U189" s="129" t="s">
+      <c r="T189" s="124"/>
+      <c r="U189" s="124" t="s">
         <v>250</v>
       </c>
-      <c r="V189" s="129" t="s">
+      <c r="V189" s="124" t="s">
         <v>70</v>
       </c>
-      <c r="W189" s="129"/>
-      <c r="X189" s="129"/>
-      <c r="Y189" s="130"/>
-      <c r="Z189" s="133"/>
-      <c r="AA189" s="127"/>
+      <c r="W189" s="124"/>
+      <c r="X189" s="124"/>
+      <c r="Y189" s="125"/>
+      <c r="Z189" s="128"/>
+      <c r="AA189" s="251"/>
     </row>
     <row r="190" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="248"/>
-      <c r="B190" s="197"/>
-      <c r="C190" s="197"/>
-      <c r="D190" s="197"/>
-      <c r="E190" s="200"/>
-      <c r="F190" s="136" t="s">
+      <c r="A190" s="199"/>
+      <c r="B190" s="201"/>
+      <c r="C190" s="201"/>
+      <c r="D190" s="201"/>
+      <c r="E190" s="206"/>
+      <c r="F190" s="131" t="s">
         <v>245</v>
       </c>
-      <c r="G190" s="128"/>
-      <c r="H190" s="137"/>
-      <c r="I190" s="137"/>
-      <c r="J190" s="137"/>
-      <c r="K190" s="137"/>
+      <c r="G190" s="123"/>
+      <c r="H190" s="132"/>
+      <c r="I190" s="132"/>
+      <c r="J190" s="132"/>
+      <c r="K190" s="132"/>
       <c r="L190" s="9"/>
       <c r="M190" s="27" t="s">
         <v>267</v>
       </c>
-      <c r="N190" s="128"/>
-      <c r="O190" s="129"/>
-      <c r="P190" s="137"/>
-      <c r="Q190" s="137"/>
+      <c r="N190" s="123"/>
+      <c r="O190" s="124"/>
+      <c r="P190" s="132"/>
+      <c r="Q190" s="132"/>
       <c r="R190" s="27"/>
-      <c r="S190" s="128"/>
-      <c r="T190" s="129"/>
-      <c r="U190" s="129"/>
-      <c r="V190" s="129"/>
-      <c r="W190" s="129"/>
-      <c r="X190" s="129"/>
-      <c r="Y190" s="130"/>
-      <c r="Z190" s="133"/>
-      <c r="AA190" s="127"/>
+      <c r="S190" s="123"/>
+      <c r="T190" s="124"/>
+      <c r="U190" s="124"/>
+      <c r="V190" s="124"/>
+      <c r="W190" s="124"/>
+      <c r="X190" s="124"/>
+      <c r="Y190" s="125"/>
+      <c r="Z190" s="128"/>
+      <c r="AA190" s="251"/>
     </row>
     <row r="191" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="248"/>
-      <c r="B191" s="197"/>
-      <c r="C191" s="197"/>
-      <c r="D191" s="197"/>
-      <c r="E191" s="200"/>
-      <c r="F191" s="136" t="s">
+      <c r="A191" s="199"/>
+      <c r="B191" s="201"/>
+      <c r="C191" s="201"/>
+      <c r="D191" s="201"/>
+      <c r="E191" s="206"/>
+      <c r="F191" s="131" t="s">
         <v>254</v>
       </c>
-      <c r="G191" s="128"/>
-      <c r="H191" s="124" t="s">
+      <c r="G191" s="123"/>
+      <c r="H191" s="120" t="s">
         <v>228</v>
       </c>
-      <c r="I191" s="124" t="s">
+      <c r="I191" s="120" t="s">
         <v>73</v>
       </c>
       <c r="J191" s="9" t="s">
@@ -12701,75 +12703,75 @@
       <c r="K191" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="L191" s="129" t="s">
+      <c r="L191" s="124" t="s">
         <v>36</v>
       </c>
-      <c r="M191" s="137"/>
-      <c r="N191" s="133"/>
+      <c r="M191" s="132"/>
+      <c r="N191" s="128"/>
       <c r="O191" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="P191" s="137"/>
+      <c r="P191" s="132"/>
       <c r="Q191" s="9" t="s">
         <v>68</v>
       </c>
       <c r="R191" s="27"/>
-      <c r="S191" s="128"/>
+      <c r="S191" s="123"/>
       <c r="T191" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="U191" s="129"/>
-      <c r="V191" s="129"/>
-      <c r="W191" s="129"/>
-      <c r="X191" s="129"/>
-      <c r="Y191" s="130"/>
-      <c r="Z191" s="133"/>
-      <c r="AA191" s="127"/>
+      <c r="U191" s="124"/>
+      <c r="V191" s="124"/>
+      <c r="W191" s="124"/>
+      <c r="X191" s="124"/>
+      <c r="Y191" s="125"/>
+      <c r="Z191" s="128"/>
+      <c r="AA191" s="251"/>
     </row>
     <row r="192" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="248"/>
-      <c r="B192" s="197"/>
-      <c r="C192" s="197"/>
-      <c r="D192" s="197"/>
-      <c r="E192" s="200"/>
-      <c r="F192" s="136" t="s">
+      <c r="A192" s="199"/>
+      <c r="B192" s="201"/>
+      <c r="C192" s="201"/>
+      <c r="D192" s="201"/>
+      <c r="E192" s="206"/>
+      <c r="F192" s="131" t="s">
         <v>262</v>
       </c>
-      <c r="G192" s="128"/>
-      <c r="H192" s="137"/>
-      <c r="I192" s="137"/>
-      <c r="J192" s="137"/>
-      <c r="K192" s="137"/>
+      <c r="G192" s="123"/>
+      <c r="H192" s="132"/>
+      <c r="I192" s="132"/>
+      <c r="J192" s="132"/>
+      <c r="K192" s="132"/>
       <c r="L192" s="9"/>
-      <c r="M192" s="137"/>
-      <c r="N192" s="128"/>
-      <c r="O192" s="129"/>
-      <c r="P192" s="137"/>
-      <c r="Q192" s="137"/>
+      <c r="M192" s="132"/>
+      <c r="N192" s="123"/>
+      <c r="O192" s="124"/>
+      <c r="P192" s="132"/>
+      <c r="Q192" s="132"/>
       <c r="R192" s="27"/>
-      <c r="S192" s="128"/>
-      <c r="T192" s="129"/>
-      <c r="U192" s="129"/>
-      <c r="V192" s="129"/>
-      <c r="W192" s="129"/>
-      <c r="X192" s="129"/>
-      <c r="Y192" s="130"/>
-      <c r="Z192" s="133"/>
-      <c r="AA192" s="127"/>
+      <c r="S192" s="123"/>
+      <c r="T192" s="124"/>
+      <c r="U192" s="124"/>
+      <c r="V192" s="124"/>
+      <c r="W192" s="124"/>
+      <c r="X192" s="124"/>
+      <c r="Y192" s="125"/>
+      <c r="Z192" s="128"/>
+      <c r="AA192" s="251"/>
     </row>
     <row r="193" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="248"/>
-      <c r="B193" s="197"/>
-      <c r="C193" s="197"/>
-      <c r="D193" s="197"/>
-      <c r="E193" s="200"/>
-      <c r="F193" s="136" t="s">
+      <c r="A193" s="199"/>
+      <c r="B193" s="201"/>
+      <c r="C193" s="201"/>
+      <c r="D193" s="201"/>
+      <c r="E193" s="206"/>
+      <c r="F193" s="131" t="s">
         <v>263</v>
       </c>
-      <c r="G193" s="128" t="s">
+      <c r="G193" s="123" t="s">
         <v>69</v>
       </c>
-      <c r="H193" s="137"/>
+      <c r="H193" s="132"/>
       <c r="I193" s="9">
         <v>0</v>
       </c>
@@ -12785,67 +12787,67 @@
       <c r="M193" s="27" t="s">
         <v>251</v>
       </c>
-      <c r="N193" s="128"/>
-      <c r="O193" s="129"/>
-      <c r="P193" s="137"/>
-      <c r="Q193" s="137"/>
+      <c r="N193" s="123"/>
+      <c r="O193" s="124"/>
+      <c r="P193" s="132"/>
+      <c r="Q193" s="132"/>
       <c r="R193" s="27"/>
-      <c r="S193" s="128"/>
-      <c r="T193" s="129"/>
-      <c r="U193" s="129"/>
-      <c r="V193" s="129"/>
-      <c r="W193" s="129"/>
-      <c r="X193" s="129"/>
-      <c r="Y193" s="130"/>
-      <c r="Z193" s="133"/>
-      <c r="AA193" s="127"/>
+      <c r="S193" s="123"/>
+      <c r="T193" s="124"/>
+      <c r="U193" s="124"/>
+      <c r="V193" s="124"/>
+      <c r="W193" s="124"/>
+      <c r="X193" s="124"/>
+      <c r="Y193" s="125"/>
+      <c r="Z193" s="128"/>
+      <c r="AA193" s="251"/>
     </row>
     <row r="194" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A194" s="249"/>
-      <c r="B194" s="198"/>
-      <c r="C194" s="198"/>
-      <c r="D194" s="198"/>
-      <c r="E194" s="201"/>
-      <c r="F194" s="136" t="s">
+      <c r="A194" s="200"/>
+      <c r="B194" s="169"/>
+      <c r="C194" s="169"/>
+      <c r="D194" s="169"/>
+      <c r="E194" s="171"/>
+      <c r="F194" s="131" t="s">
         <v>264</v>
       </c>
-      <c r="G194" s="128"/>
-      <c r="H194" s="137"/>
-      <c r="I194" s="137"/>
-      <c r="J194" s="137"/>
-      <c r="K194" s="137"/>
+      <c r="G194" s="123"/>
+      <c r="H194" s="132"/>
+      <c r="I194" s="132"/>
+      <c r="J194" s="132"/>
+      <c r="K194" s="132"/>
       <c r="L194" s="9"/>
-      <c r="M194" s="137"/>
-      <c r="N194" s="128"/>
-      <c r="O194" s="129"/>
-      <c r="P194" s="137"/>
-      <c r="Q194" s="137"/>
+      <c r="M194" s="132"/>
+      <c r="N194" s="123"/>
+      <c r="O194" s="124"/>
+      <c r="P194" s="132"/>
+      <c r="Q194" s="132"/>
       <c r="R194" s="27"/>
-      <c r="S194" s="128"/>
-      <c r="T194" s="129"/>
-      <c r="U194" s="129"/>
-      <c r="V194" s="129"/>
-      <c r="W194" s="129"/>
-      <c r="X194" s="129"/>
-      <c r="Y194" s="130"/>
-      <c r="Z194" s="133"/>
-      <c r="AA194" s="127"/>
+      <c r="S194" s="123"/>
+      <c r="T194" s="124"/>
+      <c r="U194" s="124"/>
+      <c r="V194" s="124"/>
+      <c r="W194" s="124"/>
+      <c r="X194" s="124"/>
+      <c r="Y194" s="125"/>
+      <c r="Z194" s="128"/>
+      <c r="AA194" s="251"/>
     </row>
     <row r="195" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="247" t="s">
+      <c r="A195" s="198" t="s">
         <v>253</v>
       </c>
-      <c r="B195" s="197" t="s">
+      <c r="B195" s="201" t="s">
         <v>61</v>
       </c>
-      <c r="C195" s="197" t="s">
+      <c r="C195" s="201" t="s">
         <v>6</v>
       </c>
-      <c r="D195" s="196" t="s">
+      <c r="D195" s="168" t="s">
         <v>187</v>
       </c>
-      <c r="E195" s="199"/>
-      <c r="F195" s="123" t="s">
+      <c r="E195" s="170"/>
+      <c r="F195" s="119" t="s">
         <v>242</v>
       </c>
       <c r="G195" s="26"/>
@@ -12869,16 +12871,16 @@
       <c r="W195" s="9"/>
       <c r="X195" s="9"/>
       <c r="Y195" s="27"/>
-      <c r="Z195" s="133"/>
-      <c r="AA195" s="127"/>
+      <c r="Z195" s="128"/>
+      <c r="AA195" s="251"/>
     </row>
     <row r="196" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A196" s="248"/>
-      <c r="B196" s="197"/>
-      <c r="C196" s="197"/>
-      <c r="D196" s="197"/>
-      <c r="E196" s="200"/>
-      <c r="F196" s="102" t="s">
+      <c r="A196" s="199"/>
+      <c r="B196" s="201"/>
+      <c r="C196" s="201"/>
+      <c r="D196" s="201"/>
+      <c r="E196" s="206"/>
+      <c r="F196" s="98" t="s">
         <v>243</v>
       </c>
       <c r="G196" s="26"/>
@@ -12896,7 +12898,7 @@
       <c r="M196" s="27" t="s">
         <v>232</v>
       </c>
-      <c r="N196" s="126" t="s">
+      <c r="N196" s="122" t="s">
         <v>18</v>
       </c>
       <c r="O196" s="9"/>
@@ -12910,23 +12912,23 @@
       <c r="W196" s="9"/>
       <c r="X196" s="9"/>
       <c r="Y196" s="27"/>
-      <c r="Z196" s="133"/>
-      <c r="AA196" s="127"/>
+      <c r="Z196" s="128"/>
+      <c r="AA196" s="251"/>
     </row>
     <row r="197" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="248"/>
-      <c r="B197" s="197"/>
-      <c r="C197" s="197"/>
-      <c r="D197" s="197"/>
-      <c r="E197" s="200"/>
-      <c r="F197" s="102" t="s">
+      <c r="A197" s="199"/>
+      <c r="B197" s="201"/>
+      <c r="C197" s="201"/>
+      <c r="D197" s="201"/>
+      <c r="E197" s="206"/>
+      <c r="F197" s="98" t="s">
         <v>244</v>
       </c>
-      <c r="G197" s="128"/>
+      <c r="G197" s="123"/>
       <c r="H197" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="I197" s="124" t="s">
+      <c r="I197" s="120" t="s">
         <v>73</v>
       </c>
       <c r="J197" s="9" t="s">
@@ -12938,37 +12940,37 @@
       <c r="L197" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="M197" s="125"/>
-      <c r="N197" s="126" t="s">
-        <v>18</v>
-      </c>
-      <c r="O197" s="129" t="s">
-        <v>18</v>
-      </c>
-      <c r="P197" s="135"/>
-      <c r="Q197" s="124" t="s">
+      <c r="M197" s="121"/>
+      <c r="N197" s="122" t="s">
+        <v>18</v>
+      </c>
+      <c r="O197" s="124" t="s">
+        <v>18</v>
+      </c>
+      <c r="P197" s="130"/>
+      <c r="Q197" s="120" t="s">
         <v>68</v>
       </c>
       <c r="R197" s="27"/>
-      <c r="S197" s="126"/>
-      <c r="T197" s="124" t="s">
+      <c r="S197" s="122"/>
+      <c r="T197" s="120" t="s">
         <v>240</v>
       </c>
-      <c r="U197" s="124"/>
-      <c r="V197" s="124"/>
-      <c r="W197" s="124"/>
-      <c r="X197" s="124"/>
-      <c r="Y197" s="125"/>
-      <c r="Z197" s="133"/>
-      <c r="AA197" s="127"/>
+      <c r="U197" s="120"/>
+      <c r="V197" s="120"/>
+      <c r="W197" s="120"/>
+      <c r="X197" s="120"/>
+      <c r="Y197" s="121"/>
+      <c r="Z197" s="128"/>
+      <c r="AA197" s="251"/>
     </row>
     <row r="198" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="248"/>
-      <c r="B198" s="197"/>
-      <c r="C198" s="197"/>
-      <c r="D198" s="197"/>
-      <c r="E198" s="200"/>
-      <c r="F198" s="102" t="s">
+      <c r="A198" s="199"/>
+      <c r="B198" s="201"/>
+      <c r="C198" s="201"/>
+      <c r="D198" s="201"/>
+      <c r="E198" s="206"/>
+      <c r="F198" s="98" t="s">
         <v>245</v>
       </c>
       <c r="G198" s="26"/>
@@ -12989,7 +12991,7 @@
       </c>
       <c r="M198" s="27"/>
       <c r="N198" s="26"/>
-      <c r="O198" s="129" t="s">
+      <c r="O198" s="124" t="s">
         <v>18</v>
       </c>
       <c r="P198" s="9"/>
@@ -13006,16 +13008,16 @@
       <c r="W198" s="9"/>
       <c r="X198" s="9"/>
       <c r="Y198" s="27"/>
-      <c r="Z198" s="133"/>
-      <c r="AA198" s="127"/>
+      <c r="Z198" s="128"/>
+      <c r="AA198" s="251"/>
     </row>
     <row r="199" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A199" s="248"/>
-      <c r="B199" s="197"/>
-      <c r="C199" s="197"/>
-      <c r="D199" s="197"/>
-      <c r="E199" s="200"/>
-      <c r="F199" s="102" t="s">
+      <c r="A199" s="199"/>
+      <c r="B199" s="201"/>
+      <c r="C199" s="201"/>
+      <c r="D199" s="201"/>
+      <c r="E199" s="206"/>
+      <c r="F199" s="98" t="s">
         <v>254</v>
       </c>
       <c r="G199" s="26" t="s">
@@ -13049,630 +13051,498 @@
       <c r="W199" s="9"/>
       <c r="X199" s="9"/>
       <c r="Y199" s="27"/>
-      <c r="Z199" s="133"/>
-      <c r="AA199" s="127"/>
+      <c r="Z199" s="128"/>
+      <c r="AA199" s="251"/>
     </row>
     <row r="200" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A200" s="249"/>
-      <c r="B200" s="197"/>
-      <c r="C200" s="197"/>
-      <c r="D200" s="198"/>
-      <c r="E200" s="201"/>
+      <c r="A200" s="200"/>
+      <c r="B200" s="201"/>
+      <c r="C200" s="201"/>
+      <c r="D200" s="169"/>
+      <c r="E200" s="171"/>
       <c r="F200" s="20" t="s">
         <v>262</v>
       </c>
-      <c r="G200" s="128" t="s">
+      <c r="G200" s="123" t="s">
         <v>69</v>
       </c>
-      <c r="H200" s="129"/>
-      <c r="I200" s="129">
+      <c r="H200" s="124"/>
+      <c r="I200" s="124">
         <v>0</v>
       </c>
-      <c r="J200" s="129" t="s">
+      <c r="J200" s="124" t="s">
         <v>13</v>
       </c>
-      <c r="K200" s="129" t="s">
+      <c r="K200" s="124" t="s">
         <v>15</v>
       </c>
-      <c r="L200" s="129" t="s">
+      <c r="L200" s="124" t="s">
         <v>36</v>
       </c>
-      <c r="M200" s="130"/>
-      <c r="N200" s="126" t="s">
-        <v>18</v>
-      </c>
-      <c r="O200" s="129"/>
-      <c r="P200" s="129"/>
-      <c r="Q200" s="131"/>
+      <c r="M200" s="125"/>
+      <c r="N200" s="122" t="s">
+        <v>18</v>
+      </c>
+      <c r="O200" s="124"/>
+      <c r="P200" s="124"/>
+      <c r="Q200" s="126"/>
       <c r="R200" s="27"/>
-      <c r="S200" s="128" t="s">
+      <c r="S200" s="123" t="s">
         <v>38</v>
       </c>
-      <c r="T200" s="129"/>
-      <c r="U200" s="129" t="s">
+      <c r="T200" s="124"/>
+      <c r="U200" s="124" t="s">
         <v>250</v>
       </c>
-      <c r="V200" s="129" t="s">
+      <c r="V200" s="124" t="s">
         <v>70</v>
       </c>
-      <c r="W200" s="129"/>
-      <c r="X200" s="129"/>
-      <c r="Y200" s="130"/>
-      <c r="Z200" s="133"/>
-      <c r="AA200" s="127"/>
+      <c r="W200" s="124"/>
+      <c r="X200" s="124"/>
+      <c r="Y200" s="125"/>
+      <c r="Z200" s="128"/>
+      <c r="AA200" s="251"/>
     </row>
     <row r="201" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A201" s="139"/>
-      <c r="B201" s="140"/>
-      <c r="C201" s="141"/>
-      <c r="D201" s="141"/>
-      <c r="E201" s="142"/>
-      <c r="F201" s="143"/>
-      <c r="G201" s="144"/>
-      <c r="H201" s="145"/>
-      <c r="I201" s="145"/>
-      <c r="J201" s="145"/>
-      <c r="K201" s="145"/>
-      <c r="L201" s="145"/>
-      <c r="M201" s="146"/>
-      <c r="N201" s="144"/>
-      <c r="O201" s="145"/>
-      <c r="P201" s="145"/>
-      <c r="Q201" s="147"/>
-      <c r="R201" s="148"/>
-      <c r="S201" s="144"/>
-      <c r="T201" s="145"/>
-      <c r="U201" s="145"/>
-      <c r="V201" s="145"/>
-      <c r="W201" s="145"/>
-      <c r="X201" s="145"/>
-      <c r="Y201" s="148"/>
-      <c r="Z201" s="155"/>
-      <c r="AA201" s="157"/>
+      <c r="A201" s="134"/>
+      <c r="B201" s="135"/>
+      <c r="C201" s="136"/>
+      <c r="D201" s="136"/>
+      <c r="E201" s="137"/>
+      <c r="F201" s="138"/>
+      <c r="G201" s="139"/>
+      <c r="H201" s="140"/>
+      <c r="I201" s="140"/>
+      <c r="J201" s="140"/>
+      <c r="K201" s="140"/>
+      <c r="L201" s="140"/>
+      <c r="M201" s="141"/>
+      <c r="N201" s="139"/>
+      <c r="O201" s="140"/>
+      <c r="P201" s="140"/>
+      <c r="Q201" s="142"/>
+      <c r="R201" s="143"/>
+      <c r="S201" s="139"/>
+      <c r="T201" s="140"/>
+      <c r="U201" s="140"/>
+      <c r="V201" s="140"/>
+      <c r="W201" s="140"/>
+      <c r="X201" s="140"/>
+      <c r="Y201" s="143"/>
+      <c r="Z201" s="150"/>
+      <c r="AA201" s="252"/>
     </row>
     <row r="202" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A202" s="139"/>
-      <c r="B202" s="140"/>
-      <c r="C202" s="141"/>
-      <c r="D202" s="141"/>
-      <c r="E202" s="142"/>
-      <c r="F202" s="143"/>
-      <c r="G202" s="144"/>
-      <c r="H202" s="145"/>
-      <c r="I202" s="145"/>
-      <c r="J202" s="145"/>
-      <c r="K202" s="145"/>
-      <c r="L202" s="145"/>
-      <c r="M202" s="146"/>
-      <c r="N202" s="144"/>
-      <c r="O202" s="145"/>
-      <c r="P202" s="145"/>
-      <c r="Q202" s="147"/>
-      <c r="R202" s="148"/>
-      <c r="S202" s="144"/>
-      <c r="T202" s="145"/>
-      <c r="U202" s="145"/>
-      <c r="V202" s="145"/>
-      <c r="W202" s="145"/>
-      <c r="X202" s="145"/>
-      <c r="Y202" s="148"/>
-      <c r="Z202" s="155"/>
-      <c r="AA202" s="157"/>
+      <c r="A202" s="134"/>
+      <c r="B202" s="135"/>
+      <c r="C202" s="136"/>
+      <c r="D202" s="136"/>
+      <c r="E202" s="137"/>
+      <c r="F202" s="138"/>
+      <c r="G202" s="139"/>
+      <c r="H202" s="140"/>
+      <c r="I202" s="140"/>
+      <c r="J202" s="140"/>
+      <c r="K202" s="140"/>
+      <c r="L202" s="140"/>
+      <c r="M202" s="141"/>
+      <c r="N202" s="139"/>
+      <c r="O202" s="140"/>
+      <c r="P202" s="140"/>
+      <c r="Q202" s="142"/>
+      <c r="R202" s="143"/>
+      <c r="S202" s="139"/>
+      <c r="T202" s="140"/>
+      <c r="U202" s="140"/>
+      <c r="V202" s="140"/>
+      <c r="W202" s="140"/>
+      <c r="X202" s="140"/>
+      <c r="Y202" s="143"/>
+      <c r="Z202" s="150"/>
+      <c r="AA202" s="252"/>
     </row>
     <row r="203" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A203" s="139"/>
-      <c r="B203" s="140"/>
-      <c r="C203" s="141"/>
-      <c r="D203" s="141"/>
-      <c r="E203" s="142"/>
-      <c r="F203" s="143"/>
-      <c r="G203" s="144"/>
-      <c r="H203" s="145"/>
-      <c r="I203" s="145"/>
-      <c r="J203" s="145"/>
-      <c r="K203" s="145"/>
-      <c r="L203" s="145"/>
-      <c r="M203" s="146"/>
-      <c r="N203" s="144"/>
-      <c r="O203" s="145"/>
-      <c r="P203" s="145"/>
-      <c r="Q203" s="147"/>
-      <c r="R203" s="148"/>
-      <c r="S203" s="144"/>
-      <c r="T203" s="145"/>
-      <c r="U203" s="145"/>
-      <c r="V203" s="145"/>
-      <c r="W203" s="145"/>
-      <c r="X203" s="145"/>
-      <c r="Y203" s="148"/>
-      <c r="Z203" s="155"/>
-      <c r="AA203" s="157"/>
+      <c r="A203" s="134"/>
+      <c r="B203" s="135"/>
+      <c r="C203" s="136"/>
+      <c r="D203" s="136"/>
+      <c r="E203" s="137"/>
+      <c r="F203" s="138"/>
+      <c r="G203" s="139"/>
+      <c r="H203" s="140"/>
+      <c r="I203" s="140"/>
+      <c r="J203" s="140"/>
+      <c r="K203" s="140"/>
+      <c r="L203" s="140"/>
+      <c r="M203" s="141"/>
+      <c r="N203" s="139"/>
+      <c r="O203" s="140"/>
+      <c r="P203" s="140"/>
+      <c r="Q203" s="142"/>
+      <c r="R203" s="143"/>
+      <c r="S203" s="139"/>
+      <c r="T203" s="140"/>
+      <c r="U203" s="140"/>
+      <c r="V203" s="140"/>
+      <c r="W203" s="140"/>
+      <c r="X203" s="140"/>
+      <c r="Y203" s="143"/>
+      <c r="Z203" s="150"/>
+      <c r="AA203" s="252"/>
     </row>
     <row r="204" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A204" s="139"/>
-      <c r="B204" s="140"/>
-      <c r="C204" s="141"/>
-      <c r="D204" s="141"/>
-      <c r="E204" s="142"/>
-      <c r="F204" s="143"/>
-      <c r="G204" s="144"/>
-      <c r="H204" s="145"/>
-      <c r="I204" s="145"/>
-      <c r="J204" s="145"/>
-      <c r="K204" s="145"/>
-      <c r="L204" s="145"/>
-      <c r="M204" s="146"/>
-      <c r="N204" s="144"/>
-      <c r="O204" s="145"/>
-      <c r="P204" s="145"/>
-      <c r="Q204" s="147"/>
-      <c r="R204" s="148"/>
-      <c r="S204" s="144"/>
-      <c r="T204" s="145"/>
-      <c r="U204" s="145"/>
-      <c r="V204" s="145"/>
-      <c r="W204" s="145"/>
-      <c r="X204" s="145"/>
-      <c r="Y204" s="148"/>
-      <c r="Z204" s="155"/>
-      <c r="AA204" s="157"/>
+      <c r="A204" s="134"/>
+      <c r="B204" s="135"/>
+      <c r="C204" s="136"/>
+      <c r="D204" s="136"/>
+      <c r="E204" s="137"/>
+      <c r="F204" s="138"/>
+      <c r="G204" s="139"/>
+      <c r="H204" s="140"/>
+      <c r="I204" s="140"/>
+      <c r="J204" s="140"/>
+      <c r="K204" s="140"/>
+      <c r="L204" s="140"/>
+      <c r="M204" s="141"/>
+      <c r="N204" s="139"/>
+      <c r="O204" s="140"/>
+      <c r="P204" s="140"/>
+      <c r="Q204" s="142"/>
+      <c r="R204" s="143"/>
+      <c r="S204" s="139"/>
+      <c r="T204" s="140"/>
+      <c r="U204" s="140"/>
+      <c r="V204" s="140"/>
+      <c r="W204" s="140"/>
+      <c r="X204" s="140"/>
+      <c r="Y204" s="143"/>
+      <c r="Z204" s="150"/>
+      <c r="AA204" s="252"/>
     </row>
     <row r="205" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A205" s="139"/>
-      <c r="B205" s="140"/>
-      <c r="C205" s="141"/>
-      <c r="D205" s="141"/>
-      <c r="E205" s="142"/>
-      <c r="F205" s="143"/>
-      <c r="G205" s="144"/>
-      <c r="H205" s="145"/>
-      <c r="I205" s="145"/>
-      <c r="J205" s="145"/>
-      <c r="K205" s="145"/>
-      <c r="L205" s="145"/>
-      <c r="M205" s="146"/>
-      <c r="N205" s="144"/>
-      <c r="O205" s="145"/>
-      <c r="P205" s="145"/>
-      <c r="Q205" s="147"/>
-      <c r="R205" s="148"/>
-      <c r="S205" s="144"/>
-      <c r="T205" s="145"/>
-      <c r="U205" s="145"/>
-      <c r="V205" s="145"/>
-      <c r="W205" s="145"/>
-      <c r="X205" s="145"/>
-      <c r="Y205" s="148"/>
-      <c r="Z205" s="155"/>
-      <c r="AA205" s="157"/>
+      <c r="A205" s="134"/>
+      <c r="B205" s="135"/>
+      <c r="C205" s="136"/>
+      <c r="D205" s="136"/>
+      <c r="E205" s="137"/>
+      <c r="F205" s="138"/>
+      <c r="G205" s="139"/>
+      <c r="H205" s="140"/>
+      <c r="I205" s="140"/>
+      <c r="J205" s="140"/>
+      <c r="K205" s="140"/>
+      <c r="L205" s="140"/>
+      <c r="M205" s="141"/>
+      <c r="N205" s="139"/>
+      <c r="O205" s="140"/>
+      <c r="P205" s="140"/>
+      <c r="Q205" s="142"/>
+      <c r="R205" s="143"/>
+      <c r="S205" s="139"/>
+      <c r="T205" s="140"/>
+      <c r="U205" s="140"/>
+      <c r="V205" s="140"/>
+      <c r="W205" s="140"/>
+      <c r="X205" s="140"/>
+      <c r="Y205" s="143"/>
+      <c r="Z205" s="150"/>
+      <c r="AA205" s="252"/>
     </row>
     <row r="206" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A206" s="139"/>
-      <c r="B206" s="140"/>
-      <c r="C206" s="141"/>
-      <c r="D206" s="141"/>
-      <c r="E206" s="142"/>
-      <c r="F206" s="143"/>
-      <c r="G206" s="144"/>
-      <c r="H206" s="145"/>
-      <c r="I206" s="145"/>
-      <c r="J206" s="145"/>
-      <c r="K206" s="145"/>
-      <c r="L206" s="145"/>
-      <c r="M206" s="146"/>
-      <c r="N206" s="144"/>
-      <c r="O206" s="145"/>
-      <c r="P206" s="145"/>
-      <c r="Q206" s="147"/>
-      <c r="R206" s="148"/>
-      <c r="S206" s="144"/>
-      <c r="T206" s="145"/>
-      <c r="U206" s="145"/>
-      <c r="V206" s="145"/>
-      <c r="W206" s="145"/>
-      <c r="X206" s="145"/>
-      <c r="Y206" s="148"/>
-      <c r="Z206" s="155"/>
-      <c r="AA206" s="157"/>
+      <c r="A206" s="134"/>
+      <c r="B206" s="135"/>
+      <c r="C206" s="136"/>
+      <c r="D206" s="136"/>
+      <c r="E206" s="137"/>
+      <c r="F206" s="138"/>
+      <c r="G206" s="139"/>
+      <c r="H206" s="140"/>
+      <c r="I206" s="140"/>
+      <c r="J206" s="140"/>
+      <c r="K206" s="140"/>
+      <c r="L206" s="140"/>
+      <c r="M206" s="141"/>
+      <c r="N206" s="139"/>
+      <c r="O206" s="140"/>
+      <c r="P206" s="140"/>
+      <c r="Q206" s="142"/>
+      <c r="R206" s="143"/>
+      <c r="S206" s="139"/>
+      <c r="T206" s="140"/>
+      <c r="U206" s="140"/>
+      <c r="V206" s="140"/>
+      <c r="W206" s="140"/>
+      <c r="X206" s="140"/>
+      <c r="Y206" s="143"/>
+      <c r="Z206" s="150"/>
+      <c r="AA206" s="252"/>
     </row>
     <row r="207" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A207" s="139"/>
-      <c r="B207" s="140"/>
-      <c r="C207" s="141"/>
-      <c r="D207" s="141"/>
-      <c r="E207" s="142"/>
-      <c r="F207" s="143"/>
-      <c r="G207" s="144"/>
-      <c r="H207" s="145"/>
-      <c r="I207" s="145"/>
-      <c r="J207" s="145"/>
-      <c r="K207" s="145"/>
-      <c r="L207" s="145"/>
-      <c r="M207" s="146"/>
-      <c r="N207" s="144"/>
-      <c r="O207" s="145"/>
-      <c r="P207" s="145"/>
-      <c r="Q207" s="147"/>
-      <c r="R207" s="148"/>
-      <c r="S207" s="144"/>
-      <c r="T207" s="145"/>
-      <c r="U207" s="145"/>
-      <c r="V207" s="145"/>
-      <c r="W207" s="145"/>
-      <c r="X207" s="145"/>
-      <c r="Y207" s="148"/>
-      <c r="Z207" s="155"/>
-      <c r="AA207" s="157"/>
+      <c r="A207" s="134"/>
+      <c r="B207" s="135"/>
+      <c r="C207" s="136"/>
+      <c r="D207" s="136"/>
+      <c r="E207" s="137"/>
+      <c r="F207" s="138"/>
+      <c r="G207" s="139"/>
+      <c r="H207" s="140"/>
+      <c r="I207" s="140"/>
+      <c r="J207" s="140"/>
+      <c r="K207" s="140"/>
+      <c r="L207" s="140"/>
+      <c r="M207" s="141"/>
+      <c r="N207" s="139"/>
+      <c r="O207" s="140"/>
+      <c r="P207" s="140"/>
+      <c r="Q207" s="142"/>
+      <c r="R207" s="143"/>
+      <c r="S207" s="139"/>
+      <c r="T207" s="140"/>
+      <c r="U207" s="140"/>
+      <c r="V207" s="140"/>
+      <c r="W207" s="140"/>
+      <c r="X207" s="140"/>
+      <c r="Y207" s="143"/>
+      <c r="Z207" s="150"/>
+      <c r="AA207" s="252"/>
     </row>
     <row r="208" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A208" s="139"/>
-      <c r="B208" s="140"/>
-      <c r="C208" s="141"/>
-      <c r="D208" s="141"/>
-      <c r="E208" s="142"/>
-      <c r="F208" s="143"/>
-      <c r="G208" s="144"/>
-      <c r="H208" s="145"/>
-      <c r="I208" s="145"/>
-      <c r="J208" s="145"/>
-      <c r="K208" s="145"/>
-      <c r="L208" s="145"/>
-      <c r="M208" s="146"/>
-      <c r="N208" s="144"/>
-      <c r="O208" s="145"/>
-      <c r="P208" s="145"/>
-      <c r="Q208" s="147"/>
-      <c r="R208" s="148"/>
-      <c r="S208" s="144"/>
-      <c r="T208" s="145"/>
-      <c r="U208" s="145"/>
-      <c r="V208" s="145"/>
-      <c r="W208" s="145"/>
-      <c r="X208" s="145"/>
-      <c r="Y208" s="148"/>
-      <c r="Z208" s="155"/>
-      <c r="AA208" s="157"/>
+      <c r="A208" s="134"/>
+      <c r="B208" s="135"/>
+      <c r="C208" s="136"/>
+      <c r="D208" s="136"/>
+      <c r="E208" s="137"/>
+      <c r="F208" s="138"/>
+      <c r="G208" s="139"/>
+      <c r="H208" s="140"/>
+      <c r="I208" s="140"/>
+      <c r="J208" s="140"/>
+      <c r="K208" s="140"/>
+      <c r="L208" s="140"/>
+      <c r="M208" s="141"/>
+      <c r="N208" s="139"/>
+      <c r="O208" s="140"/>
+      <c r="P208" s="140"/>
+      <c r="Q208" s="142"/>
+      <c r="R208" s="143"/>
+      <c r="S208" s="139"/>
+      <c r="T208" s="140"/>
+      <c r="U208" s="140"/>
+      <c r="V208" s="140"/>
+      <c r="W208" s="140"/>
+      <c r="X208" s="140"/>
+      <c r="Y208" s="143"/>
+      <c r="Z208" s="150"/>
+      <c r="AA208" s="252"/>
     </row>
     <row r="209" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A209" s="139"/>
-      <c r="B209" s="140"/>
-      <c r="C209" s="141"/>
-      <c r="D209" s="141"/>
-      <c r="E209" s="142"/>
-      <c r="F209" s="143"/>
-      <c r="G209" s="144"/>
-      <c r="H209" s="145"/>
-      <c r="I209" s="145"/>
-      <c r="J209" s="145"/>
-      <c r="K209" s="145"/>
-      <c r="L209" s="145"/>
-      <c r="M209" s="146"/>
-      <c r="N209" s="144"/>
-      <c r="O209" s="145"/>
-      <c r="P209" s="145"/>
-      <c r="Q209" s="147"/>
-      <c r="R209" s="148"/>
-      <c r="S209" s="144"/>
-      <c r="T209" s="145"/>
-      <c r="U209" s="145"/>
-      <c r="V209" s="145"/>
-      <c r="W209" s="145"/>
-      <c r="X209" s="145"/>
-      <c r="Y209" s="148"/>
-      <c r="Z209" s="155"/>
-      <c r="AA209" s="157"/>
+      <c r="A209" s="134"/>
+      <c r="B209" s="135"/>
+      <c r="C209" s="136"/>
+      <c r="D209" s="136"/>
+      <c r="E209" s="137"/>
+      <c r="F209" s="138"/>
+      <c r="G209" s="139"/>
+      <c r="H209" s="140"/>
+      <c r="I209" s="140"/>
+      <c r="J209" s="140"/>
+      <c r="K209" s="140"/>
+      <c r="L209" s="140"/>
+      <c r="M209" s="141"/>
+      <c r="N209" s="139"/>
+      <c r="O209" s="140"/>
+      <c r="P209" s="140"/>
+      <c r="Q209" s="142"/>
+      <c r="R209" s="143"/>
+      <c r="S209" s="139"/>
+      <c r="T209" s="140"/>
+      <c r="U209" s="140"/>
+      <c r="V209" s="140"/>
+      <c r="W209" s="140"/>
+      <c r="X209" s="140"/>
+      <c r="Y209" s="143"/>
+      <c r="Z209" s="150"/>
+      <c r="AA209" s="252"/>
     </row>
     <row r="210" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A210" s="139"/>
-      <c r="B210" s="140"/>
-      <c r="C210" s="141"/>
-      <c r="D210" s="141"/>
-      <c r="E210" s="142"/>
-      <c r="F210" s="143"/>
-      <c r="G210" s="144"/>
-      <c r="H210" s="145"/>
-      <c r="I210" s="145"/>
-      <c r="J210" s="145"/>
-      <c r="K210" s="145"/>
-      <c r="L210" s="145"/>
-      <c r="M210" s="146"/>
-      <c r="N210" s="144"/>
-      <c r="O210" s="145"/>
-      <c r="P210" s="145"/>
-      <c r="Q210" s="147"/>
-      <c r="R210" s="148"/>
-      <c r="S210" s="144"/>
-      <c r="T210" s="145"/>
-      <c r="U210" s="145"/>
-      <c r="V210" s="145"/>
-      <c r="W210" s="145"/>
-      <c r="X210" s="145"/>
-      <c r="Y210" s="148"/>
-      <c r="Z210" s="155"/>
-      <c r="AA210" s="157"/>
+      <c r="A210" s="134"/>
+      <c r="B210" s="135"/>
+      <c r="C210" s="136"/>
+      <c r="D210" s="136"/>
+      <c r="E210" s="137"/>
+      <c r="F210" s="138"/>
+      <c r="G210" s="139"/>
+      <c r="H210" s="140"/>
+      <c r="I210" s="140"/>
+      <c r="J210" s="140"/>
+      <c r="K210" s="140"/>
+      <c r="L210" s="140"/>
+      <c r="M210" s="141"/>
+      <c r="N210" s="139"/>
+      <c r="O210" s="140"/>
+      <c r="P210" s="140"/>
+      <c r="Q210" s="142"/>
+      <c r="R210" s="143"/>
+      <c r="S210" s="139"/>
+      <c r="T210" s="140"/>
+      <c r="U210" s="140"/>
+      <c r="V210" s="140"/>
+      <c r="W210" s="140"/>
+      <c r="X210" s="140"/>
+      <c r="Y210" s="143"/>
+      <c r="Z210" s="150"/>
+      <c r="AA210" s="252"/>
     </row>
     <row r="211" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A211" s="139"/>
-      <c r="B211" s="140"/>
-      <c r="C211" s="141"/>
-      <c r="D211" s="141"/>
-      <c r="E211" s="142"/>
-      <c r="F211" s="143"/>
-      <c r="G211" s="144"/>
-      <c r="H211" s="145"/>
-      <c r="I211" s="145"/>
-      <c r="J211" s="145"/>
-      <c r="K211" s="145"/>
-      <c r="L211" s="145"/>
-      <c r="M211" s="146"/>
-      <c r="N211" s="144"/>
-      <c r="O211" s="145"/>
-      <c r="P211" s="145"/>
-      <c r="Q211" s="147"/>
-      <c r="R211" s="148"/>
-      <c r="S211" s="144"/>
-      <c r="T211" s="145"/>
-      <c r="U211" s="145"/>
-      <c r="V211" s="145"/>
-      <c r="W211" s="145"/>
-      <c r="X211" s="145"/>
-      <c r="Y211" s="148"/>
-      <c r="Z211" s="155"/>
-      <c r="AA211" s="157"/>
+      <c r="A211" s="134"/>
+      <c r="B211" s="135"/>
+      <c r="C211" s="136"/>
+      <c r="D211" s="136"/>
+      <c r="E211" s="137"/>
+      <c r="F211" s="138"/>
+      <c r="G211" s="139"/>
+      <c r="H211" s="140"/>
+      <c r="I211" s="140"/>
+      <c r="J211" s="140"/>
+      <c r="K211" s="140"/>
+      <c r="L211" s="140"/>
+      <c r="M211" s="141"/>
+      <c r="N211" s="139"/>
+      <c r="O211" s="140"/>
+      <c r="P211" s="140"/>
+      <c r="Q211" s="142"/>
+      <c r="R211" s="143"/>
+      <c r="S211" s="139"/>
+      <c r="T211" s="140"/>
+      <c r="U211" s="140"/>
+      <c r="V211" s="140"/>
+      <c r="W211" s="140"/>
+      <c r="X211" s="140"/>
+      <c r="Y211" s="143"/>
+      <c r="Z211" s="150"/>
+      <c r="AA211" s="252"/>
     </row>
     <row r="212" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A212" s="139"/>
-      <c r="B212" s="140"/>
-      <c r="C212" s="141"/>
-      <c r="D212" s="141"/>
-      <c r="E212" s="142"/>
-      <c r="F212" s="143"/>
-      <c r="G212" s="144"/>
-      <c r="H212" s="145"/>
-      <c r="I212" s="145"/>
-      <c r="J212" s="145"/>
-      <c r="K212" s="145"/>
-      <c r="L212" s="145"/>
-      <c r="M212" s="146"/>
-      <c r="N212" s="144"/>
-      <c r="O212" s="145"/>
-      <c r="P212" s="145"/>
-      <c r="Q212" s="147"/>
-      <c r="R212" s="148"/>
-      <c r="S212" s="144"/>
-      <c r="T212" s="145"/>
-      <c r="U212" s="145"/>
-      <c r="V212" s="145"/>
-      <c r="W212" s="145"/>
-      <c r="X212" s="145"/>
-      <c r="Y212" s="148"/>
-      <c r="Z212" s="155"/>
-      <c r="AA212" s="157"/>
+      <c r="A212" s="134"/>
+      <c r="B212" s="135"/>
+      <c r="C212" s="136"/>
+      <c r="D212" s="136"/>
+      <c r="E212" s="137"/>
+      <c r="F212" s="138"/>
+      <c r="G212" s="139"/>
+      <c r="H212" s="140"/>
+      <c r="I212" s="140"/>
+      <c r="J212" s="140"/>
+      <c r="K212" s="140"/>
+      <c r="L212" s="140"/>
+      <c r="M212" s="141"/>
+      <c r="N212" s="139"/>
+      <c r="O212" s="140"/>
+      <c r="P212" s="140"/>
+      <c r="Q212" s="142"/>
+      <c r="R212" s="143"/>
+      <c r="S212" s="139"/>
+      <c r="T212" s="140"/>
+      <c r="U212" s="140"/>
+      <c r="V212" s="140"/>
+      <c r="W212" s="140"/>
+      <c r="X212" s="140"/>
+      <c r="Y212" s="143"/>
+      <c r="Z212" s="150"/>
+      <c r="AA212" s="252"/>
     </row>
     <row r="213" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A213" s="139"/>
-      <c r="B213" s="140"/>
-      <c r="C213" s="141"/>
-      <c r="D213" s="141"/>
-      <c r="E213" s="142"/>
-      <c r="F213" s="143"/>
-      <c r="G213" s="144"/>
-      <c r="H213" s="145"/>
-      <c r="I213" s="145"/>
-      <c r="J213" s="145"/>
-      <c r="K213" s="145"/>
-      <c r="L213" s="145"/>
-      <c r="M213" s="146"/>
-      <c r="N213" s="144"/>
-      <c r="O213" s="145"/>
-      <c r="P213" s="145"/>
-      <c r="Q213" s="147"/>
-      <c r="R213" s="148"/>
-      <c r="S213" s="144"/>
-      <c r="T213" s="145"/>
-      <c r="U213" s="145"/>
-      <c r="V213" s="145"/>
-      <c r="W213" s="145"/>
-      <c r="X213" s="145"/>
-      <c r="Y213" s="148"/>
-      <c r="Z213" s="155"/>
-      <c r="AA213" s="157"/>
+      <c r="A213" s="134"/>
+      <c r="B213" s="135"/>
+      <c r="C213" s="136"/>
+      <c r="D213" s="136"/>
+      <c r="E213" s="137"/>
+      <c r="F213" s="138"/>
+      <c r="G213" s="139"/>
+      <c r="H213" s="140"/>
+      <c r="I213" s="140"/>
+      <c r="J213" s="140"/>
+      <c r="K213" s="140"/>
+      <c r="L213" s="140"/>
+      <c r="M213" s="141"/>
+      <c r="N213" s="139"/>
+      <c r="O213" s="140"/>
+      <c r="P213" s="140"/>
+      <c r="Q213" s="142"/>
+      <c r="R213" s="143"/>
+      <c r="S213" s="139"/>
+      <c r="T213" s="140"/>
+      <c r="U213" s="140"/>
+      <c r="V213" s="140"/>
+      <c r="W213" s="140"/>
+      <c r="X213" s="140"/>
+      <c r="Y213" s="143"/>
+      <c r="Z213" s="150"/>
+      <c r="AA213" s="252"/>
     </row>
     <row r="214" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A214" s="139"/>
-      <c r="B214" s="140"/>
-      <c r="C214" s="141"/>
-      <c r="D214" s="141"/>
-      <c r="E214" s="142"/>
-      <c r="F214" s="143"/>
-      <c r="G214" s="144"/>
-      <c r="H214" s="145"/>
-      <c r="I214" s="145"/>
-      <c r="J214" s="145"/>
-      <c r="K214" s="145"/>
-      <c r="L214" s="145"/>
-      <c r="M214" s="146"/>
-      <c r="N214" s="144"/>
-      <c r="O214" s="145"/>
-      <c r="P214" s="145"/>
-      <c r="Q214" s="147"/>
-      <c r="R214" s="148"/>
-      <c r="S214" s="144"/>
-      <c r="T214" s="145"/>
-      <c r="U214" s="145"/>
-      <c r="V214" s="145"/>
-      <c r="W214" s="145"/>
-      <c r="X214" s="145"/>
-      <c r="Y214" s="148"/>
-      <c r="Z214" s="155"/>
-      <c r="AA214" s="157"/>
+      <c r="A214" s="134"/>
+      <c r="B214" s="135"/>
+      <c r="C214" s="136"/>
+      <c r="D214" s="136"/>
+      <c r="E214" s="137"/>
+      <c r="F214" s="138"/>
+      <c r="G214" s="139"/>
+      <c r="H214" s="140"/>
+      <c r="I214" s="140"/>
+      <c r="J214" s="140"/>
+      <c r="K214" s="140"/>
+      <c r="L214" s="140"/>
+      <c r="M214" s="141"/>
+      <c r="N214" s="139"/>
+      <c r="O214" s="140"/>
+      <c r="P214" s="140"/>
+      <c r="Q214" s="142"/>
+      <c r="R214" s="143"/>
+      <c r="S214" s="139"/>
+      <c r="T214" s="140"/>
+      <c r="U214" s="140"/>
+      <c r="V214" s="140"/>
+      <c r="W214" s="140"/>
+      <c r="X214" s="140"/>
+      <c r="Y214" s="143"/>
+      <c r="Z214" s="150"/>
+      <c r="AA214" s="252"/>
     </row>
     <row r="215" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A215" s="139"/>
-      <c r="B215" s="140"/>
-      <c r="C215" s="143"/>
-      <c r="D215" s="143"/>
-      <c r="E215" s="142"/>
-      <c r="F215" s="143"/>
-      <c r="G215" s="144"/>
-      <c r="H215" s="145"/>
-      <c r="I215" s="145"/>
-      <c r="J215" s="145"/>
-      <c r="K215" s="145"/>
-      <c r="L215" s="145"/>
-      <c r="M215" s="146"/>
-      <c r="N215" s="144"/>
-      <c r="O215" s="145"/>
-      <c r="P215" s="145"/>
-      <c r="Q215" s="147"/>
-      <c r="R215" s="148"/>
-      <c r="S215" s="144"/>
-      <c r="T215" s="145"/>
-      <c r="U215" s="145"/>
-      <c r="V215" s="145"/>
-      <c r="W215" s="145"/>
-      <c r="X215" s="145"/>
-      <c r="Y215" s="148"/>
-      <c r="Z215" s="155"/>
-      <c r="AA215" s="161"/>
+      <c r="A215" s="134"/>
+      <c r="B215" s="135"/>
+      <c r="C215" s="138"/>
+      <c r="D215" s="138"/>
+      <c r="E215" s="137"/>
+      <c r="F215" s="138"/>
+      <c r="G215" s="139"/>
+      <c r="H215" s="140"/>
+      <c r="I215" s="140"/>
+      <c r="J215" s="140"/>
+      <c r="K215" s="140"/>
+      <c r="L215" s="140"/>
+      <c r="M215" s="141"/>
+      <c r="N215" s="139"/>
+      <c r="O215" s="140"/>
+      <c r="P215" s="140"/>
+      <c r="Q215" s="142"/>
+      <c r="R215" s="143"/>
+      <c r="S215" s="139"/>
+      <c r="T215" s="140"/>
+      <c r="U215" s="140"/>
+      <c r="V215" s="140"/>
+      <c r="W215" s="140"/>
+      <c r="X215" s="140"/>
+      <c r="Y215" s="143"/>
+      <c r="Z215" s="150"/>
+      <c r="AA215" s="253"/>
     </row>
     <row r="216" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="AA216" s="162"/>
+      <c r="AA216" s="152"/>
     </row>
   </sheetData>
   <mergeCells count="156">
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="D80:D81"/>
-    <mergeCell ref="E80:E81"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A173:A175"/>
-    <mergeCell ref="B173:B175"/>
-    <mergeCell ref="D149:E149"/>
-    <mergeCell ref="D150:E150"/>
-    <mergeCell ref="A110:A111"/>
-    <mergeCell ref="B110:B111"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="A158:A164"/>
-    <mergeCell ref="B158:B164"/>
-    <mergeCell ref="C158:C164"/>
-    <mergeCell ref="D158:E164"/>
-    <mergeCell ref="D165:E165"/>
-    <mergeCell ref="A151:A152"/>
-    <mergeCell ref="A121:A122"/>
-    <mergeCell ref="B121:B122"/>
-    <mergeCell ref="C121:C122"/>
-    <mergeCell ref="D121:D122"/>
-    <mergeCell ref="E121:E122"/>
-    <mergeCell ref="D155:E155"/>
-    <mergeCell ref="A195:A200"/>
-    <mergeCell ref="B195:B200"/>
-    <mergeCell ref="C195:C200"/>
-    <mergeCell ref="D186:E186"/>
-    <mergeCell ref="D185:E185"/>
-    <mergeCell ref="C176:C178"/>
-    <mergeCell ref="D176:E178"/>
-    <mergeCell ref="A179:A181"/>
-    <mergeCell ref="B182:B184"/>
-    <mergeCell ref="C179:C181"/>
-    <mergeCell ref="C182:C184"/>
-    <mergeCell ref="D179:E181"/>
-    <mergeCell ref="D182:E184"/>
-    <mergeCell ref="A182:A184"/>
-    <mergeCell ref="B176:B178"/>
-    <mergeCell ref="D195:E200"/>
-    <mergeCell ref="D187:E194"/>
-    <mergeCell ref="A187:A194"/>
-    <mergeCell ref="B187:B194"/>
-    <mergeCell ref="C187:C194"/>
-    <mergeCell ref="G1:M1"/>
-    <mergeCell ref="N1:R1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:E2"/>
-    <mergeCell ref="D140:E140"/>
-    <mergeCell ref="A112:A115"/>
-    <mergeCell ref="B112:B115"/>
-    <mergeCell ref="C112:C115"/>
-    <mergeCell ref="D112:D115"/>
-    <mergeCell ref="E112:E115"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="B80:B81"/>
-    <mergeCell ref="B95:B97"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="C98:C100"/>
-    <mergeCell ref="C80:C81"/>
-    <mergeCell ref="E82:E83"/>
-    <mergeCell ref="B151:B152"/>
-    <mergeCell ref="C151:E152"/>
-    <mergeCell ref="A153:A154"/>
-    <mergeCell ref="B153:B154"/>
-    <mergeCell ref="C153:E154"/>
-    <mergeCell ref="A116:A117"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="C82:C83"/>
-    <mergeCell ref="D82:D83"/>
-    <mergeCell ref="C95:C97"/>
-    <mergeCell ref="A92:A94"/>
-    <mergeCell ref="A95:A97"/>
-    <mergeCell ref="A98:A100"/>
-    <mergeCell ref="B92:B94"/>
-    <mergeCell ref="C92:C94"/>
-    <mergeCell ref="B98:B100"/>
-    <mergeCell ref="C110:C111"/>
-    <mergeCell ref="D110:D111"/>
-    <mergeCell ref="E110:E111"/>
-    <mergeCell ref="B116:B117"/>
-    <mergeCell ref="C116:C117"/>
-    <mergeCell ref="D116:D117"/>
-    <mergeCell ref="E116:E117"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="S1:Y1"/>
-    <mergeCell ref="D172:E172"/>
-    <mergeCell ref="D167:E167"/>
-    <mergeCell ref="D168:E168"/>
-    <mergeCell ref="D169:E169"/>
-    <mergeCell ref="D170:E170"/>
-    <mergeCell ref="D171:E171"/>
-    <mergeCell ref="D156:E156"/>
-    <mergeCell ref="D157:E157"/>
-    <mergeCell ref="D166:E166"/>
-    <mergeCell ref="E98:E100"/>
-    <mergeCell ref="D78:D79"/>
-    <mergeCell ref="E78:E79"/>
-    <mergeCell ref="D98:D100"/>
-    <mergeCell ref="D145:E145"/>
-    <mergeCell ref="D146:E146"/>
-    <mergeCell ref="D147:E147"/>
-    <mergeCell ref="D148:E148"/>
-    <mergeCell ref="D92:D94"/>
-    <mergeCell ref="E92:E94"/>
-    <mergeCell ref="D95:D97"/>
-    <mergeCell ref="E95:E97"/>
     <mergeCell ref="AA1:AA2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="C173:C175"/>
@@ -13697,6 +13567,138 @@
     <mergeCell ref="E57:E58"/>
     <mergeCell ref="B65:B66"/>
     <mergeCell ref="C65:C66"/>
+    <mergeCell ref="S1:Y1"/>
+    <mergeCell ref="D172:E172"/>
+    <mergeCell ref="D167:E167"/>
+    <mergeCell ref="D168:E168"/>
+    <mergeCell ref="D169:E169"/>
+    <mergeCell ref="D170:E170"/>
+    <mergeCell ref="D171:E171"/>
+    <mergeCell ref="D156:E156"/>
+    <mergeCell ref="D157:E157"/>
+    <mergeCell ref="D166:E166"/>
+    <mergeCell ref="E98:E100"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="E78:E79"/>
+    <mergeCell ref="D98:D100"/>
+    <mergeCell ref="D145:E145"/>
+    <mergeCell ref="D146:E146"/>
+    <mergeCell ref="D147:E147"/>
+    <mergeCell ref="D148:E148"/>
+    <mergeCell ref="D92:D94"/>
+    <mergeCell ref="E92:E94"/>
+    <mergeCell ref="D95:D97"/>
+    <mergeCell ref="E95:E97"/>
+    <mergeCell ref="G1:M1"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="B151:B152"/>
+    <mergeCell ref="C151:E152"/>
+    <mergeCell ref="A153:A154"/>
+    <mergeCell ref="B153:B154"/>
+    <mergeCell ref="C153:E154"/>
+    <mergeCell ref="A116:A117"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="C82:C83"/>
+    <mergeCell ref="D82:D83"/>
+    <mergeCell ref="C95:C97"/>
+    <mergeCell ref="A92:A94"/>
+    <mergeCell ref="A95:A97"/>
+    <mergeCell ref="A98:A100"/>
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="C92:C94"/>
+    <mergeCell ref="B98:B100"/>
+    <mergeCell ref="C110:C111"/>
+    <mergeCell ref="D110:D111"/>
+    <mergeCell ref="E110:E111"/>
+    <mergeCell ref="B116:B117"/>
+    <mergeCell ref="C116:C117"/>
+    <mergeCell ref="D116:D117"/>
+    <mergeCell ref="E116:E117"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:E2"/>
+    <mergeCell ref="D140:E140"/>
+    <mergeCell ref="A112:A115"/>
+    <mergeCell ref="B112:B115"/>
+    <mergeCell ref="C112:C115"/>
+    <mergeCell ref="D112:D115"/>
+    <mergeCell ref="E112:E115"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="B95:B97"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="C98:C100"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="A195:A200"/>
+    <mergeCell ref="B195:B200"/>
+    <mergeCell ref="C195:C200"/>
+    <mergeCell ref="D186:E186"/>
+    <mergeCell ref="D185:E185"/>
+    <mergeCell ref="C176:C178"/>
+    <mergeCell ref="D176:E178"/>
+    <mergeCell ref="A179:A181"/>
+    <mergeCell ref="B182:B184"/>
+    <mergeCell ref="C179:C181"/>
+    <mergeCell ref="C182:C184"/>
+    <mergeCell ref="D179:E181"/>
+    <mergeCell ref="D182:E184"/>
+    <mergeCell ref="A182:A184"/>
+    <mergeCell ref="B176:B178"/>
+    <mergeCell ref="D195:E200"/>
+    <mergeCell ref="D187:E194"/>
+    <mergeCell ref="A187:A194"/>
+    <mergeCell ref="B187:B194"/>
+    <mergeCell ref="C187:C194"/>
+    <mergeCell ref="A173:A175"/>
+    <mergeCell ref="B173:B175"/>
+    <mergeCell ref="D149:E149"/>
+    <mergeCell ref="D150:E150"/>
+    <mergeCell ref="A110:A111"/>
+    <mergeCell ref="B110:B111"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="A158:A164"/>
+    <mergeCell ref="B158:B164"/>
+    <mergeCell ref="C158:C164"/>
+    <mergeCell ref="D158:E164"/>
+    <mergeCell ref="D165:E165"/>
+    <mergeCell ref="A151:A152"/>
+    <mergeCell ref="A121:A122"/>
+    <mergeCell ref="B121:B122"/>
+    <mergeCell ref="C121:C122"/>
+    <mergeCell ref="D121:D122"/>
+    <mergeCell ref="E121:E122"/>
+    <mergeCell ref="D155:E155"/>
+    <mergeCell ref="E82:E83"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="D80:D81"/>
+    <mergeCell ref="E80:E81"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="E65:E66"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="36" fitToHeight="5" orientation="landscape" verticalDpi="0" r:id="rId1"/>
